--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3029B5-2BE0-4569-BFD7-3D1AE8B1E271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED22572-C07A-4803-B0B9-6CED15DFFE62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>About This Template</t>
   </si>
@@ -190,19 +190,7 @@
     <t>3.3 Design User Interface</t>
   </si>
   <si>
-    <t>4.2 สร้าง User Interface</t>
-  </si>
-  <si>
-    <t>4.3 สร้าง Controller ฝั่ง Backend</t>
-  </si>
-  <si>
-    <t>4.4 สร้าง Controller ฝั่ง Frontend</t>
-  </si>
-  <si>
     <t>5.1 สร้าง Tasting</t>
-  </si>
-  <si>
-    <t>6.1 ให้พนักงานทดลองใช้ระบบ ILSDashBoard</t>
   </si>
   <si>
     <t>7.1 สอนการใช้งาน</t>
@@ -223,7 +211,37 @@
     <t>1.1 ขอ Requirement เรื่อง HR กับพี่หรั่ง</t>
   </si>
   <si>
-    <t>4.1 สร้าง Entity Backend</t>
+    <t>4.6 สร้าง User Interface ระบบย่อย ลางาน</t>
+  </si>
+  <si>
+    <t>4.1 สร้าง Login และเชื่อม Login</t>
+  </si>
+  <si>
+    <t>4.2 สร้าง Entity Backend ระบบย่อย master</t>
+  </si>
+  <si>
+    <t>4.3 สร้าง User Interface ระบบย่อย master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 สร้าง Controller ระบบย่อย master </t>
+  </si>
+  <si>
+    <t>4.5 สร้าง Entity Backend ระบบย่อย ลางาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7 สร้าง Controller ระบบย่อย ลางาน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10 สร้าง Controller ระบบย่อย OT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9 สร้าง User Interface ระบบย่อย OT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 สร้าง Entity Backend ระบบย่อย OT </t>
+  </si>
+  <si>
+    <t>6.1 ให้พนักงานทดลองใช้ระบบ HR-Admin</t>
   </si>
 </sst>
 </file>
@@ -456,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -613,9 +631,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
         <color theme="6" tint="0.39997558519241921"/>
@@ -628,10 +723,75 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,13 +801,252 @@
       <right style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color theme="6" tint="0.39997558519241921"/>
@@ -660,31 +1059,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -694,7 +1075,68 @@
         <color theme="6" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
-        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
         <color theme="6" tint="0.39997558519241921"/>
@@ -705,14 +1147,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -720,32 +1171,30 @@
         <color theme="6" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="8" tint="0.59999389629810485"/>
-      </bottom>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="8" tint="0.59999389629810485"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="6"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color theme="6" tint="0.39997558519241921"/>
@@ -755,30 +1204,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,7 +1242,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,9 +1267,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,12 +1336,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,48 +1345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -976,179 +1357,458 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="40" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="34" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="39" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="37" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="26" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1165,257 +1825,153 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="48">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="2" tint="-9.9948118533890809E-2"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color theme="2" tint="-9.9948118533890809E-2"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color rgb="FFC00000"/>
         </left>
         <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color rgb="FFC00000"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1727,6 +2283,251 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1871,20 +2672,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="totalRow" dxfId="35"/>
-      <tableStyleElement type="firstColumn" dxfId="34"/>
-      <tableStyleElement type="lastColumn" dxfId="33"/>
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="30"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="firstColumn" dxfId="41"/>
+      <tableStyleElement type="lastColumn" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2037,20 +2838,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K31" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="35" headerRowBorderDxfId="1">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="30" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="29" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="26">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="25">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2329,23 +3130,23 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO33"/>
+  <dimension ref="A1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="67" width="3.5703125" style="1" customWidth="1"/>
@@ -2355,526 +3156,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="54"/>
-      <c r="L1" s="22" t="s">
+      <c r="I1" s="37"/>
+      <c r="L1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="55"/>
-      <c r="L2" s="112" t="s">
+      <c r="C2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="38"/>
+      <c r="L2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="Q2" s="113" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="Q2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="V2" s="114" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="V2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="AA2" s="104" t="s">
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="AA2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AF2" s="105" t="s">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="109">
+      <c r="E3" s="44"/>
+      <c r="F3" s="46">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
         <v>43789</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="53"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="12">
+      <c r="E4" s="44"/>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="L4" s="27" t="str">
+      <c r="G4" s="31"/>
+      <c r="L4" s="26" t="str">
         <f ca="1">TEXT(L5,"mmmm")</f>
         <v>พฤศจิกายน</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27" t="str">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26" t="str">
         <f ca="1">IF(TEXT(S5,"mmmm")=L4,"",TEXT(S5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27" t="str">
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(Z5,"mmmm")=S4,TEXT(Z5,"mmmm")=L4),"",TEXT(Z5,"mmmm"))</f>
         <v>ธันวาคม</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27" t="str">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(AG5,"mmmm")=Z4,TEXT(AG5,"mmmm")=S4,TEXT(AG5,"mmmm")=L4),"",TEXT(AG5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27" t="str">
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(AN5,"mmmm")=AG4,TEXT(AN5,"mmmm")=Z4,TEXT(AN5,"mmmm")=S4,TEXT(AN5,"mmmm")=L4),"",TEXT(AN5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27" t="str">
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(AU5,"mmmm")=AN4,TEXT(AU5,"mmmm")=AG4,TEXT(AU5,"mmmm")=Z4,TEXT(AU5,"mmmm")=S4),"",TEXT(AU5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27" t="str">
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(BB5,"mmmm")=AU4,TEXT(BB5,"mmmm")=AN4,TEXT(BB5,"mmmm")=AG4,TEXT(BB5,"mmmm")=Z4),"",TEXT(BB5,"mmmm"))</f>
         <v>มกราคม</v>
       </c>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27"/>
-      <c r="BE4" s="27"/>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="27"/>
-      <c r="BH4" s="27"/>
-      <c r="BI4" s="27" t="str">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(BI5,"mmmm")=BB4,TEXT(BI5,"mmmm")=AU4,TEXT(BI5,"mmmm")=AN4,TEXT(BI5,"mmmm")=AG4),"",TEXT(BI5,"mmmm"))</f>
         <v/>
       </c>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="27"/>
-      <c r="BN4" s="27"/>
-      <c r="BO4" s="27"/>
+      <c r="BJ4" s="26"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
     </row>
     <row r="5" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="16">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43789</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <f ca="1">L5+1</f>
         <v>43790</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <f t="shared" ref="N5:BA5" ca="1" si="0">M5+1</f>
         <v>43791</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43792</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43793</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43794</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43795</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <f ca="1">R5+1</f>
         <v>43796</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="16">
         <f ca="1">S5+1</f>
         <v>43797</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43798</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43799</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43800</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43801</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43802</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="15">
         <f ca="1">Y5+1</f>
         <v>43803</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="16">
         <f ca="1">Z5+1</f>
         <v>43804</v>
       </c>
-      <c r="AB5" s="17">
+      <c r="AB5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43805</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43806</v>
       </c>
-      <c r="AD5" s="17">
+      <c r="AD5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43807</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43808</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43809</v>
       </c>
-      <c r="AG5" s="16">
+      <c r="AG5" s="15">
         <f ca="1">AF5+1</f>
         <v>43810</v>
       </c>
-      <c r="AH5" s="17">
+      <c r="AH5" s="16">
         <f ca="1">AG5+1</f>
         <v>43811</v>
       </c>
-      <c r="AI5" s="17">
+      <c r="AI5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43812</v>
       </c>
-      <c r="AJ5" s="17">
+      <c r="AJ5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43813</v>
       </c>
-      <c r="AK5" s="17">
+      <c r="AK5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43814</v>
       </c>
-      <c r="AL5" s="17">
+      <c r="AL5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43815</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43816</v>
       </c>
-      <c r="AN5" s="16">
+      <c r="AN5" s="15">
         <f ca="1">AM5+1</f>
         <v>43817</v>
       </c>
-      <c r="AO5" s="17">
+      <c r="AO5" s="16">
         <f ca="1">AN5+1</f>
         <v>43818</v>
       </c>
-      <c r="AP5" s="17">
+      <c r="AP5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43819</v>
       </c>
-      <c r="AQ5" s="17">
+      <c r="AQ5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43820</v>
       </c>
-      <c r="AR5" s="17">
+      <c r="AR5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43821</v>
       </c>
-      <c r="AS5" s="17">
+      <c r="AS5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43822</v>
       </c>
-      <c r="AT5" s="18">
+      <c r="AT5" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43823</v>
       </c>
-      <c r="AU5" s="16">
+      <c r="AU5" s="15">
         <f ca="1">AT5+1</f>
         <v>43824</v>
       </c>
-      <c r="AV5" s="17">
+      <c r="AV5" s="16">
         <f ca="1">AU5+1</f>
         <v>43825</v>
       </c>
-      <c r="AW5" s="17">
+      <c r="AW5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43826</v>
       </c>
-      <c r="AX5" s="17">
+      <c r="AX5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43827</v>
       </c>
-      <c r="AY5" s="17">
+      <c r="AY5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43828</v>
       </c>
-      <c r="AZ5" s="17">
+      <c r="AZ5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>43829</v>
       </c>
-      <c r="BA5" s="18">
+      <c r="BA5" s="17">
         <f t="shared" ca="1" si="0"/>
         <v>43830</v>
       </c>
-      <c r="BB5" s="16">
+      <c r="BB5" s="15">
         <f ca="1">BA5+1</f>
         <v>43831</v>
       </c>
-      <c r="BC5" s="17">
+      <c r="BC5" s="16">
         <f ca="1">BB5+1</f>
         <v>43832</v>
       </c>
-      <c r="BD5" s="17">
+      <c r="BD5" s="16">
         <f t="shared" ref="BD5:BH5" ca="1" si="1">BC5+1</f>
         <v>43833</v>
       </c>
-      <c r="BE5" s="17">
+      <c r="BE5" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>43834</v>
       </c>
-      <c r="BF5" s="17">
+      <c r="BF5" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>43835</v>
       </c>
-      <c r="BG5" s="17">
+      <c r="BG5" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>43836</v>
       </c>
-      <c r="BH5" s="18">
+      <c r="BH5" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>43837</v>
       </c>
-      <c r="BI5" s="16">
+      <c r="BI5" s="15">
         <f ca="1">BH5+1</f>
         <v>43838</v>
       </c>
-      <c r="BJ5" s="17">
+      <c r="BJ5" s="16">
         <f ca="1">BI5+1</f>
         <v>43839</v>
       </c>
-      <c r="BK5" s="17">
+      <c r="BK5" s="16">
         <f t="shared" ref="BK5:BO5" ca="1" si="2">BJ5+1</f>
         <v>43840</v>
       </c>
-      <c r="BL5" s="17">
+      <c r="BL5" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>43841</v>
       </c>
-      <c r="BM5" s="17">
+      <c r="BM5" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>43842</v>
       </c>
-      <c r="BN5" s="17">
+      <c r="BN5" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>43843</v>
       </c>
-      <c r="BO5" s="18">
+      <c r="BO5" s="17">
         <f t="shared" ca="1" si="2"/>
         <v>43844</v>
       </c>
     </row>
     <row r="6" spans="1:67" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
-      <c r="BE6" s="14"/>
-      <c r="BF6" s="14"/>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="14"/>
-      <c r="BK6" s="14"/>
-      <c r="BL6" s="14"/>
-      <c r="BM6" s="14"/>
-      <c r="BN6" s="14"/>
-      <c r="BO6" s="15"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="14"/>
     </row>
     <row r="7" spans="1:67" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="190" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
@@ -3103,3072 +3904,3624 @@
       </c>
     </row>
     <row r="8" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="66">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63">
         <f>F9</f>
         <v>43789</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="63">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43790</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="64">
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="38" t="str">
+      <c r="I8" s="185"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="35" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P8" s="11" t="str">
+      <c r="P8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q8" s="11" t="str">
+      <c r="Q8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R8" s="11" t="str">
+      <c r="R8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S8" s="11" t="str">
+      <c r="S8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T8" s="11" t="str">
+      <c r="T8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U8" s="11" t="str">
+      <c r="U8" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V8" s="11" t="str">
+      <c r="V8" s="10" t="str">
         <f t="shared" ref="V8:AE12" ca="1" si="7">IF(AND($C8="Goal",V$5&gt;=$F8,V$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",V$5&gt;=$F8,V$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
-      <c r="W8" s="11" t="str">
+      <c r="W8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="X8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y8" s="11" t="str">
+      <c r="Y8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z8" s="11" t="str">
+      <c r="Z8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA8" s="11" t="str">
+      <c r="AA8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB8" s="11" t="str">
+      <c r="AB8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC8" s="11" t="str">
+      <c r="AC8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD8" s="11" t="str">
+      <c r="AD8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE8" s="11" t="str">
+      <c r="AE8" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF8" s="11" t="str">
+      <c r="AF8" s="10" t="str">
         <f t="shared" ref="AF8:AO12" ca="1" si="8">IF(AND($C8="Goal",AF$5&gt;=$F8,AF$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AF$5&gt;=$F8,AF$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
-      <c r="AG8" s="11" t="str">
+      <c r="AG8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH8" s="11" t="str">
+      <c r="AH8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI8" s="11" t="str">
+      <c r="AI8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ8" s="11" t="str">
+      <c r="AJ8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK8" s="11" t="str">
+      <c r="AK8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL8" s="11" t="str">
+      <c r="AL8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM8" s="11" t="str">
+      <c r="AM8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN8" s="11" t="str">
+      <c r="AN8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO8" s="11" t="str">
+      <c r="AO8" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP8" s="11" t="str">
+      <c r="AP8" s="10" t="str">
         <f t="shared" ref="AP8:AY12" ca="1" si="9">IF(AND($C8="Goal",AP$5&gt;=$F8,AP$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AP$5&gt;=$F8,AP$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
-      <c r="AQ8" s="11" t="str">
+      <c r="AQ8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR8" s="11" t="str">
+      <c r="AR8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS8" s="11" t="str">
+      <c r="AS8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT8" s="11" t="str">
+      <c r="AT8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU8" s="11" t="str">
+      <c r="AU8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV8" s="11" t="str">
+      <c r="AV8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW8" s="11" t="str">
+      <c r="AW8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX8" s="11" t="str">
+      <c r="AX8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY8" s="11" t="str">
+      <c r="AY8" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ8" s="11" t="str">
+      <c r="AZ8" s="10" t="str">
         <f t="shared" ref="AZ8:BI12" ca="1" si="10">IF(AND($C8="Goal",AZ$5&gt;=$F8,AZ$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",AZ$5&gt;=$F8,AZ$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
-      <c r="BA8" s="11" t="str">
+      <c r="BA8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB8" s="11" t="str">
+      <c r="BB8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC8" s="11" t="str">
+      <c r="BC8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD8" s="11" t="str">
+      <c r="BD8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE8" s="11" t="str">
+      <c r="BE8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF8" s="11" t="str">
+      <c r="BF8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG8" s="11" t="str">
+      <c r="BG8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH8" s="11" t="str">
+      <c r="BH8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI8" s="11" t="str">
+      <c r="BI8" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ8" s="11" t="str">
+      <c r="BJ8" s="10" t="str">
         <f t="shared" ref="BJ8:BO12" ca="1" si="11">IF(AND($C8="Goal",BJ$5&gt;=$F8,BJ$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",BJ$5&gt;=$F8,BJ$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
       </c>
-      <c r="BK8" s="11" t="str">
+      <c r="BK8" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL8" s="11" t="str">
+      <c r="BL8" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM8" s="11" t="str">
+      <c r="BM8" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN8" s="11" t="str">
+      <c r="BN8" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO8" s="11" t="str">
+      <c r="BO8" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="181" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="D9" s="136" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="182">
         <v>1</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="183">
         <v>43789</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="110">
         <v>43790</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="123">
         <f>Milestones[[#This Row],[End Date]]-Milestones[[#This Row],[Start Date]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="184">
         <v>43789</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="99">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I9-Milestones[[#This Row],[End Date]])</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="63" t="str">
+      <c r="K9" s="134" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I9-G9&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
-      <c r="L9" s="38" t="str">
+      <c r="L9" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N9" s="11" t="str">
+      <c r="N9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="O9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P9" s="11" t="str">
+      <c r="P9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q9" s="11" t="str">
+      <c r="Q9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R9" s="11" t="str">
+      <c r="R9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S9" s="11" t="str">
+      <c r="S9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="11" t="str">
+      <c r="T9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U9" s="11" t="str">
+      <c r="U9" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V9" s="11" t="str">
+      <c r="V9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W9" s="11" t="str">
+      <c r="W9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X9" s="11" t="str">
+      <c r="X9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y9" s="11" t="str">
+      <c r="Y9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z9" s="11" t="str">
+      <c r="Z9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA9" s="11" t="str">
+      <c r="AA9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB9" s="11" t="str">
+      <c r="AB9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC9" s="11" t="str">
+      <c r="AC9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD9" s="11" t="str">
+      <c r="AD9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE9" s="11" t="str">
+      <c r="AE9" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF9" s="11" t="str">
+      <c r="AF9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG9" s="11" t="str">
+      <c r="AG9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH9" s="11" t="str">
+      <c r="AH9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI9" s="11" t="str">
+      <c r="AI9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ9" s="11" t="str">
+      <c r="AJ9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK9" s="11" t="str">
+      <c r="AK9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL9" s="11" t="str">
+      <c r="AL9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM9" s="11" t="str">
+      <c r="AM9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN9" s="11" t="str">
+      <c r="AN9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO9" s="11" t="str">
+      <c r="AO9" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP9" s="11" t="str">
+      <c r="AP9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ9" s="11" t="str">
+      <c r="AQ9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR9" s="11" t="str">
+      <c r="AR9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS9" s="11" t="str">
+      <c r="AS9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT9" s="11" t="str">
+      <c r="AT9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU9" s="11" t="str">
+      <c r="AU9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV9" s="11" t="str">
+      <c r="AV9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW9" s="11" t="str">
+      <c r="AW9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX9" s="11" t="str">
+      <c r="AX9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY9" s="11" t="str">
+      <c r="AY9" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ9" s="11" t="str">
+      <c r="AZ9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA9" s="11" t="str">
+      <c r="BA9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB9" s="11" t="str">
+      <c r="BB9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC9" s="11" t="str">
+      <c r="BC9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD9" s="11" t="str">
+      <c r="BD9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE9" s="11" t="str">
+      <c r="BE9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF9" s="11" t="str">
+      <c r="BF9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG9" s="11" t="str">
+      <c r="BG9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH9" s="11" t="str">
+      <c r="BH9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI9" s="11" t="str">
+      <c r="BI9" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ9" s="11" t="str">
+      <c r="BJ9" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK9" s="11" t="str">
+      <c r="BK9" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL9" s="11" t="str">
+      <c r="BL9" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM9" s="11" t="str">
+      <c r="BM9" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN9" s="11" t="str">
+      <c r="BN9" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO9" s="11" t="str">
+      <c r="BO9" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="68">
+      <c r="C10" s="87"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="177">
         <f>F11</f>
         <v>43790</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="178">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="179">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="38" t="str">
+      <c r="I10" s="180"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="N10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW10" s="11" t="str">
+      <c r="AW10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX10" s="11" t="str">
+      <c r="AX10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY10" s="11" t="str">
+      <c r="AY10" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ10" s="11" t="str">
+      <c r="AZ10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA10" s="11" t="str">
+      <c r="BA10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB10" s="11" t="str">
+      <c r="BB10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC10" s="11" t="str">
+      <c r="BC10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD10" s="11" t="str">
+      <c r="BD10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE10" s="11" t="str">
+      <c r="BE10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF10" s="11" t="str">
+      <c r="BF10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG10" s="11" t="str">
+      <c r="BG10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH10" s="11" t="str">
+      <c r="BH10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI10" s="11" t="str">
+      <c r="BI10" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ10" s="11" t="str">
+      <c r="BJ10" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK10" s="11" t="str">
+      <c r="BK10" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL10" s="11" t="str">
+      <c r="BL10" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM10" s="11" t="str">
+      <c r="BM10" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN10" s="11" t="str">
+      <c r="BN10" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO10" s="11" t="str">
+      <c r="BO10" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="44">
-        <v>0</v>
-      </c>
-      <c r="F11" s="40">
+      <c r="D11" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="144">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
         <f>G9</f>
         <v>43790</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="103">
         <v>43791</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="125">
         <v>1</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="47">
+      <c r="I11" s="132">
+        <v>43791</v>
+      </c>
+      <c r="J11" s="100">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I11-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="63" t="str">
+      <c r="K11" s="58" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I11-G11&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
-      </c>
-      <c r="L11" s="38" t="str">
+        <v>Complete</v>
+      </c>
+      <c r="L11" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="N11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="O11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P11" s="11" t="str">
+      <c r="P11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q11" s="11" t="str">
+      <c r="Q11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R11" s="11" t="str">
+      <c r="R11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S11" s="11" t="str">
+      <c r="S11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="11" t="str">
+      <c r="T11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U11" s="11" t="str">
+      <c r="U11" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V11" s="11" t="str">
+      <c r="V11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W11" s="11" t="str">
+      <c r="W11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X11" s="11" t="str">
+      <c r="X11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y11" s="11" t="str">
+      <c r="Y11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z11" s="11" t="str">
+      <c r="Z11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA11" s="11" t="str">
+      <c r="AA11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="11" t="str">
+      <c r="AB11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC11" s="11" t="str">
+      <c r="AC11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD11" s="11" t="str">
+      <c r="AD11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE11" s="11" t="str">
+      <c r="AE11" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF11" s="11" t="str">
+      <c r="AF11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG11" s="11" t="str">
+      <c r="AG11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH11" s="11" t="str">
+      <c r="AH11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI11" s="11" t="str">
+      <c r="AI11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ11" s="11" t="str">
+      <c r="AJ11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK11" s="11" t="str">
+      <c r="AK11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL11" s="11" t="str">
+      <c r="AL11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM11" s="11" t="str">
+      <c r="AM11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN11" s="11" t="str">
+      <c r="AN11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO11" s="11" t="str">
+      <c r="AO11" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP11" s="11" t="str">
+      <c r="AP11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ11" s="11" t="str">
+      <c r="AQ11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR11" s="11" t="str">
+      <c r="AR11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS11" s="11" t="str">
+      <c r="AS11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT11" s="11" t="str">
+      <c r="AT11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU11" s="11" t="str">
+      <c r="AU11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV11" s="11" t="str">
+      <c r="AV11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW11" s="11" t="str">
+      <c r="AW11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX11" s="11" t="str">
+      <c r="AX11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY11" s="11" t="str">
+      <c r="AY11" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ11" s="11" t="str">
+      <c r="AZ11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA11" s="11" t="str">
+      <c r="BA11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB11" s="11" t="str">
+      <c r="BB11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC11" s="11" t="str">
+      <c r="BC11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD11" s="11" t="str">
+      <c r="BD11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE11" s="11" t="str">
+      <c r="BE11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF11" s="11" t="str">
+      <c r="BF11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG11" s="11" t="str">
+      <c r="BG11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH11" s="11" t="str">
+      <c r="BH11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI11" s="11" t="str">
+      <c r="BI11" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ11" s="11" t="str">
+      <c r="BJ11" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK11" s="11" t="str">
+      <c r="BK11" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL11" s="11" t="str">
+      <c r="BL11" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM11" s="11" t="str">
+      <c r="BM11" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN11" s="11" t="str">
+      <c r="BN11" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO11" s="11" t="str">
+      <c r="BO11" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="44">
-        <v>0</v>
-      </c>
-      <c r="F12" s="40">
+      <c r="D12" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="80">
+        <v>1</v>
+      </c>
+      <c r="F12" s="77">
         <v>43790</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="77">
         <v>43791</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="70">
         <v>1</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="47">
+      <c r="I12" s="129">
+        <v>43791</v>
+      </c>
+      <c r="J12" s="102">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I12-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="63" t="str">
+      <c r="K12" s="68" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I12-G12&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
-      </c>
-      <c r="L12" s="38" t="str">
+        <v>Complete</v>
+      </c>
+      <c r="L12" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="N12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O12" s="11" t="str">
+      <c r="O12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P12" s="11" t="str">
+      <c r="P12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q12" s="11" t="str">
+      <c r="Q12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R12" s="11" t="str">
+      <c r="R12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="S12" s="11" t="str">
+      <c r="S12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="11" t="str">
+      <c r="T12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="U12" s="11" t="str">
+      <c r="U12" s="10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="V12" s="11" t="str">
+      <c r="V12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="W12" s="11" t="str">
+      <c r="W12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="X12" s="11" t="str">
+      <c r="X12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y12" s="11" t="str">
+      <c r="Y12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z12" s="11" t="str">
+      <c r="Z12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA12" s="11" t="str">
+      <c r="AA12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="11" t="str">
+      <c r="AB12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC12" s="11" t="str">
+      <c r="AC12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD12" s="11" t="str">
+      <c r="AD12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AE12" s="11" t="str">
+      <c r="AE12" s="10" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AF12" s="11" t="str">
+      <c r="AF12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AG12" s="11" t="str">
+      <c r="AG12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AH12" s="11" t="str">
+      <c r="AH12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AI12" s="11" t="str">
+      <c r="AI12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AJ12" s="11" t="str">
+      <c r="AJ12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AK12" s="11" t="str">
+      <c r="AK12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AL12" s="11" t="str">
+      <c r="AL12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AM12" s="11" t="str">
+      <c r="AM12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AN12" s="11" t="str">
+      <c r="AN12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AO12" s="11" t="str">
+      <c r="AO12" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AP12" s="11" t="str">
+      <c r="AP12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AQ12" s="11" t="str">
+      <c r="AQ12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR12" s="11" t="str">
+      <c r="AR12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AS12" s="11" t="str">
+      <c r="AS12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AT12" s="11" t="str">
+      <c r="AT12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU12" s="11" t="str">
+      <c r="AU12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AV12" s="11" t="str">
+      <c r="AV12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW12" s="11" t="str">
+      <c r="AW12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AX12" s="11" t="str">
+      <c r="AX12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AY12" s="11" t="str">
+      <c r="AY12" s="10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AZ12" s="11" t="str">
+      <c r="AZ12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BA12" s="11" t="str">
+      <c r="BA12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BB12" s="11" t="str">
+      <c r="BB12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BC12" s="11" t="str">
+      <c r="BC12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BD12" s="11" t="str">
+      <c r="BD12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BE12" s="11" t="str">
+      <c r="BE12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BF12" s="11" t="str">
+      <c r="BF12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BG12" s="11" t="str">
+      <c r="BG12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BH12" s="11" t="str">
+      <c r="BH12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BI12" s="11" t="str">
+      <c r="BI12" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="BJ12" s="11" t="str">
+      <c r="BJ12" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK12" s="11" t="str">
+      <c r="BK12" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL12" s="11" t="str">
+      <c r="BL12" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BM12" s="11" t="str">
+      <c r="BM12" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BN12" s="11" t="str">
+      <c r="BN12" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BO12" s="11" t="str">
+      <c r="BO12" s="10" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="68">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63">
         <f>F14</f>
         <v>43791</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="63">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="64">
         <f>H14+H15+H16</f>
         <v>9</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="10"/>
+      <c r="BM13" s="10"/>
+      <c r="BN13" s="10"/>
+      <c r="BO13" s="10"/>
     </row>
     <row r="14" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="D14" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="81">
         <v>0</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="73">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="73">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43794</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="137">
         <v>3</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="46">
+      <c r="I14" s="170"/>
+      <c r="J14" s="98">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
-        <v>-3</v>
-      </c>
-      <c r="K14" s="63" t="str">
+        <v>3</v>
+      </c>
+      <c r="K14" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>On Process</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11"/>
-      <c r="BG14" s="11"/>
-      <c r="BH14" s="11"/>
-      <c r="BI14" s="11"/>
-      <c r="BJ14" s="11"/>
-      <c r="BK14" s="11"/>
-      <c r="BL14" s="11"/>
-      <c r="BM14" s="11"/>
-      <c r="BN14" s="11"/>
-      <c r="BO14" s="11"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
     </row>
     <row r="15" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="48">
-        <v>0</v>
-      </c>
-      <c r="F15" s="43">
+      <c r="D15" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="77">
         <f>G14</f>
         <v>43794</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="77">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43797</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="70">
         <v>3</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="46">
+      <c r="I15" s="129"/>
+      <c r="J15" s="102">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
-        <v>-6</v>
-      </c>
-      <c r="K15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="11"/>
-      <c r="BB15" s="11"/>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="11"/>
-      <c r="BE15" s="11"/>
-      <c r="BF15" s="11"/>
-      <c r="BG15" s="11"/>
-      <c r="BH15" s="11"/>
-      <c r="BI15" s="11"/>
-      <c r="BJ15" s="11"/>
-      <c r="BK15" s="11"/>
-      <c r="BL15" s="11"/>
-      <c r="BM15" s="11"/>
-      <c r="BN15" s="11"/>
-      <c r="BO15" s="11"/>
+        <v>On Process</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+      <c r="BL15" s="10"/>
+      <c r="BM15" s="10"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="10"/>
     </row>
     <row r="16" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="48">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
+      <c r="C16" s="53"/>
+      <c r="D16" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="73">
         <f>G15</f>
         <v>43797</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="73">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43800</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="137">
         <v>3</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="46">
+      <c r="I16" s="103"/>
+      <c r="J16" s="98">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
-        <v>-9</v>
-      </c>
-      <c r="K16" s="63" t="str">
+        <v>-3</v>
+      </c>
+      <c r="K16" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="11"/>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="11"/>
-      <c r="BB16" s="11"/>
-      <c r="BC16" s="11"/>
-      <c r="BD16" s="11"/>
-      <c r="BE16" s="11"/>
-      <c r="BF16" s="11"/>
-      <c r="BG16" s="11"/>
-      <c r="BH16" s="11"/>
-      <c r="BI16" s="11"/>
-      <c r="BJ16" s="11"/>
-      <c r="BK16" s="11"/>
-      <c r="BL16" s="11"/>
-      <c r="BM16" s="11"/>
-      <c r="BN16" s="11"/>
-      <c r="BO16" s="11"/>
+        <v>On Process</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
     </row>
-    <row r="17" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="68">
+      <c r="C17" s="173"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="172">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G17" s="66">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43838</v>
-      </c>
-      <c r="H17" s="75">
-        <f>H18+H19+H20+H21</f>
-        <v>38</v>
-      </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="38" t="str">
+      <c r="G17" s="109">
+        <f>G27</f>
+        <v>43850</v>
+      </c>
+      <c r="H17" s="108">
+        <f>SUM(H18:H27)</f>
+        <v>50</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="35" t="str">
         <f t="shared" ref="L17:AQ17" ca="1" si="12">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="N17" s="11" t="str">
+      <c r="N17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="P17" s="11" t="str">
+      <c r="P17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="Q17" s="11" t="str">
+      <c r="Q17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="R17" s="11" t="str">
+      <c r="R17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="S17" s="11" t="str">
+      <c r="S17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="T17" s="11" t="str">
+      <c r="T17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="U17" s="11" t="str">
+      <c r="U17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="V17" s="11" t="str">
+      <c r="V17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="W17" s="11" t="str">
+      <c r="W17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="X17" s="11" t="str">
+      <c r="X17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="Y17" s="11" t="str">
+      <c r="Y17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="Z17" s="11" t="str">
+      <c r="Z17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AA17" s="11" t="str">
+      <c r="AA17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AB17" s="11" t="str">
+      <c r="AB17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AC17" s="11" t="str">
+      <c r="AC17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AD17" s="11" t="str">
+      <c r="AD17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AE17" s="11" t="str">
+      <c r="AE17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AF17" s="11" t="str">
+      <c r="AF17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AG17" s="11" t="str">
+      <c r="AG17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AH17" s="11" t="str">
+      <c r="AH17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AI17" s="11" t="str">
+      <c r="AI17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ17" s="11" t="str">
+      <c r="AJ17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AK17" s="11" t="str">
+      <c r="AK17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL17" s="11" t="str">
+      <c r="AL17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM17" s="11" t="str">
+      <c r="AM17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AN17" s="11" t="str">
+      <c r="AN17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AO17" s="11" t="str">
+      <c r="AO17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AP17" s="11" t="str">
+      <c r="AP17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AQ17" s="11" t="str">
+      <c r="AQ17" s="10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AR17" s="11" t="str">
+      <c r="AR17" s="10" t="str">
         <f t="shared" ref="AR17:BO17" ca="1" si="13">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
-      <c r="AS17" s="11" t="str">
+      <c r="AS17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AT17" s="11" t="str">
+      <c r="AT17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AU17" s="11" t="str">
+      <c r="AU17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AV17" s="11" t="str">
+      <c r="AV17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AW17" s="11" t="str">
+      <c r="AW17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AX17" s="11" t="str">
+      <c r="AX17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AY17" s="11" t="str">
+      <c r="AY17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AZ17" s="11" t="str">
+      <c r="AZ17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BA17" s="11" t="str">
+      <c r="BA17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BB17" s="11" t="str">
+      <c r="BB17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BC17" s="11" t="str">
+      <c r="BC17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BD17" s="11" t="str">
+      <c r="BD17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BE17" s="11" t="str">
+      <c r="BE17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BF17" s="11" t="str">
+      <c r="BF17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BG17" s="11" t="str">
+      <c r="BG17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BH17" s="11" t="str">
+      <c r="BH17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BI17" s="11" t="str">
+      <c r="BI17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BJ17" s="11" t="str">
+      <c r="BJ17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BK17" s="11" t="str">
+      <c r="BK17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BL17" s="11" t="str">
+      <c r="BL17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BM17" s="11" t="str">
+      <c r="BM17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BN17" s="11" t="str">
+      <c r="BN17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="BO17" s="11" t="str">
+      <c r="BO17" s="10" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40">
+    <row r="18" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="73">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="129">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43812</v>
-      </c>
-      <c r="H18" s="42">
-        <v>12</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="46">
+        <v>43805</v>
+      </c>
+      <c r="H18" s="104">
+        <v>5</v>
+      </c>
+      <c r="I18" s="121"/>
+      <c r="J18" s="105">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I18-Milestones[[#This Row],[End Date]])</f>
-        <v>-21</v>
-      </c>
-      <c r="K18" s="63" t="str">
+        <v>-8</v>
+      </c>
+      <c r="K18" s="98" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I18-G18&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="11"/>
-      <c r="BO18" s="11"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
     </row>
-    <row r="19" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="49" t="s">
+    <row r="19" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="43">
+      <c r="C19" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="129">
         <f>G18</f>
-        <v>43812</v>
-      </c>
-      <c r="G19" s="43">
+        <v>43805</v>
+      </c>
+      <c r="G19" s="129">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43824</v>
-      </c>
-      <c r="H19" s="42">
-        <v>12</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="46">
+        <v>43810</v>
+      </c>
+      <c r="H19" s="104">
+        <v>5</v>
+      </c>
+      <c r="I19" s="73"/>
+      <c r="J19" s="60">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
-        <v>-33</v>
-      </c>
-      <c r="K19" s="63" t="str">
+        <v>-13</v>
+      </c>
+      <c r="K19" s="98" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="10"/>
+      <c r="BM19" s="10"/>
+      <c r="BN19" s="10"/>
+      <c r="BO19" s="10"/>
     </row>
-    <row r="20" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="44">
-        <v>0</v>
-      </c>
-      <c r="F20" s="96">
-        <f>G19</f>
-        <v>43824</v>
-      </c>
-      <c r="G20" s="40">
+    <row r="20" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="126">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="129">
+        <f t="shared" ref="F20:F27" si="14">G19</f>
+        <v>43810</v>
+      </c>
+      <c r="G20" s="111">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43831</v>
-      </c>
-      <c r="H20" s="97">
-        <v>7</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="46">
+        <v>43815</v>
+      </c>
+      <c r="H20" s="106">
+        <v>5</v>
+      </c>
+      <c r="I20" s="74"/>
+      <c r="J20" s="67">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
-        <v>-40</v>
-      </c>
-      <c r="K20" s="63" t="str">
+        <v>-18</v>
+      </c>
+      <c r="K20" s="98" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="11"/>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="11"/>
-      <c r="BO20" s="11"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="10"/>
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="10"/>
+      <c r="BL20" s="10"/>
+      <c r="BM20" s="10"/>
+      <c r="BN20" s="10"/>
+      <c r="BO20" s="10"/>
     </row>
-    <row r="21" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="44">
+    <row r="21" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="128">
         <v>0</v>
       </c>
-      <c r="F21" s="96">
-        <f>G20</f>
-        <v>43831</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="F21" s="129">
+        <f t="shared" si="14"/>
+        <v>43815</v>
+      </c>
+      <c r="G21" s="129">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43838</v>
-      </c>
-      <c r="H21" s="102">
-        <v>7</v>
-      </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="103">
+        <v>43820</v>
+      </c>
+      <c r="H21" s="104">
+        <v>5</v>
+      </c>
+      <c r="I21" s="76"/>
+      <c r="J21" s="67">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-47</v>
-      </c>
-      <c r="K21" s="63" t="str">
+        <v>-23</v>
+      </c>
+      <c r="K21" s="98" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="11"/>
-      <c r="BD21" s="11"/>
-      <c r="BE21" s="11"/>
-      <c r="BF21" s="11"/>
-      <c r="BG21" s="11"/>
-      <c r="BH21" s="11"/>
-      <c r="BI21" s="11"/>
-      <c r="BJ21" s="11"/>
-      <c r="BK21" s="11"/>
-      <c r="BL21" s="11"/>
-      <c r="BM21" s="11"/>
-      <c r="BN21" s="11"/>
-      <c r="BO21" s="11"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="10"/>
+      <c r="BL21" s="10"/>
+      <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
+      <c r="BO21" s="10"/>
     </row>
-    <row r="22" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="66">
-        <f>G21</f>
-        <v>43838</v>
-      </c>
-      <c r="G22" s="66">
+    <row r="22" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="115"/>
+      <c r="D22" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="81">
+        <v>0</v>
+      </c>
+      <c r="F22" s="129">
+        <f t="shared" si="14"/>
+        <v>43820</v>
+      </c>
+      <c r="G22" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43844</v>
-      </c>
-      <c r="H22" s="98">
-        <f>H23</f>
-        <v>6</v>
-      </c>
-      <c r="I22" s="85"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="11"/>
-      <c r="BC22" s="11"/>
-      <c r="BD22" s="11"/>
-      <c r="BE22" s="11"/>
-      <c r="BF22" s="11"/>
-      <c r="BG22" s="11"/>
-      <c r="BH22" s="11"/>
-      <c r="BI22" s="11"/>
-      <c r="BJ22" s="11"/>
-      <c r="BK22" s="11"/>
-      <c r="BL22" s="11"/>
-      <c r="BM22" s="11"/>
-      <c r="BN22" s="11"/>
-      <c r="BO22" s="11"/>
+        <v>43825</v>
+      </c>
+      <c r="H22" s="122">
+        <v>5</v>
+      </c>
+      <c r="I22" s="73"/>
+      <c r="J22" s="93">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
+        <v>-28</v>
+      </c>
+      <c r="K22" s="98" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
     </row>
-    <row r="23" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="48">
+    <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="119"/>
+      <c r="D23" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="81">
         <v>0</v>
       </c>
-      <c r="F23" s="43">
-        <f>F22</f>
-        <v>43838</v>
-      </c>
-      <c r="G23" s="43">
+      <c r="F23" s="129">
+        <f t="shared" si="14"/>
+        <v>43825</v>
+      </c>
+      <c r="G23" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43844</v>
-      </c>
-      <c r="H23" s="42">
-        <v>6</v>
-      </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="51">
+        <v>43830</v>
+      </c>
+      <c r="H23" s="122">
+        <v>5</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="67">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-53</v>
-      </c>
-      <c r="K23" s="63" t="str">
+        <v>-33</v>
+      </c>
+      <c r="K23" s="102" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="11"/>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
-      <c r="BI23" s="11"/>
-      <c r="BJ23" s="11"/>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="11"/>
-      <c r="BM23" s="11"/>
-      <c r="BN23" s="11"/>
-      <c r="BO23" s="11"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10"/>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
+      <c r="BO23" s="10"/>
     </row>
-    <row r="24" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="65">
-        <f>G23</f>
-        <v>43844</v>
-      </c>
-      <c r="G24" s="65">
+    <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="80">
+        <v>0</v>
+      </c>
+      <c r="F24" s="129">
+        <f t="shared" si="14"/>
+        <v>43830</v>
+      </c>
+      <c r="G24" s="103">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43835</v>
+      </c>
+      <c r="H24" s="122">
+        <v>5</v>
+      </c>
+      <c r="I24" s="73"/>
+      <c r="J24" s="68">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
+        <v>-38</v>
+      </c>
+      <c r="K24" s="98" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+    </row>
+    <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0</v>
+      </c>
+      <c r="F25" s="129">
+        <f t="shared" si="14"/>
+        <v>43835</v>
+      </c>
+      <c r="G25" s="103">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43840</v>
+      </c>
+      <c r="H25" s="104">
+        <v>5</v>
+      </c>
+      <c r="I25" s="77"/>
+      <c r="J25" s="68">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
+        <v>-43</v>
+      </c>
+      <c r="K25" s="98" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L25" s="35"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+    </row>
+    <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="79">
+        <v>0</v>
+      </c>
+      <c r="F26" s="129">
+        <f t="shared" si="14"/>
+        <v>43840</v>
+      </c>
+      <c r="G26" s="103">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43845</v>
+      </c>
+      <c r="H26" s="122">
+        <v>5</v>
+      </c>
+      <c r="I26" s="73"/>
+      <c r="J26" s="60">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
+        <v>-48</v>
+      </c>
+      <c r="K26" s="98" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="10"/>
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
+      <c r="BO26" s="10"/>
+    </row>
+    <row r="27" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="140"/>
+      <c r="D27" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="78">
+        <v>0</v>
+      </c>
+      <c r="F27" s="129">
+        <f t="shared" si="14"/>
+        <v>43845</v>
+      </c>
+      <c r="G27" s="111">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43850</v>
       </c>
-      <c r="H24" s="75">
-        <f>H25</f>
-        <v>6</v>
-      </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="11"/>
-      <c r="BO24" s="11"/>
+      <c r="H27" s="106">
+        <v>5</v>
+      </c>
+      <c r="I27" s="72"/>
+      <c r="J27" s="141">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
+        <v>-53</v>
+      </c>
+      <c r="K27" s="101" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L27" s="142"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="10"/>
+      <c r="BF27" s="10"/>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="10"/>
+      <c r="BK27" s="10"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="10"/>
     </row>
-    <row r="25" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0</v>
-      </c>
-      <c r="F25" s="41">
-        <f>F24</f>
-        <v>43844</v>
-      </c>
-      <c r="G25" s="41">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+    <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="150"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152">
+        <f>G27</f>
         <v>43850</v>
       </c>
-      <c r="H25" s="42">
-        <v>6</v>
-      </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="51">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-59</v>
-      </c>
-      <c r="K25" s="63" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="11"/>
-      <c r="BO25" s="11"/>
-    </row>
-    <row r="26" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="65">
-        <f>G25</f>
-        <v>43850</v>
-      </c>
-      <c r="G26" s="70">
+      <c r="G28" s="152">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43856</v>
       </c>
-      <c r="H26" s="75">
-        <f>H27</f>
+      <c r="H28" s="153">
+        <f>H29</f>
         <v>6</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="11"/>
-      <c r="BE26" s="11"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="11"/>
-      <c r="BO26" s="11"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="10"/>
+      <c r="BF28" s="10"/>
+      <c r="BG28" s="10"/>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="10"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
+      <c r="BO28" s="10"/>
     </row>
-    <row r="27" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
+    <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="164" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="48">
+      <c r="E29" s="126">
         <v>0</v>
       </c>
-      <c r="F27" s="40">
-        <f>F26</f>
+      <c r="F29" s="124">
+        <f>F28</f>
         <v>43850</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G29" s="124">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43856</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H29" s="127">
         <v>6</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="51">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-65</v>
-      </c>
-      <c r="K27" s="63" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="11"/>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="11"/>
-      <c r="BD27" s="11"/>
-      <c r="BE27" s="11"/>
-      <c r="BF27" s="11"/>
-      <c r="BG27" s="11"/>
-      <c r="BH27" s="11"/>
-      <c r="BI27" s="11"/>
-      <c r="BJ27" s="11"/>
-      <c r="BK27" s="11"/>
-      <c r="BL27" s="11"/>
-      <c r="BM27" s="11"/>
-      <c r="BN27" s="11"/>
-      <c r="BO27" s="11"/>
-    </row>
-    <row r="28" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="65">
-        <f>G27</f>
-        <v>43856</v>
-      </c>
-      <c r="G28" s="70">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43861</v>
-      </c>
-      <c r="H28" s="75">
-        <f>H29</f>
-        <v>5</v>
-      </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="11"/>
-      <c r="AU28" s="11"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="11"/>
-      <c r="AX28" s="11"/>
-      <c r="AY28" s="11"/>
-      <c r="AZ28" s="11"/>
-      <c r="BA28" s="11"/>
-      <c r="BB28" s="11"/>
-      <c r="BC28" s="11"/>
-      <c r="BD28" s="11"/>
-      <c r="BE28" s="11"/>
-      <c r="BF28" s="11"/>
-      <c r="BG28" s="11"/>
-      <c r="BH28" s="11"/>
-      <c r="BI28" s="11"/>
-      <c r="BJ28" s="11"/>
-      <c r="BK28" s="11"/>
-      <c r="BL28" s="11"/>
-      <c r="BM28" s="11"/>
-      <c r="BN28" s="11"/>
-      <c r="BO28" s="11"/>
-    </row>
-    <row r="29" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="48">
-        <v>0</v>
-      </c>
-      <c r="F29" s="40">
-        <f>F28</f>
-        <v>43856</v>
-      </c>
-      <c r="G29" s="40">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43861</v>
-      </c>
-      <c r="H29" s="42">
-        <v>5</v>
-      </c>
-      <c r="I29" s="58"/>
-      <c r="J29" s="51">
+      <c r="I29" s="165"/>
+      <c r="J29" s="166">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-70</v>
-      </c>
-      <c r="K29" s="63" t="str">
+        <v>-59</v>
+      </c>
+      <c r="K29" s="166" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="11"/>
-      <c r="BC29" s="11"/>
-      <c r="BD29" s="11"/>
-      <c r="BE29" s="11"/>
-      <c r="BF29" s="11"/>
-      <c r="BG29" s="11"/>
-      <c r="BH29" s="11"/>
-      <c r="BI29" s="11"/>
-      <c r="BJ29" s="11"/>
-      <c r="BK29" s="11"/>
-      <c r="BL29" s="11"/>
-      <c r="BM29" s="11"/>
-      <c r="BN29" s="11"/>
-      <c r="BO29" s="11"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="10"/>
+      <c r="BF29" s="10"/>
+      <c r="BG29" s="10"/>
+      <c r="BH29" s="10"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="10"/>
+      <c r="BK29" s="10"/>
+      <c r="BL29" s="10"/>
+      <c r="BM29" s="10"/>
+      <c r="BN29" s="10"/>
+      <c r="BO29" s="10"/>
     </row>
-    <row r="30" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="84" t="s">
+    <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="163">
+        <f>G29</f>
+        <v>43856</v>
+      </c>
+      <c r="G30" s="163">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43862</v>
+      </c>
+      <c r="H30" s="131">
+        <f>H31</f>
         <v>6</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="68">
-        <f>G29</f>
-        <v>43861</v>
-      </c>
-      <c r="G30" s="68">
+      <c r="I30" s="130"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+    </row>
+    <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="81">
+        <v>0</v>
+      </c>
+      <c r="F31" s="73">
+        <f>F30</f>
+        <v>43856</v>
+      </c>
+      <c r="G31" s="73">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43862</v>
+      </c>
+      <c r="H31" s="137">
+        <v>6</v>
+      </c>
+      <c r="I31" s="159"/>
+      <c r="J31" s="98">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
+        <v>-65</v>
+      </c>
+      <c r="K31" s="98" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L31" s="168"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="10"/>
+      <c r="BF31" s="10"/>
+      <c r="BG31" s="10"/>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="10"/>
+      <c r="BK31" s="10"/>
+      <c r="BL31" s="10"/>
+      <c r="BM31" s="10"/>
+      <c r="BN31" s="10"/>
+      <c r="BO31" s="10"/>
+    </row>
+    <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="163">
+        <f>G31</f>
+        <v>43862</v>
+      </c>
+      <c r="G32" s="163">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43868</v>
+      </c>
+      <c r="H32" s="131">
+        <f>H33</f>
+        <v>6</v>
+      </c>
+      <c r="I32" s="130"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10"/>
+      <c r="BF32" s="10"/>
+      <c r="BG32" s="10"/>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="10"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
+    </row>
+    <row r="33" spans="2:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="80">
+        <v>0</v>
+      </c>
+      <c r="F33" s="77">
+        <f>F32</f>
+        <v>43862</v>
+      </c>
+      <c r="G33" s="77">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43868</v>
+      </c>
+      <c r="H33" s="70">
+        <v>6</v>
+      </c>
+      <c r="I33" s="154"/>
+      <c r="J33" s="102">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
+        <v>-71</v>
+      </c>
+      <c r="K33" s="102" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L33" s="168"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+      <c r="BK33" s="10"/>
+      <c r="BL33" s="10"/>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="10"/>
+    </row>
+    <row r="34" spans="2:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="146"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="75">
+        <f>G33</f>
+        <v>43868</v>
+      </c>
+      <c r="G34" s="75">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43873</v>
       </c>
-      <c r="H30" s="75">
-        <f>H31</f>
-        <v>12</v>
-      </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="11"/>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
-      <c r="AZ30" s="11"/>
-      <c r="BA30" s="11"/>
-      <c r="BB30" s="11"/>
-      <c r="BC30" s="11"/>
-      <c r="BD30" s="11"/>
-      <c r="BE30" s="11"/>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="11"/>
-      <c r="BH30" s="11"/>
-      <c r="BI30" s="11"/>
-      <c r="BJ30" s="11"/>
-      <c r="BK30" s="11"/>
-      <c r="BL30" s="11"/>
-      <c r="BM30" s="11"/>
-      <c r="BN30" s="11"/>
-      <c r="BO30" s="11"/>
+      <c r="H34" s="157">
+        <f>H35</f>
+        <v>5</v>
+      </c>
+      <c r="I34" s="96"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
     </row>
-    <row r="31" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="89" t="s">
+    <row r="35" spans="2:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="48">
+      <c r="D35" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="80">
         <v>0</v>
       </c>
-      <c r="F31" s="88">
-        <f>F30</f>
-        <v>43861</v>
-      </c>
-      <c r="G31" s="88">
+      <c r="F35" s="77">
+        <f>F34</f>
+        <v>43868</v>
+      </c>
+      <c r="G35" s="77">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43873</v>
       </c>
-      <c r="H31" s="90">
-        <v>12</v>
-      </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="51">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-82</v>
-      </c>
-      <c r="K31" s="63" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
+      <c r="H35" s="70">
+        <v>5</v>
+      </c>
+      <c r="I35" s="154"/>
+      <c r="J35" s="102">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
+        <v>-76</v>
+      </c>
+      <c r="K35" s="102" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
-      <c r="AR31" s="11"/>
-      <c r="AS31" s="11"/>
-      <c r="AT31" s="11"/>
-      <c r="AU31" s="11"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
-      <c r="AZ31" s="11"/>
-      <c r="BA31" s="11"/>
-      <c r="BB31" s="11"/>
-      <c r="BC31" s="11"/>
-      <c r="BD31" s="11"/>
-      <c r="BE31" s="11"/>
-      <c r="BF31" s="11"/>
-      <c r="BG31" s="11"/>
-      <c r="BH31" s="11"/>
-      <c r="BI31" s="11"/>
-      <c r="BJ31" s="11"/>
-      <c r="BK31" s="11"/>
-      <c r="BL31" s="11"/>
-      <c r="BM31" s="11"/>
-      <c r="BN31" s="11"/>
-      <c r="BO31" s="11"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="10"/>
+      <c r="BD35" s="10"/>
+      <c r="BE35" s="10"/>
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="10"/>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
+      <c r="BK35" s="10"/>
+      <c r="BL35" s="10"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="10"/>
     </row>
-    <row r="32" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="31"/>
+    <row r="36" spans="2:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="90"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="75">
+        <f>G35</f>
+        <v>43873</v>
+      </c>
+      <c r="G36" s="75">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43880</v>
+      </c>
+      <c r="H36" s="71">
+        <f>H37</f>
+        <v>7</v>
+      </c>
+      <c r="I36" s="95"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="10"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="10"/>
+      <c r="BD36" s="10"/>
+      <c r="BE36" s="10"/>
+      <c r="BF36" s="10"/>
+      <c r="BG36" s="10"/>
+      <c r="BH36" s="10"/>
+      <c r="BI36" s="10"/>
+      <c r="BJ36" s="10"/>
+      <c r="BK36" s="10"/>
+      <c r="BL36" s="10"/>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="10"/>
+      <c r="BO36" s="10"/>
     </row>
-    <row r="33" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="31"/>
+    <row r="37" spans="2:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="144">
+        <v>0</v>
+      </c>
+      <c r="F37" s="73">
+        <f>F36</f>
+        <v>43873</v>
+      </c>
+      <c r="G37" s="73">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43880</v>
+      </c>
+      <c r="H37" s="135">
+        <v>7</v>
+      </c>
+      <c r="I37" s="145"/>
+      <c r="J37" s="100">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
+        <v>-83</v>
+      </c>
+      <c r="K37" s="100" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L37" s="168"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="10"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="10"/>
+      <c r="BD37" s="10"/>
+      <c r="BE37" s="10"/>
+      <c r="BF37" s="10"/>
+      <c r="BG37" s="10"/>
+      <c r="BH37" s="10"/>
+      <c r="BI37" s="10"/>
+      <c r="BJ37" s="10"/>
+      <c r="BK37" s="10"/>
+      <c r="BL37" s="10"/>
+      <c r="BM37" s="10"/>
+      <c r="BN37" s="10"/>
+      <c r="BO37" s="10"/>
+    </row>
+    <row r="38" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6182,8 +7535,8 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E8 E10:E11 E28 E30 E22 E13 E24 E17:E19">
-    <cfRule type="dataBar" priority="135">
+  <conditionalFormatting sqref="E7:E8 E10:E11 E34 E36 E13 E30 E17:E28">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6196,45 +7549,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO8 L10:BO11 L28:BO30 L22:BO25 L13:BO13 L17:BO19">
-    <cfRule type="expression" dxfId="28" priority="128">
+  <conditionalFormatting sqref="L5:BO8 L10:BO11 L34:BO36 L28:BO31 L13:BO13 L17:BO20">
+    <cfRule type="expression" dxfId="24" priority="136">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="27" priority="134">
+    <cfRule type="expression" dxfId="23" priority="142">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="26" priority="130">
+    <cfRule type="expression" dxfId="22" priority="138">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="25" priority="129">
+    <cfRule type="expression" dxfId="21" priority="137">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:BO31">
-    <cfRule type="expression" dxfId="24" priority="151" stopIfTrue="1">
+  <conditionalFormatting sqref="L8:BO31 L33:BO37">
+    <cfRule type="expression" dxfId="20" priority="159" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="178" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="196" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="197" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="198" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6248,12 +7601,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="19" priority="103">
+    <cfRule type="expression" dxfId="15" priority="111">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6267,17 +7620,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="18" priority="95">
+    <cfRule type="expression" dxfId="14" priority="103">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:BO30">
-    <cfRule type="expression" dxfId="17" priority="39">
+  <conditionalFormatting sqref="L33:BO36">
+    <cfRule type="expression" dxfId="13" priority="47">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 E28 E30">
-    <cfRule type="dataBar" priority="40">
+  <conditionalFormatting sqref="E34 E36">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6290,42 +7643,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:BO31">
-    <cfRule type="expression" dxfId="16" priority="31">
+  <conditionalFormatting sqref="L37:BO37">
+    <cfRule type="expression" dxfId="12" priority="39">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:BO31">
-    <cfRule type="expression" dxfId="15" priority="29">
+  <conditionalFormatting sqref="L37:BO37">
+    <cfRule type="expression" dxfId="11" priority="37">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:BO21">
-    <cfRule type="expression" dxfId="14" priority="18">
+  <conditionalFormatting sqref="L21:BO27">
+    <cfRule type="expression" dxfId="10" priority="26">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C8C0F9AB-33CE-402D-A35A-DE297F2C3B9A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6339,12 +7678,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6357,8 +7696,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6371,8 +7710,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="E33">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6385,8 +7724,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6399,8 +7738,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E37">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6413,11 +7752,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08AC8ABD-7BBE-46E4-88DE-E740474021EA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:BO32">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:BO32">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>AND($C32="Low Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>AND($C32="High Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND($C32="On Track",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>AND($C32="Med Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>AND(LEN($C32)=0,L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6428,7 +7803,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F23" formula="1"/>
+    <ignoredError sqref="F29" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6479,7 +7854,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E8 E10:E11 E28 E30 E22 E13 E24 E17:E19</xm:sqref>
+          <xm:sqref>E7:E8 E10:E11 E34 E36 E13 E30 E17:E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3450C8A0-7296-4F4E-8C2D-67F62EE92A11}">
@@ -6524,22 +7899,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E26 E28 E30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C8C0F9AB-33CE-402D-A35A-DE297F2C3B9A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E20:E21</xm:sqref>
+          <xm:sqref>E34 E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{204492DB-C9DC-4A29-B7D2-317B3BB60E18}">
@@ -6569,7 +7929,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E23</xm:sqref>
+          <xm:sqref>E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D6D8DC0-8DB6-471B-8654-216B06E96310}">
@@ -6584,7 +7944,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E25</xm:sqref>
+          <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72B44424-0899-4A95-A18C-814AFD22EEB5}">
@@ -6599,7 +7959,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E27</xm:sqref>
+          <xm:sqref>E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E8DB8E0-4C2B-4E51-A644-0734E8A3FFDF}">
@@ -6614,7 +7974,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29A332D1-8F3D-4822-AAE4-11C27860126D}">
@@ -6629,10 +7989,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
+          <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="110" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
+          <x14:cfRule type="iconSet" priority="118" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6651,7 +8011,7 @@
           <xm:sqref>L12:BO12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="102" id="{774FF1D2-5BAB-4947-8603-1F7B859FA789}">
+          <x14:cfRule type="iconSet" priority="110" id="{774FF1D2-5BAB-4947-8603-1F7B859FA789}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6670,7 +8030,7 @@
           <xm:sqref>L9:BO9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{7549C08E-F82A-42B2-813C-FE88D979424C}">
+          <x14:cfRule type="iconSet" priority="54" id="{7549C08E-F82A-42B2-813C-FE88D979424C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6686,10 +8046,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L26:BO27</xm:sqref>
+          <xm:sqref>L33:BO33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="376" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="384" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6705,10 +8065,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L28:BO30 L10:BO11 L8:BO8 L13:BO13 L22:BO25 L17:BO19</xm:sqref>
+          <xm:sqref>L34:BO36 L10:BO11 L8:BO8 L13:BO13 L28:BO31 L17:BO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
+          <x14:cfRule type="iconSet" priority="46" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6724,10 +8084,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L31:BO31</xm:sqref>
+          <xm:sqref>L37:BO37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
+          <x14:cfRule type="iconSet" priority="33" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6743,10 +8103,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L20:BO21</xm:sqref>
+          <xm:sqref>L21:BO27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
+          <x14:cfRule type="iconSet" priority="17" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6765,7 +8125,7 @@
           <xm:sqref>L15:BO15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{E92A98B7-48FA-4635-AB60-5E4DA28F0C5A}">
+          <x14:cfRule type="iconSet" priority="25" id="{E92A98B7-48FA-4635-AB60-5E4DA28F0C5A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6782,6 +8142,40 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>L16:BO16 L14:BO14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{C12C639A-6BA8-4B63-B798-1250B0A4E067}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L32:BO32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED22572-C07A-4803-B0B9-6CED15DFFE62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A292D8D-7A85-4CF1-AF16-AB93E8FDBEB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>About This Template</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>6.1 ให้พนักงานทดลองใช้ระบบ HR-Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1360,6 +1363,423 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="40" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="34" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="39" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="37" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1392,423 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="40" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="34" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="39" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="37" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1827,6 +1830,258 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -1838,13 +2093,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2283,251 +2531,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2838,20 +2841,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="35" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K37" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="30" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="29" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="1">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="25">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="0">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3132,8 +3135,8 @@
   </sheetPr>
   <dimension ref="A1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3185,36 +3188,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="Q2" s="50" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="Q2" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="V2" s="51" t="s">
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="V2" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="AA2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AF2" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="181"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3224,16 +3227,16 @@
         <v>41</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="46">
+      <c r="E3" s="183"/>
+      <c r="F3" s="185">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
         <v>43789</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="187"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3245,10 +3248,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="183"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3338,15 +3341,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -3648,34 +3651,34 @@
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="187" t="s">
+      <c r="C7" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="187" t="s">
+      <c r="E7" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="187" t="s">
+      <c r="G7" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="187" t="s">
+      <c r="H7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="188" t="s">
+      <c r="I7" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="190" t="s">
+      <c r="K7" s="179" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
@@ -3905,27 +3908,27 @@
     </row>
     <row r="8" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52">
         <f>F9</f>
         <v>43789</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="52">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43790</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="53">
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="185"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="66"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="35" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
@@ -4152,37 +4155,37 @@
       </c>
     </row>
     <row r="9" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="181" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="182">
+      <c r="E9" s="171">
         <v>1</v>
       </c>
-      <c r="F9" s="183">
+      <c r="F9" s="172">
         <v>43789</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="99">
         <v>43790</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="112">
         <f>Milestones[[#This Row],[End Date]]-Milestones[[#This Row],[Start Date]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="184">
+      <c r="I9" s="173">
         <v>43789</v>
       </c>
-      <c r="J9" s="99">
+      <c r="J9" s="88">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I9-Milestones[[#This Row],[End Date]])</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="134" t="str">
+      <c r="K9" s="123" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I9-G9&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4412,27 +4415,27 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177">
+      <c r="C10" s="76"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166">
         <f>F11</f>
         <v>43790</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10" s="167">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="H10" s="179">
+      <c r="H10" s="168">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="57"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -4659,37 +4662,37 @@
       </c>
     </row>
     <row r="11" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="133" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="133">
         <v>1</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="62">
         <f>G9</f>
         <v>43790</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G11" s="92">
         <v>43791</v>
       </c>
-      <c r="H11" s="125">
+      <c r="H11" s="114">
         <v>1</v>
       </c>
-      <c r="I11" s="132">
+      <c r="I11" s="121">
         <v>43791</v>
       </c>
-      <c r="J11" s="100">
+      <c r="J11" s="89">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I11-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="58" t="str">
+      <c r="K11" s="47" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I11-G11&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4919,36 +4922,36 @@
       </c>
     </row>
     <row r="12" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="69">
         <v>1</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="66">
         <v>43790</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="66">
         <v>43791</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="129">
+      <c r="I12" s="118">
         <v>43791</v>
       </c>
-      <c r="J12" s="102">
+      <c r="J12" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I12-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="68" t="str">
+      <c r="K12" s="57" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I12-G12&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5178,27 +5181,27 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52">
         <f>F14</f>
         <v>43791</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="52">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="53">
         <f>H14+H15+H16</f>
         <v>9</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="66"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="35"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -5257,36 +5260,36 @@
       <c r="BO13" s="10"/>
     </row>
     <row r="14" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="138" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="70">
         <v>0</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="62">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="62">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43794</v>
       </c>
-      <c r="H14" s="137">
+      <c r="H14" s="126">
         <v>3</v>
       </c>
-      <c r="I14" s="170"/>
-      <c r="J14" s="98">
+      <c r="I14" s="159"/>
+      <c r="J14" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
-        <v>3</v>
-      </c>
-      <c r="K14" s="60" t="str">
+        <v>7</v>
+      </c>
+      <c r="K14" s="49" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>On Process</v>
       </c>
@@ -5348,36 +5351,36 @@
       <c r="BO14" s="10"/>
     </row>
     <row r="15" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="69">
         <v>0.1</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="66">
         <f>G14</f>
         <v>43794</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="66">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43797</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="59">
         <v>3</v>
       </c>
-      <c r="I15" s="129"/>
-      <c r="J15" s="102">
+      <c r="I15" s="118"/>
+      <c r="J15" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="68" t="str">
+        <v>4</v>
+      </c>
+      <c r="K15" s="57" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>On Process</v>
       </c>
@@ -5439,34 +5442,34 @@
       <c r="BO15" s="10"/>
     </row>
     <row r="16" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="174" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="70">
         <v>0.2</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="62">
         <f>G15</f>
         <v>43797</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="62">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43800</v>
       </c>
-      <c r="H16" s="137">
+      <c r="H16" s="126">
         <v>3</v>
       </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="98">
+      <c r="I16" s="92"/>
+      <c r="J16" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
-        <v>-3</v>
-      </c>
-      <c r="K16" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K16" s="49" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>On Process</v>
       </c>
@@ -5528,27 +5531,27 @@
       <c r="BO16" s="10"/>
     </row>
     <row r="17" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="172">
+      <c r="C17" s="162"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="161">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="98">
         <f>G27</f>
         <v>43850</v>
       </c>
-      <c r="H17" s="108">
+      <c r="H17" s="97">
         <f>SUM(H18:H27)</f>
         <v>50</v>
       </c>
-      <c r="I17" s="94"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="35" t="str">
         <f t="shared" ref="L17:AQ17" ca="1" si="12">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
@@ -5775,36 +5778,36 @@
       </c>
     </row>
     <row r="18" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="120" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="88" t="s">
+      <c r="C18" s="108"/>
+      <c r="D18" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="69">
         <v>0.5</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="62">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G18" s="118">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="93">
         <v>5</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="105">
+      <c r="I18" s="110"/>
+      <c r="J18" s="94">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I18-Milestones[[#This Row],[End Date]])</f>
-        <v>-8</v>
-      </c>
-      <c r="K18" s="98" t="str">
+        <v>-4</v>
+      </c>
+      <c r="K18" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I18-G18&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="10"/>
@@ -5864,36 +5867,36 @@
       <c r="BO18" s="10"/>
     </row>
     <row r="19" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="117" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="81">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="129">
+      <c r="E19" s="70">
+        <v>1</v>
+      </c>
+      <c r="F19" s="118">
         <f>G18</f>
         <v>43805</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G19" s="118">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43810</v>
       </c>
-      <c r="H19" s="104">
+      <c r="H19" s="93">
         <v>5</v>
       </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="60">
+      <c r="I19" s="62"/>
+      <c r="J19" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
-        <v>-13</v>
-      </c>
-      <c r="K19" s="98" t="str">
+        <v>-9</v>
+      </c>
+      <c r="K19" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -5955,34 +5958,34 @@
       <c r="BO19" s="10"/>
     </row>
     <row r="20" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="88" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="126">
+      <c r="E20" s="115">
         <v>0.8</v>
       </c>
-      <c r="F20" s="129">
+      <c r="F20" s="118">
         <f t="shared" ref="F20:F27" si="14">G19</f>
         <v>43810</v>
       </c>
-      <c r="G20" s="111">
+      <c r="G20" s="100">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43815</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="95">
         <v>5</v>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="67">
+      <c r="I20" s="63"/>
+      <c r="J20" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
-        <v>-18</v>
-      </c>
-      <c r="K20" s="98" t="str">
+        <v>-14</v>
+      </c>
+      <c r="K20" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6044,34 +6047,34 @@
       <c r="BO20" s="10"/>
     </row>
     <row r="21" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="118" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="89" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="128">
-        <v>0</v>
-      </c>
-      <c r="F21" s="129">
+      <c r="E21" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="118">
         <f t="shared" si="14"/>
         <v>43815</v>
       </c>
-      <c r="G21" s="129">
+      <c r="G21" s="118">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43820</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="93">
         <v>5</v>
       </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="67">
+      <c r="I21" s="65"/>
+      <c r="J21" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-23</v>
-      </c>
-      <c r="K21" s="98" t="str">
+        <v>-19</v>
+      </c>
+      <c r="K21" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6133,34 +6136,34 @@
       <c r="BO21" s="10"/>
     </row>
     <row r="22" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="118" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="88" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="70">
         <v>0</v>
       </c>
-      <c r="F22" s="129">
+      <c r="F22" s="118">
         <f t="shared" si="14"/>
         <v>43820</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="92">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43825</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="111">
         <v>5</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="93">
+      <c r="I22" s="62"/>
+      <c r="J22" s="82">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>-28</v>
-      </c>
-      <c r="K22" s="98" t="str">
+        <v>-24</v>
+      </c>
+      <c r="K22" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6222,34 +6225,34 @@
       <c r="BO22" s="10"/>
     </row>
     <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="120" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="88" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="70">
         <v>0</v>
       </c>
-      <c r="F23" s="129">
+      <c r="F23" s="118">
         <f t="shared" si="14"/>
         <v>43825</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="92">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43830</v>
       </c>
-      <c r="H23" s="122">
+      <c r="H23" s="111">
         <v>5</v>
       </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="67">
+      <c r="I23" s="66"/>
+      <c r="J23" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-33</v>
-      </c>
-      <c r="K23" s="102" t="str">
+        <v>-29</v>
+      </c>
+      <c r="K23" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6311,34 +6314,34 @@
       <c r="BO23" s="10"/>
     </row>
     <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="88" t="s">
+      <c r="C24" s="72"/>
+      <c r="D24" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="69">
         <v>0</v>
       </c>
-      <c r="F24" s="129">
+      <c r="F24" s="118">
         <f t="shared" si="14"/>
         <v>43830</v>
       </c>
-      <c r="G24" s="103">
+      <c r="G24" s="92">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43835</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="111">
         <v>5</v>
       </c>
-      <c r="I24" s="73"/>
-      <c r="J24" s="68">
+      <c r="I24" s="62"/>
+      <c r="J24" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-38</v>
-      </c>
-      <c r="K24" s="98" t="str">
+        <v>-34</v>
+      </c>
+      <c r="K24" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6400,34 +6403,34 @@
       <c r="BO24" s="10"/>
     </row>
     <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="118" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="88" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="70">
         <v>0</v>
       </c>
-      <c r="F25" s="129">
+      <c r="F25" s="118">
         <f t="shared" si="14"/>
         <v>43835</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="92">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43840</v>
       </c>
-      <c r="H25" s="104">
+      <c r="H25" s="93">
         <v>5</v>
       </c>
-      <c r="I25" s="77"/>
-      <c r="J25" s="68">
+      <c r="I25" s="66"/>
+      <c r="J25" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-43</v>
-      </c>
-      <c r="K25" s="98" t="str">
+        <v>-39</v>
+      </c>
+      <c r="K25" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6489,33 +6492,33 @@
       <c r="BO25" s="10"/>
     </row>
     <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="113" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="68">
         <v>0</v>
       </c>
-      <c r="F26" s="129">
+      <c r="F26" s="118">
         <f t="shared" si="14"/>
         <v>43840</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="92">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43845</v>
       </c>
-      <c r="H26" s="122">
+      <c r="H26" s="111">
         <v>5</v>
       </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="60">
+      <c r="I26" s="62"/>
+      <c r="J26" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-48</v>
-      </c>
-      <c r="K26" s="98" t="str">
+        <v>-44</v>
+      </c>
+      <c r="K26" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6577,38 +6580,38 @@
       <c r="BO26" s="10"/>
     </row>
     <row r="27" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="91" t="s">
+      <c r="C27" s="129"/>
+      <c r="D27" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="67">
         <v>0</v>
       </c>
-      <c r="F27" s="129">
+      <c r="F27" s="118">
         <f t="shared" si="14"/>
         <v>43845</v>
       </c>
-      <c r="G27" s="111">
+      <c r="G27" s="100">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43850</v>
       </c>
-      <c r="H27" s="106">
+      <c r="H27" s="95">
         <v>5</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="141">
+      <c r="I27" s="61"/>
+      <c r="J27" s="130">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-53</v>
-      </c>
-      <c r="K27" s="101" t="str">
+        <v>-49</v>
+      </c>
+      <c r="K27" s="90" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L27" s="142"/>
+      <c r="L27" s="131"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -6666,29 +6669,31 @@
       <c r="BO27" s="10"/>
     </row>
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="149" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152">
+      <c r="C28" s="139"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141">
         <f>G27</f>
         <v>43850</v>
       </c>
-      <c r="G28" s="152">
+      <c r="G28" s="141">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43856</v>
       </c>
-      <c r="H28" s="153">
+      <c r="H28" s="142">
         <f>H29</f>
         <v>6</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="168"/>
+      <c r="I28" s="136" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="157"/>
       <c r="M28" s="35"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -6746,40 +6751,40 @@
       <c r="BO28" s="10"/>
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="164" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="126">
+      <c r="E29" s="115">
         <v>0</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F29" s="113">
         <f>F28</f>
         <v>43850</v>
       </c>
-      <c r="G29" s="124">
+      <c r="G29" s="113">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43856</v>
       </c>
-      <c r="H29" s="127">
+      <c r="H29" s="116">
         <v>6</v>
       </c>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166">
+      <c r="I29" s="154"/>
+      <c r="J29" s="155">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-59</v>
-      </c>
-      <c r="K29" s="166" t="str">
+        <v>-55</v>
+      </c>
+      <c r="K29" s="155" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L29" s="168"/>
+      <c r="L29" s="157"/>
       <c r="M29" s="35"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -6837,29 +6842,29 @@
       <c r="BO29" s="10"/>
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="167" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163">
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="152">
         <f>G29</f>
         <v>43856</v>
       </c>
-      <c r="G30" s="163">
+      <c r="G30" s="152">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43862</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="120">
         <f>H31</f>
         <v>6</v>
       </c>
-      <c r="I30" s="130"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="168"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="157"/>
       <c r="M30" s="35"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -6917,40 +6922,40 @@
       <c r="BO30" s="10"/>
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="138" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="70">
         <v>0</v>
       </c>
-      <c r="F31" s="73">
+      <c r="F31" s="62">
         <f>F30</f>
         <v>43856</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="62">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43862</v>
       </c>
-      <c r="H31" s="137">
+      <c r="H31" s="126">
         <v>6</v>
       </c>
-      <c r="I31" s="159"/>
-      <c r="J31" s="98">
+      <c r="I31" s="148"/>
+      <c r="J31" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-65</v>
-      </c>
-      <c r="K31" s="98" t="str">
+        <v>-61</v>
+      </c>
+      <c r="K31" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L31" s="168"/>
+      <c r="L31" s="157"/>
       <c r="M31" s="35"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -7008,29 +7013,29 @@
       <c r="BO31" s="10"/>
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="167" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="163">
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152">
         <f>G31</f>
         <v>43862</v>
       </c>
-      <c r="G32" s="163">
+      <c r="G32" s="152">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43868</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="120">
         <f>H33</f>
         <v>6</v>
       </c>
-      <c r="I32" s="130"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="168"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="157"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7088,39 +7093,39 @@
       <c r="BO32" s="10"/>
     </row>
     <row r="33" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="69">
         <v>0</v>
       </c>
-      <c r="F33" s="77">
+      <c r="F33" s="66">
         <f>F32</f>
         <v>43862</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="66">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43868</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="59">
         <v>6</v>
       </c>
-      <c r="I33" s="154"/>
-      <c r="J33" s="102">
+      <c r="I33" s="143"/>
+      <c r="J33" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-71</v>
-      </c>
-      <c r="K33" s="102" t="str">
+        <v>-67</v>
+      </c>
+      <c r="K33" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L33" s="168"/>
+      <c r="L33" s="157"/>
       <c r="M33" s="35"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7178,28 +7183,28 @@
       <c r="BO33" s="10"/>
     </row>
     <row r="34" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="75">
+      <c r="C34" s="135"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="64">
         <f>G33</f>
         <v>43868</v>
       </c>
-      <c r="G34" s="75">
+      <c r="G34" s="64">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43873</v>
       </c>
-      <c r="H34" s="157">
+      <c r="H34" s="146">
         <f>H35</f>
         <v>5</v>
       </c>
-      <c r="I34" s="96"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="168"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="157"/>
       <c r="M34" s="35"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7257,39 +7262,39 @@
       <c r="BO34" s="10"/>
     </row>
     <row r="35" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35" s="69">
         <v>0</v>
       </c>
-      <c r="F35" s="77">
+      <c r="F35" s="66">
         <f>F34</f>
         <v>43868</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="66">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43873</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="59">
         <v>5</v>
       </c>
-      <c r="I35" s="154"/>
-      <c r="J35" s="102">
+      <c r="I35" s="143"/>
+      <c r="J35" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-76</v>
-      </c>
-      <c r="K35" s="102" t="str">
+        <v>-72</v>
+      </c>
+      <c r="K35" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L35" s="168"/>
+      <c r="L35" s="157"/>
       <c r="M35" s="35"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7347,30 +7352,30 @@
       <c r="BO35" s="10"/>
     </row>
     <row r="36" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="75">
+      <c r="D36" s="79"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="64">
         <f>G35</f>
         <v>43873</v>
       </c>
-      <c r="G36" s="75">
+      <c r="G36" s="64">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43880</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="60">
         <f>H37</f>
         <v>7</v>
       </c>
-      <c r="I36" s="95"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="168"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="157"/>
       <c r="M36" s="35"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -7428,39 +7433,39 @@
       <c r="BO36" s="10"/>
     </row>
     <row r="37" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="113" t="s">
+      <c r="D37" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="144">
+      <c r="E37" s="133">
         <v>0</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="62">
         <f>F36</f>
         <v>43873</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="62">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43880</v>
       </c>
-      <c r="H37" s="135">
+      <c r="H37" s="124">
         <v>7</v>
       </c>
-      <c r="I37" s="145"/>
-      <c r="J37" s="100">
+      <c r="I37" s="134"/>
+      <c r="J37" s="89">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-83</v>
-      </c>
-      <c r="K37" s="100" t="str">
+        <v>-79</v>
+      </c>
+      <c r="K37" s="89" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L37" s="168"/>
+      <c r="L37" s="157"/>
       <c r="M37" s="35"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -7550,39 +7555,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:BO8 L10:BO11 L34:BO36 L28:BO31 L13:BO13 L17:BO20">
-    <cfRule type="expression" dxfId="24" priority="136">
+    <cfRule type="expression" dxfId="35" priority="136">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="23" priority="142">
+    <cfRule type="expression" dxfId="34" priority="142">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="22" priority="138">
+    <cfRule type="expression" dxfId="33" priority="138">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="21" priority="137">
+    <cfRule type="expression" dxfId="32" priority="137">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO31 L33:BO37">
-    <cfRule type="expression" dxfId="20" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="159" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="178" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="196" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="197" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="198" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7601,7 +7606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="15" priority="111">
+    <cfRule type="expression" dxfId="26" priority="111">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7620,12 +7625,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="14" priority="103">
+    <cfRule type="expression" dxfId="25" priority="103">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:BO36">
-    <cfRule type="expression" dxfId="13" priority="47">
+    <cfRule type="expression" dxfId="24" priority="47">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7644,22 +7649,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:BO37">
-    <cfRule type="expression" dxfId="12" priority="39">
+    <cfRule type="expression" dxfId="23" priority="39">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:BO37">
-    <cfRule type="expression" dxfId="11" priority="37">
+    <cfRule type="expression" dxfId="22" priority="37">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO27">
-    <cfRule type="expression" dxfId="10" priority="26">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7678,7 +7683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7767,24 +7772,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:BO32">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:BO32">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>AND($C32="Low Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>AND($C32="High Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>AND($C32="On Track",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>AND($C32="Med Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND(LEN($C32)=0,L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7992,6 +7997,21 @@
           <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="118" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -8144,21 +8164,6 @@
           <xm:sqref>L16:BO16 L14:BO14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{C12C639A-6BA8-4B63-B798-1250B0A4E067}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A292D8D-7A85-4CF1-AF16-AB93E8FDBEB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65905D-678E-4DC2-BEE5-49155E4CE097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>2.2 วิเคราะห์ระบบจาก Requirement เพื่อสร้าง Entity</t>
   </si>
   <si>
-    <t>3.1 Design Flow Chart</t>
-  </si>
-  <si>
     <t>3.2 Design Class Diagram</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3.1 Design Flow Chart , Activity diagram</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1245,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1716,9 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3135,8 +3132,8 @@
   </sheetPr>
   <dimension ref="A1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3163,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -3188,36 +3185,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="188" t="s">
+      <c r="L2" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="Q2" s="189" t="s">
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="Q2" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="V2" s="190" t="s">
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="V2" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="AA2" s="180" t="s">
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="AA2" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="180"/>
-      <c r="AF2" s="181" t="s">
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AF2" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="180"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3227,16 +3224,16 @@
         <v>41</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="182" t="s">
+      <c r="D3" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="183"/>
-      <c r="F3" s="185">
+      <c r="E3" s="182"/>
+      <c r="F3" s="184">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
         <v>43789</v>
       </c>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="186"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3248,10 +3245,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="183"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3341,15 +3338,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -3651,34 +3648,34 @@
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="176" t="s">
+      <c r="D7" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="176" t="s">
+      <c r="E7" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="176" t="s">
+      <c r="F7" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="176" t="s">
+      <c r="G7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="176" t="s">
+      <c r="H7" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="177" t="s">
+      <c r="I7" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="178" t="s">
+      <c r="J7" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="179" t="s">
+      <c r="K7" s="178" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
@@ -3926,8 +3923,8 @@
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="160"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="55"/>
       <c r="L8" s="35" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
@@ -4156,19 +4153,19 @@
     </row>
     <row r="9" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="170" t="s">
-        <v>53</v>
+      <c r="B9" s="169" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="75" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="171">
+        <v>51</v>
+      </c>
+      <c r="E9" s="170">
         <v>1</v>
       </c>
-      <c r="F9" s="172">
+      <c r="F9" s="171">
         <v>43789</v>
       </c>
       <c r="G9" s="99">
@@ -4178,7 +4175,7 @@
         <f>Milestones[[#This Row],[End Date]]-Milestones[[#This Row],[Start Date]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="173">
+      <c r="I9" s="172">
         <v>43789</v>
       </c>
       <c r="J9" s="88">
@@ -4420,20 +4417,20 @@
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="81"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166">
+      <c r="E10" s="164"/>
+      <c r="F10" s="165">
         <f>F11</f>
         <v>43790</v>
       </c>
-      <c r="G10" s="167">
+      <c r="G10" s="166">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="H10" s="168">
+      <c r="H10" s="167">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="169"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="147"/>
       <c r="K10" s="46"/>
       <c r="L10" s="35" t="str">
@@ -4670,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="133">
         <v>1</v>
@@ -4930,7 +4927,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="69">
         <v>1</v>
@@ -5200,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="54"/>
-      <c r="J13" s="160"/>
+      <c r="J13" s="159"/>
       <c r="K13" s="55"/>
       <c r="L13" s="35"/>
       <c r="M13" s="10"/>
@@ -5262,16 +5259,16 @@
     <row r="14" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="127" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C14" s="73" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="62">
         <f>G12</f>
@@ -5284,14 +5281,16 @@
       <c r="H14" s="126">
         <v>3</v>
       </c>
-      <c r="I14" s="159"/>
+      <c r="I14" s="92">
+        <v>43794</v>
+      </c>
       <c r="J14" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K14" s="49" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="10"/>
@@ -5353,16 +5352,16 @@
     <row r="15" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="69">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="66">
         <f>G14</f>
@@ -5375,14 +5374,16 @@
       <c r="H15" s="59">
         <v>3</v>
       </c>
-      <c r="I15" s="118"/>
+      <c r="I15" s="118">
+        <v>43797</v>
+      </c>
       <c r="J15" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="57" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L15" s="35"/>
       <c r="M15" s="10"/>
@@ -5443,15 +5444,15 @@
     </row>
     <row r="16" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="163" t="s">
-        <v>46</v>
+      <c r="B16" s="162" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="70">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="62">
         <f>G15</f>
@@ -5464,14 +5465,16 @@
       <c r="H16" s="126">
         <v>3</v>
       </c>
-      <c r="I16" s="92"/>
+      <c r="I16" s="92">
+        <v>43800</v>
+      </c>
       <c r="J16" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="49" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L16" s="35"/>
       <c r="M16" s="10"/>
@@ -5531,13 +5534,13 @@
       <c r="BO16" s="10"/>
     </row>
     <row r="17" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="162"/>
+      <c r="C17" s="161"/>
       <c r="D17" s="103"/>
       <c r="E17" s="151"/>
-      <c r="F17" s="161">
+      <c r="F17" s="160">
         <f>G16</f>
         <v>43800</v>
       </c>
@@ -5780,11 +5783,11 @@
     <row r="18" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="108"/>
       <c r="D18" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="69">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
       <c r="I18" s="110"/>
       <c r="J18" s="94">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I18-Milestones[[#This Row],[End Date]])</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I18-G18&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5869,16 +5872,16 @@
     <row r="19" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="73" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F19" s="118">
         <f>G18</f>
@@ -5894,11 +5897,11 @@
       <c r="I19" s="62"/>
       <c r="J19" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="K19" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="10"/>
@@ -5960,14 +5963,14 @@
     <row r="20" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="72"/>
       <c r="D20" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="115">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F20" s="118">
         <f t="shared" ref="F20:F27" si="14">G19</f>
@@ -5980,14 +5983,16 @@
       <c r="H20" s="95">
         <v>5</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="63">
+        <v>43808</v>
+      </c>
       <c r="J20" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="K20" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="10"/>
@@ -6049,11 +6054,11 @@
     <row r="21" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="117">
         <v>0.5</v>
@@ -6072,7 +6077,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="K21" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6138,11 +6143,11 @@
     <row r="22" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="104"/>
       <c r="D22" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="70">
         <v>0</v>
@@ -6161,7 +6166,7 @@
       <c r="I22" s="62"/>
       <c r="J22" s="82">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="K22" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6227,11 +6232,11 @@
     <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="70">
         <v>0</v>
@@ -6250,7 +6255,7 @@
       <c r="I23" s="66"/>
       <c r="J23" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-29</v>
+        <v>-22</v>
       </c>
       <c r="K23" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6316,11 +6321,11 @@
     <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="69">
         <v>0</v>
@@ -6339,7 +6344,7 @@
       <c r="I24" s="62"/>
       <c r="J24" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="K24" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6405,11 +6410,11 @@
     <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="70">
         <v>0</v>
@@ -6428,7 +6433,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-39</v>
+        <v>-32</v>
       </c>
       <c r="K25" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6493,11 +6498,11 @@
     </row>
     <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="68">
         <v>0</v>
@@ -6516,7 +6521,7 @@
       <c r="I26" s="62"/>
       <c r="J26" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-44</v>
+        <v>-37</v>
       </c>
       <c r="K26" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6582,11 +6587,11 @@
     <row r="27" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="129"/>
       <c r="D27" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="67">
         <v>0</v>
@@ -6605,7 +6610,7 @@
       <c r="I27" s="61"/>
       <c r="J27" s="130">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="K27" s="90" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6689,7 +6694,7 @@
         <v>6</v>
       </c>
       <c r="I28" s="136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="137"/>
       <c r="K28" s="137"/>
@@ -6753,13 +6758,13 @@
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="129" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="115">
         <v>0</v>
@@ -6778,7 +6783,7 @@
       <c r="I29" s="154"/>
       <c r="J29" s="155">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-55</v>
+        <v>-48</v>
       </c>
       <c r="K29" s="155" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6924,13 +6929,13 @@
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="73" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="70">
         <v>0</v>
@@ -6949,7 +6954,7 @@
       <c r="I31" s="148"/>
       <c r="J31" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-61</v>
+        <v>-54</v>
       </c>
       <c r="K31" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7094,13 +7099,13 @@
     </row>
     <row r="33" spans="2:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="72" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="69">
         <v>0</v>
@@ -7119,7 +7124,7 @@
       <c r="I33" s="143"/>
       <c r="J33" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-67</v>
+        <v>-60</v>
       </c>
       <c r="K33" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7263,13 +7268,13 @@
     </row>
     <row r="35" spans="2:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="72" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="69">
         <v>0</v>
@@ -7288,7 +7293,7 @@
       <c r="I35" s="143"/>
       <c r="J35" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-72</v>
+        <v>-65</v>
       </c>
       <c r="K35" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7434,13 +7439,13 @@
     </row>
     <row r="37" spans="2:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="105" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="133">
         <v>0</v>
@@ -7459,7 +7464,7 @@
       <c r="I37" s="134"/>
       <c r="J37" s="89">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-79</v>
+        <v>-72</v>
       </c>
       <c r="K37" s="89" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65905D-678E-4DC2-BEE5-49155E4CE097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAA41AA-1BA8-40A7-8007-CEAF39CBCEA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1569,9 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="19" fillId="0" borderId="39" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3132,8 +3129,8 @@
   </sheetPr>
   <dimension ref="A1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3185,36 +3182,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="187" t="s">
+      <c r="L2" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="Q2" s="188" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="Q2" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="V2" s="189" t="s">
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="V2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="AA2" s="179" t="s">
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="AA2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AF2" s="180" t="s">
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AF2" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="180"/>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="180"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3224,16 +3221,16 @@
         <v>41</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="182"/>
-      <c r="F3" s="184">
+      <c r="E3" s="181"/>
+      <c r="F3" s="183">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
         <v>43789</v>
       </c>
-      <c r="G3" s="185"/>
-      <c r="H3" s="186"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="185"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3245,10 +3242,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="182"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3338,15 +3335,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -3648,34 +3645,34 @@
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="175" t="s">
+      <c r="E7" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="175" t="s">
+      <c r="G7" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="175" t="s">
+      <c r="H7" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="176" t="s">
+      <c r="I7" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="177" t="s">
+      <c r="J7" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="178" t="s">
+      <c r="K7" s="177" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
@@ -3905,7 +3902,7 @@
     </row>
     <row r="8" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="155" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="50"/>
@@ -3923,8 +3920,8 @@
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="173"/>
-      <c r="J8" s="159"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="55"/>
       <c r="L8" s="35" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
@@ -4153,36 +4150,36 @@
     </row>
     <row r="9" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="168" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="169">
         <v>1</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="170">
         <v>43789</v>
       </c>
       <c r="G9" s="99">
         <v>43790</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="111">
         <f>Milestones[[#This Row],[End Date]]-Milestones[[#This Row],[Start Date]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="172">
+      <c r="I9" s="171">
         <v>43789</v>
       </c>
       <c r="J9" s="88">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I9-Milestones[[#This Row],[End Date]])</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="123" t="str">
+      <c r="K9" s="122" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I9-G9&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4412,26 +4409,26 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="81"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="165">
+      <c r="E10" s="163"/>
+      <c r="F10" s="164">
         <f>F11</f>
         <v>43790</v>
       </c>
-      <c r="G10" s="166">
+      <c r="G10" s="165">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="H10" s="167">
+      <c r="H10" s="166">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="168"/>
-      <c r="J10" s="147"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="146"/>
       <c r="K10" s="46"/>
       <c r="L10" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4660,7 +4657,7 @@
     </row>
     <row r="11" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="105" t="s">
@@ -4669,7 +4666,7 @@
       <c r="D11" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="132">
         <v>1</v>
       </c>
       <c r="F11" s="62">
@@ -4679,10 +4676,10 @@
       <c r="G11" s="92">
         <v>43791</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="113">
         <v>1</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="120">
         <v>43791</v>
       </c>
       <c r="J11" s="89">
@@ -4941,7 +4938,7 @@
       <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="118">
+      <c r="I12" s="117">
         <v>43791</v>
       </c>
       <c r="J12" s="91">
@@ -5178,7 +5175,7 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="157" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="50"/>
@@ -5197,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="54"/>
-      <c r="J13" s="159"/>
+      <c r="J13" s="158"/>
       <c r="K13" s="55"/>
       <c r="L13" s="35"/>
       <c r="M13" s="10"/>
@@ -5258,7 +5255,7 @@
     </row>
     <row r="14" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="126" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="73" t="s">
@@ -5278,15 +5275,15 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43794</v>
       </c>
-      <c r="H14" s="126">
+      <c r="H14" s="125">
         <v>3</v>
       </c>
       <c r="I14" s="92">
-        <v>43794</v>
+        <v>43808</v>
       </c>
       <c r="J14" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K14" s="49" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5374,12 +5371,12 @@
       <c r="H15" s="59">
         <v>3</v>
       </c>
-      <c r="I15" s="118">
-        <v>43797</v>
+      <c r="I15" s="92">
+        <v>43808</v>
       </c>
       <c r="J15" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K15" s="57" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5444,7 +5441,7 @@
     </row>
     <row r="16" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="161" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="42"/>
@@ -5462,15 +5459,15 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43800</v>
       </c>
-      <c r="H16" s="126">
+      <c r="H16" s="125">
         <v>3</v>
       </c>
       <c r="I16" s="92">
-        <v>43800</v>
+        <v>43808</v>
       </c>
       <c r="J16" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" s="49" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -5534,13 +5531,13 @@
       <c r="BO16" s="10"/>
     </row>
     <row r="17" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="161"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="103"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="160">
+      <c r="E17" s="150"/>
+      <c r="F17" s="159">
         <f>G16</f>
         <v>43800</v>
       </c>
@@ -5790,27 +5787,29 @@
         <v>51</v>
       </c>
       <c r="E18" s="69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="62">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="117">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
       <c r="H18" s="93">
         <v>5</v>
       </c>
-      <c r="I18" s="110"/>
+      <c r="I18" s="147">
+        <v>43812</v>
+      </c>
       <c r="J18" s="94">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I18-Milestones[[#This Row],[End Date]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K18" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I18-G18&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L18" s="35"/>
       <c r="M18" s="10"/>
@@ -5881,27 +5880,29 @@
         <v>51</v>
       </c>
       <c r="E19" s="70">
-        <v>0.8</v>
-      </c>
-      <c r="F19" s="118">
+        <v>1</v>
+      </c>
+      <c r="F19" s="117">
         <f>G18</f>
         <v>43805</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="117">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43810</v>
       </c>
       <c r="H19" s="93">
         <v>5</v>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="147">
+        <v>43812</v>
+      </c>
       <c r="J19" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K19" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="10"/>
@@ -5969,10 +5970,10 @@
       <c r="D20" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="114">
         <v>1</v>
       </c>
-      <c r="F20" s="118">
+      <c r="F20" s="117">
         <f t="shared" ref="F20:F27" si="14">G19</f>
         <v>43810</v>
       </c>
@@ -6060,14 +6061,14 @@
       <c r="D21" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="117">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="118">
+      <c r="E21" s="116">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="117">
         <f t="shared" si="14"/>
         <v>43815</v>
       </c>
-      <c r="G21" s="118">
+      <c r="G21" s="117">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43820</v>
       </c>
@@ -6077,7 +6078,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="K21" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6150,9 +6151,9 @@
         <v>51</v>
       </c>
       <c r="E22" s="70">
-        <v>0</v>
-      </c>
-      <c r="F22" s="118">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="117">
         <f t="shared" si="14"/>
         <v>43820</v>
       </c>
@@ -6160,13 +6161,13 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43825</v>
       </c>
-      <c r="H22" s="111">
+      <c r="H22" s="110">
         <v>5</v>
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="82">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="K22" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6239,9 +6240,9 @@
         <v>51</v>
       </c>
       <c r="E23" s="70">
-        <v>0</v>
-      </c>
-      <c r="F23" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="117">
         <f t="shared" si="14"/>
         <v>43825</v>
       </c>
@@ -6249,13 +6250,13 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43830</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="110">
         <v>5</v>
       </c>
       <c r="I23" s="66"/>
       <c r="J23" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="K23" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6328,9 +6329,9 @@
         <v>51</v>
       </c>
       <c r="E24" s="69">
-        <v>0</v>
-      </c>
-      <c r="F24" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="117">
         <f t="shared" si="14"/>
         <v>43830</v>
       </c>
@@ -6338,13 +6339,13 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43835</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="110">
         <v>5</v>
       </c>
       <c r="I24" s="62"/>
       <c r="J24" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="K24" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6419,7 +6420,7 @@
       <c r="E25" s="70">
         <v>0</v>
       </c>
-      <c r="F25" s="118">
+      <c r="F25" s="117">
         <f t="shared" si="14"/>
         <v>43835</v>
       </c>
@@ -6433,7 +6434,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="K25" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6507,7 +6508,7 @@
       <c r="E26" s="68">
         <v>0</v>
       </c>
-      <c r="F26" s="118">
+      <c r="F26" s="117">
         <f t="shared" si="14"/>
         <v>43840</v>
       </c>
@@ -6515,13 +6516,13 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43845</v>
       </c>
-      <c r="H26" s="111">
+      <c r="H26" s="110">
         <v>5</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-37</v>
+        <v>-33</v>
       </c>
       <c r="K26" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6589,14 +6590,14 @@
       <c r="B27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="129"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="80" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="67">
         <v>0</v>
       </c>
-      <c r="F27" s="118">
+      <c r="F27" s="117">
         <f t="shared" si="14"/>
         <v>43845</v>
       </c>
@@ -6608,15 +6609,15 @@
         <v>5</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="130">
+      <c r="J27" s="129">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-42</v>
+        <v>-38</v>
       </c>
       <c r="K27" s="90" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L27" s="131"/>
+      <c r="L27" s="130"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -6675,30 +6676,30 @@
     </row>
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141">
+      <c r="C28" s="138"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140">
         <f>G27</f>
         <v>43850</v>
       </c>
-      <c r="G28" s="141">
+      <c r="G28" s="140">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43856</v>
       </c>
-      <c r="H28" s="142">
+      <c r="H28" s="141">
         <f>H29</f>
         <v>6</v>
       </c>
-      <c r="I28" s="136" t="s">
+      <c r="I28" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="157"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="156"/>
       <c r="M28" s="35"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -6757,39 +6758,39 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="128" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="114">
         <v>0</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="112">
         <f>F28</f>
         <v>43850</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="112">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43856</v>
       </c>
-      <c r="H29" s="116">
+      <c r="H29" s="115">
         <v>6</v>
       </c>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155">
+      <c r="I29" s="153"/>
+      <c r="J29" s="154">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-48</v>
-      </c>
-      <c r="K29" s="155" t="str">
+        <v>-44</v>
+      </c>
+      <c r="K29" s="154" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L29" s="157"/>
+      <c r="L29" s="156"/>
       <c r="M29" s="35"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -6848,28 +6849,28 @@
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="152">
+      <c r="C30" s="148"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="151">
         <f>G29</f>
         <v>43856</v>
       </c>
-      <c r="G30" s="152">
+      <c r="G30" s="151">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43862</v>
       </c>
-      <c r="H30" s="120">
+      <c r="H30" s="119">
         <f>H31</f>
         <v>6</v>
       </c>
-      <c r="I30" s="119"/>
+      <c r="I30" s="118"/>
       <c r="J30" s="86"/>
       <c r="K30" s="86"/>
-      <c r="L30" s="157"/>
+      <c r="L30" s="156"/>
       <c r="M30" s="35"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -6928,7 +6929,7 @@
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="73" t="s">
@@ -6948,19 +6949,19 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43862</v>
       </c>
-      <c r="H31" s="126">
+      <c r="H31" s="125">
         <v>6</v>
       </c>
-      <c r="I31" s="148"/>
+      <c r="I31" s="147"/>
       <c r="J31" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-54</v>
+        <v>-50</v>
       </c>
       <c r="K31" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L31" s="157"/>
+      <c r="L31" s="156"/>
       <c r="M31" s="35"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -7019,28 +7020,28 @@
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152">
+      <c r="C32" s="148"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151">
         <f>G31</f>
         <v>43862</v>
       </c>
-      <c r="G32" s="152">
+      <c r="G32" s="151">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43868</v>
       </c>
-      <c r="H32" s="120">
+      <c r="H32" s="119">
         <f>H33</f>
         <v>6</v>
       </c>
-      <c r="I32" s="119"/>
+      <c r="I32" s="118"/>
       <c r="J32" s="86"/>
       <c r="K32" s="86"/>
-      <c r="L32" s="157"/>
+      <c r="L32" s="156"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7121,16 +7122,16 @@
       <c r="H33" s="59">
         <v>6</v>
       </c>
-      <c r="I33" s="143"/>
+      <c r="I33" s="142"/>
       <c r="J33" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="K33" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L33" s="157"/>
+      <c r="L33" s="156"/>
       <c r="M33" s="35"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7188,12 +7189,12 @@
       <c r="BO33" s="10"/>
     </row>
     <row r="34" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="135"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="79"/>
-      <c r="E34" s="145"/>
+      <c r="E34" s="144"/>
       <c r="F34" s="64">
         <f>G33</f>
         <v>43868</v>
@@ -7202,14 +7203,14 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43873</v>
       </c>
-      <c r="H34" s="146">
+      <c r="H34" s="145">
         <f>H35</f>
         <v>5</v>
       </c>
       <c r="I34" s="85"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="157"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="156"/>
       <c r="M34" s="35"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7290,16 +7291,16 @@
       <c r="H35" s="59">
         <v>5</v>
       </c>
-      <c r="I35" s="143"/>
+      <c r="I35" s="142"/>
       <c r="J35" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-65</v>
+        <v>-61</v>
       </c>
       <c r="K35" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L35" s="157"/>
+      <c r="L35" s="156"/>
       <c r="M35" s="35"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7357,7 +7358,7 @@
       <c r="BO35" s="10"/>
     </row>
     <row r="36" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="127" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -7380,7 +7381,7 @@
       <c r="I36" s="84"/>
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
-      <c r="L36" s="157"/>
+      <c r="L36" s="156"/>
       <c r="M36" s="35"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -7447,7 +7448,7 @@
       <c r="D37" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="133">
+      <c r="E37" s="132">
         <v>0</v>
       </c>
       <c r="F37" s="62">
@@ -7458,19 +7459,19 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43880</v>
       </c>
-      <c r="H37" s="124">
+      <c r="H37" s="123">
         <v>7</v>
       </c>
-      <c r="I37" s="134"/>
+      <c r="I37" s="133"/>
       <c r="J37" s="89">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-72</v>
+        <v>-68</v>
       </c>
       <c r="K37" s="89" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L37" s="157"/>
+      <c r="L37" s="156"/>
       <c r="M37" s="35"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAA41AA-1BA8-40A7-8007-CEAF39CBCEA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E5E7E-E173-45F1-B79C-088747CE6369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3130,7 +3130,7 @@
   <dimension ref="A1:BO39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6078,11 +6078,11 @@
       <c r="I21" s="65"/>
       <c r="J21" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="K21" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="10"/>
@@ -6151,7 +6151,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="117">
         <f t="shared" si="14"/>
@@ -6167,7 +6167,7 @@
       <c r="I22" s="62"/>
       <c r="J22" s="82">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="K22" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6240,7 +6240,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="70">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F23" s="117">
         <f t="shared" si="14"/>
@@ -6256,7 +6256,7 @@
       <c r="I23" s="66"/>
       <c r="J23" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K23" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6329,7 +6329,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="69">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F24" s="117">
         <f t="shared" si="14"/>
@@ -6345,7 +6345,7 @@
       <c r="I24" s="62"/>
       <c r="J24" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="K24" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6434,7 +6434,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-28</v>
+        <v>-22</v>
       </c>
       <c r="K25" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6522,7 +6522,7 @@
       <c r="I26" s="62"/>
       <c r="J26" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-33</v>
+        <v>-27</v>
       </c>
       <c r="K26" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6611,7 +6611,7 @@
       <c r="I27" s="61"/>
       <c r="J27" s="129">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-38</v>
+        <v>-32</v>
       </c>
       <c r="K27" s="90" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6784,7 +6784,7 @@
       <c r="I29" s="153"/>
       <c r="J29" s="154">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-44</v>
+        <v>-38</v>
       </c>
       <c r="K29" s="154" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6955,7 +6955,7 @@
       <c r="I31" s="147"/>
       <c r="J31" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-50</v>
+        <v>-44</v>
       </c>
       <c r="K31" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7125,7 +7125,7 @@
       <c r="I33" s="142"/>
       <c r="J33" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-56</v>
+        <v>-50</v>
       </c>
       <c r="K33" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7294,7 +7294,7 @@
       <c r="I35" s="142"/>
       <c r="J35" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-61</v>
+        <v>-55</v>
       </c>
       <c r="K35" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7465,7 +7465,7 @@
       <c r="I37" s="133"/>
       <c r="J37" s="89">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-68</v>
+        <v>-62</v>
       </c>
       <c r="K37" s="89" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E5E7E-E173-45F1-B79C-088747CE6369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316B1ADB-F0AA-4A2F-ADE0-B3ED34171707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3129,8 +3129,8 @@
   </sheetPr>
   <dimension ref="A1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6078,7 +6078,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6164,14 +6164,16 @@
       <c r="H22" s="110">
         <v>5</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="62">
+        <v>43816</v>
+      </c>
       <c r="J22" s="82">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="K22" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="10"/>
@@ -6240,7 +6242,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="70">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="F23" s="117">
         <f t="shared" si="14"/>
@@ -6256,7 +6258,7 @@
       <c r="I23" s="66"/>
       <c r="J23" s="56">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="K23" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6329,7 +6331,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="69">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F24" s="117">
         <f t="shared" si="14"/>
@@ -6345,7 +6347,7 @@
       <c r="I24" s="62"/>
       <c r="J24" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="K24" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6434,7 +6436,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="57">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="K25" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6522,7 +6524,7 @@
       <c r="I26" s="62"/>
       <c r="J26" s="49">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="K26" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6611,7 +6613,7 @@
       <c r="I27" s="61"/>
       <c r="J27" s="129">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="K27" s="90" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6784,7 +6786,7 @@
       <c r="I29" s="153"/>
       <c r="J29" s="154">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="K29" s="154" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6955,7 +6957,7 @@
       <c r="I31" s="147"/>
       <c r="J31" s="87">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="K31" s="87" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7125,7 +7127,7 @@
       <c r="I33" s="142"/>
       <c r="J33" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="K33" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7294,7 +7296,7 @@
       <c r="I35" s="142"/>
       <c r="J35" s="91">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="K35" s="91" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7465,7 +7467,7 @@
       <c r="I37" s="133"/>
       <c r="J37" s="89">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="K37" s="89" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316B1ADB-F0AA-4A2F-ADE0-B3ED34171707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E19A317-3F78-4CBA-9A0A-6C087C43D5F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>About This Template</t>
   </si>
@@ -154,9 +154,6 @@
     <t>6. UAT</t>
   </si>
   <si>
-    <t>5. Testing</t>
-  </si>
-  <si>
     <t>7. Training</t>
   </si>
   <si>
@@ -187,22 +184,13 @@
     <t>3.3 Design User Interface</t>
   </si>
   <si>
-    <t>5.1 สร้าง Tasting</t>
-  </si>
-  <si>
     <t>7.1 สอนการใช้งาน</t>
   </si>
   <si>
     <t>8.1 การติดตั้ง</t>
   </si>
   <si>
-    <t>9.1 คู่มือ</t>
-  </si>
-  <si>
     <t>HR-Admin</t>
-  </si>
-  <si>
-    <t>DIKI,SAFE</t>
   </si>
   <si>
     <t>1.1 ขอ Requirement เรื่อง HR กับพี่หรั่ง</t>
@@ -229,15 +217,6 @@
     <t xml:space="preserve">4.7 สร้าง Controller ระบบย่อย ลางาน </t>
   </si>
   <si>
-    <t xml:space="preserve">4.10 สร้าง Controller ระบบย่อย OT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9 สร้าง User Interface ระบบย่อย OT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8 สร้าง Entity Backend ระบบย่อย OT </t>
-  </si>
-  <si>
     <t>6.1 ให้พนักงานทดลองใช้ระบบ HR-Admin</t>
   </si>
   <si>
@@ -245,6 +224,27 @@
   </si>
   <si>
     <t>3.1 Design Flow Chart , Activity diagram</t>
+  </si>
+  <si>
+    <t>Employee master</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>5.1  unit test</t>
+  </si>
+  <si>
+    <t>5. Unit Test</t>
+  </si>
+  <si>
+    <t>DIKI</t>
+  </si>
+  <si>
+    <t>9.2 Manaul</t>
+  </si>
+  <si>
+    <t>9.1 User</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +415,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +482,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -645,29 +657,9 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color theme="6" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -696,54 +688,6 @@
       <top style="thin">
         <color theme="6" tint="-0.249977111117893"/>
       </top>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="6" tint="-0.249977111117893"/>
       </bottom>
@@ -829,19 +773,6 @@
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="6" tint="0.39997558519241921"/>
@@ -849,17 +780,6 @@
       <bottom style="thin">
         <color theme="6" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -913,32 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
@@ -974,60 +868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1050,32 +890,6 @@
     <border>
       <left style="thin">
         <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
         <color theme="6" tint="-0.249977111117893"/>
@@ -1130,21 +944,6 @@
         <color theme="6" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
@@ -1163,19 +962,6 @@
         <color theme="6" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color theme="6" tint="-0.249977111117893"/>
       </top>
@@ -1217,6 +1003,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1245,7 +1066,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1369,409 +1190,280 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="29" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="35" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="40" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="34" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="39" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="44" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="48" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="28" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="37" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1805,6 +1497,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="11" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="11" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="11" borderId="32" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="11" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1822,271 +1616,400 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="67">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="9" tint="-0.24994659260841701"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
         <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="7" tint="-0.24994659260841701"/>
         </left>
         <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="7" tint="-0.24994659260841701"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color theme="0"/>
         </top>
         <bottom style="thin">
-          <color auto="1"/>
+          <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
         <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
+          <color theme="6"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
+          <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2525,6 +2448,272 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2669,20 +2858,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="firstRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="totalRow" dxfId="42"/>
-      <tableStyleElement type="firstColumn" dxfId="41"/>
-      <tableStyleElement type="lastColumn" dxfId="40"/>
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
+      <tableStyleElement type="totalRow" dxfId="61"/>
+      <tableStyleElement type="firstColumn" dxfId="60"/>
+      <tableStyleElement type="lastColumn" dxfId="59"/>
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="56"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="55"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2835,20 +3024,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K37" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K37" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="47" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="46" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="43">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="42">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3129,8 +3318,8 @@
   </sheetPr>
   <dimension ref="A1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3346,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -3182,55 +3371,54 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="186" t="s">
+      <c r="L2" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="Q2" s="187" t="s">
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="Q2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="V2" s="188" t="s">
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="V2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="AA2" s="178" t="s">
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="AA2" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AF2" s="179" t="s">
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AF2" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="183">
-        <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
+      <c r="E3" s="138"/>
+      <c r="F3" s="140">
         <v>43789</v>
       </c>
-      <c r="G3" s="184"/>
-      <c r="H3" s="185"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3242,10 +3430,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="181"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3335,15 +3523,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -3645,34 +3833,34 @@
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="174" t="s">
+      <c r="G7" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="174" t="s">
+      <c r="H7" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="175" t="s">
+      <c r="I7" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="176" t="s">
+      <c r="J7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="177" t="s">
+      <c r="K7" s="134" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
@@ -3902,27 +4090,27 @@
     </row>
     <row r="8" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49">
         <f>F9</f>
         <v>43789</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="49">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43790</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="50">
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="172"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="35" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
@@ -4150,36 +4338,36 @@
     </row>
     <row r="9" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="168" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="169">
+      <c r="D9" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="174">
         <v>1</v>
       </c>
-      <c r="F9" s="170">
+      <c r="F9" s="164">
         <v>43789</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="95">
         <v>43790</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="77">
         <f>Milestones[[#This Row],[End Date]]-Milestones[[#This Row],[Start Date]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="171">
+      <c r="I9" s="176">
         <v>43789</v>
       </c>
-      <c r="J9" s="88">
+      <c r="J9" s="75">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I9-Milestones[[#This Row],[End Date]])</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="122" t="str">
+      <c r="K9" s="54" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I9-G9&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4409,27 +4597,27 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="164">
+      <c r="C10" s="67"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="81">
         <f>F11</f>
         <v>43790</v>
       </c>
-      <c r="G10" s="165">
+      <c r="G10" s="81">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="H10" s="166">
+      <c r="H10" s="177">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="167"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -4657,36 +4845,36 @@
     </row>
     <row r="11" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="B11" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="132">
+      <c r="D11" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="148">
         <v>1</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="95">
         <f>G9</f>
         <v>43790</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="76">
         <v>43791</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="90">
         <v>1</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="76">
         <v>43791</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="73">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I11-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="47" t="str">
+      <c r="K11" s="46" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I11-G11&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4918,34 +5106,34 @@
     <row r="12" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="69">
+      <c r="D12" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="61">
         <v>1</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="60">
         <v>43790</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="60">
         <v>43791</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="56">
         <v>1</v>
       </c>
-      <c r="I12" s="117">
+      <c r="I12" s="95">
         <v>43791</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="75">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I12-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="57" t="str">
+      <c r="K12" s="54" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I12-G12&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5175,27 +5363,27 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="157" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52">
+      <c r="B13" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49">
         <f>F14</f>
         <v>43791</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="49">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="50">
         <f>H14+H15+H16</f>
         <v>9</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="55"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="35"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -5255,37 +5443,37 @@
     </row>
     <row r="14" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
-      <c r="B14" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="70">
+      <c r="D14" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="62">
         <v>1</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="57">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43794</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H14" s="98">
         <v>3</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="76">
         <v>43808</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="73">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
         <v>14</v>
       </c>
-      <c r="K14" s="49" t="str">
+      <c r="K14" s="46" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5348,37 +5536,37 @@
     </row>
     <row r="15" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
-      <c r="B15" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="69">
+      <c r="D15" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="61">
         <v>1</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="60">
         <f>G14</f>
         <v>43794</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="60">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43797</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="56">
         <v>3</v>
       </c>
-      <c r="I15" s="92">
+      <c r="I15" s="76">
         <v>43808</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="75">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
         <v>11</v>
       </c>
-      <c r="K15" s="57" t="str">
+      <c r="K15" s="54" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5441,35 +5629,35 @@
     </row>
     <row r="16" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="161" t="s">
-        <v>45</v>
+      <c r="B16" s="128" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="70">
+      <c r="D16" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="62">
         <v>1</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="57">
         <f>G15</f>
         <v>43797</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43800</v>
       </c>
-      <c r="H16" s="125">
+      <c r="H16" s="98">
         <v>3</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="76">
         <v>43808</v>
       </c>
-      <c r="J16" s="87">
+      <c r="J16" s="73">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
         <v>8</v>
       </c>
-      <c r="K16" s="49" t="str">
+      <c r="K16" s="46" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5531,287 +5719,267 @@
       <c r="BO16" s="10"/>
     </row>
     <row r="17" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="162" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="159">
+      <c r="B17" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="149"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="150">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G17" s="98">
-        <f>G27</f>
-        <v>43850</v>
-      </c>
-      <c r="H17" s="97">
-        <f>SUM(H18:H27)</f>
-        <v>50</v>
-      </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
+      <c r="G17" s="81">
+        <f>G26</f>
+        <v>43845</v>
+      </c>
+      <c r="H17" s="80">
+        <f>SUM(H19:H26)</f>
+        <v>45</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="35" t="str">
-        <f t="shared" ref="L17:AQ17" ca="1" si="12">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
+        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="M17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="O17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="P17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",P$5&gt;=$F17,P$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",P$5&gt;=$F17,P$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="Q17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",Q$5&gt;=$F17,Q$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Q$5&gt;=$F17,Q$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="R17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="S17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",S$5&gt;=$F17,S$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",S$5&gt;=$F17,S$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="T17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",T$5&gt;=$F17,T$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",T$5&gt;=$F17,T$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="U17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",U$5&gt;=$F17,U$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",U$5&gt;=$F17,U$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="V17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",V$5&gt;=$F17,V$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",V$5&gt;=$F17,V$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="W17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",W$5&gt;=$F17,W$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",W$5&gt;=$F17,W$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="X17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="Y17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="Z17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AA17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AB17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AC17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AD17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AE17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AF17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AG17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AH17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AK17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AL17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AM17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AN17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AO17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AP17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AR17" s="10" t="str">
-        <f t="shared" ref="AR17:BO17" ca="1" si="13">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
+        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AS17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AT17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AU17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AV17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AW17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AX17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AY17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BA17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BB17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BC17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BD17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BE17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BF17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BG17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BH17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BI17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BK17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BL17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BM17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BM$5&gt;=$F17,BM$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BM$5&gt;=$F17,BM$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BN17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BN$5&gt;=$F17,BN$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BN$5&gt;=$F17,BN$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="BO17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",BO$5&gt;=$F17,BO$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BO$5&gt;=$F17,BO$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="69">
-        <v>1</v>
-      </c>
-      <c r="F18" s="62">
-        <f>G16</f>
-        <v>43800</v>
-      </c>
-      <c r="G18" s="117">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43805</v>
-      </c>
-      <c r="H18" s="93">
-        <v>5</v>
-      </c>
-      <c r="I18" s="147">
-        <v>43812</v>
-      </c>
-      <c r="J18" s="94">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I18-Milestones[[#This Row],[End Date]])</f>
-        <v>7</v>
-      </c>
-      <c r="K18" s="87" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I18-G18&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Complete</v>
-      </c>
-      <c r="L18" s="35"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="159" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -5870,37 +6038,35 @@
     </row>
     <row r="19" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
-      <c r="B19" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="70">
+      <c r="B19" s="146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="147"/>
+      <c r="D19" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="148">
         <v>1</v>
       </c>
-      <c r="F19" s="117">
-        <f>G18</f>
+      <c r="F19" s="76">
+        <f>G16</f>
+        <v>43800</v>
+      </c>
+      <c r="G19" s="76">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
-      <c r="G19" s="117">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43810</v>
-      </c>
-      <c r="H19" s="93">
+      <c r="H19" s="90">
         <v>5</v>
       </c>
-      <c r="I19" s="147">
+      <c r="I19" s="116">
         <v>43812</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="78">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="87" t="str">
+        <v>7</v>
+      </c>
+      <c r="K19" s="73" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5963,35 +6129,37 @@
     </row>
     <row r="20" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
-      <c r="B20" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="77" t="s">
+      <c r="B20" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="114">
+      <c r="C20" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="62">
         <v>1</v>
       </c>
-      <c r="F20" s="117">
-        <f t="shared" ref="F20:F27" si="14">G19</f>
+      <c r="F20" s="95">
+        <f>G19</f>
+        <v>43805</v>
+      </c>
+      <c r="G20" s="95">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43810</v>
       </c>
-      <c r="G20" s="100">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43815</v>
-      </c>
-      <c r="H20" s="95">
+      <c r="H20" s="77">
         <v>5</v>
       </c>
-      <c r="I20" s="63">
-        <v>43808</v>
-      </c>
-      <c r="J20" s="56">
+      <c r="I20" s="116">
+        <v>43812</v>
+      </c>
+      <c r="J20" s="46">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
-        <v>-7</v>
-      </c>
-      <c r="K20" s="87" t="str">
+        <v>2</v>
+      </c>
+      <c r="K20" s="73" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -6054,35 +6222,37 @@
     </row>
     <row r="21" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="116">
-        <v>0.9</v>
-      </c>
-      <c r="F21" s="117">
-        <f t="shared" si="14"/>
+      <c r="B21" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="92">
+        <v>1</v>
+      </c>
+      <c r="F21" s="95">
+        <f t="shared" ref="F21:F26" si="12">G20</f>
+        <v>43810</v>
+      </c>
+      <c r="G21" s="82">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43815</v>
       </c>
-      <c r="G21" s="117">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43820</v>
-      </c>
-      <c r="H21" s="93">
+      <c r="H21" s="79">
         <v>5</v>
       </c>
-      <c r="I21" s="65"/>
-      <c r="J21" s="56">
+      <c r="I21" s="58">
+        <v>43808</v>
+      </c>
+      <c r="J21" s="53">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
-        <v>-1</v>
-      </c>
-      <c r="K21" s="87" t="str">
+        <v>-7</v>
+      </c>
+      <c r="K21" s="73" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="10"/>
@@ -6143,37 +6313,35 @@
     </row>
     <row r="22" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
-      <c r="B22" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="70">
-        <v>1</v>
-      </c>
-      <c r="F22" s="117">
-        <f t="shared" si="14"/>
+      <c r="B22" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="171">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="163">
+        <f>G21</f>
+        <v>43815</v>
+      </c>
+      <c r="G22" s="163">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43820</v>
       </c>
-      <c r="G22" s="92">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43825</v>
-      </c>
-      <c r="H22" s="110">
+      <c r="H22" s="93">
         <v>5</v>
       </c>
-      <c r="I22" s="62">
-        <v>43816</v>
-      </c>
-      <c r="J22" s="82">
+      <c r="I22" s="172"/>
+      <c r="J22" s="53">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>-9</v>
-      </c>
-      <c r="K22" s="87" t="str">
+        <v>12</v>
+      </c>
+      <c r="K22" s="74" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Complete</v>
+        <v>On Process</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="10"/>
@@ -6233,37 +6401,19 @@
       <c r="BO22" s="10"/>
     </row>
     <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="70">
-        <v>0.95</v>
-      </c>
-      <c r="F23" s="117">
-        <f t="shared" si="14"/>
-        <v>43825</v>
-      </c>
-      <c r="G23" s="92">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43830</v>
-      </c>
-      <c r="H23" s="110">
-        <v>5</v>
-      </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="56">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
-        <v>-11</v>
-      </c>
-      <c r="K23" s="91" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I23-G23&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="A23" s="45"/>
+      <c r="B23" s="173" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="35"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -6323,35 +6473,37 @@
     </row>
     <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
-      <c r="B24" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="69">
-        <v>0.9</v>
-      </c>
-      <c r="F24" s="117">
-        <f t="shared" si="14"/>
-        <v>43830</v>
-      </c>
-      <c r="G24" s="92">
+      <c r="B24" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="62">
+        <v>1</v>
+      </c>
+      <c r="F24" s="76">
+        <f>G22</f>
+        <v>43820</v>
+      </c>
+      <c r="G24" s="76">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43835</v>
-      </c>
-      <c r="H24" s="110">
+        <v>43825</v>
+      </c>
+      <c r="H24" s="90">
         <v>5</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="57">
+      <c r="I24" s="57">
+        <v>43816</v>
+      </c>
+      <c r="J24" s="46">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-16</v>
-      </c>
-      <c r="K24" s="87" t="str">
+        <v>-9</v>
+      </c>
+      <c r="K24" s="73" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="10"/>
@@ -6412,35 +6564,35 @@
     </row>
     <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
-      <c r="B25" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="70">
-        <v>0</v>
-      </c>
-      <c r="F25" s="117">
-        <f t="shared" si="14"/>
+      <c r="B25" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="62">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="95">
+        <f t="shared" si="12"/>
+        <v>43825</v>
+      </c>
+      <c r="G25" s="76">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43835</v>
       </c>
-      <c r="G25" s="92">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43840</v>
-      </c>
-      <c r="H25" s="93">
-        <v>5</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="57">
+      <c r="H25" s="90">
+        <v>10</v>
+      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="53">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-21</v>
-      </c>
-      <c r="K25" s="87" t="str">
+        <v>-3</v>
+      </c>
+      <c r="K25" s="75" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="10"/>
@@ -6500,33 +6652,33 @@
       <c r="BO25" s="10"/>
     </row>
     <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="68">
-        <v>0</v>
-      </c>
-      <c r="F26" s="117">
-        <f t="shared" si="14"/>
-        <v>43840</v>
-      </c>
-      <c r="G26" s="92">
+      <c r="B26" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="61">
+        <v>0.85</v>
+      </c>
+      <c r="F26" s="95">
+        <f t="shared" si="12"/>
+        <v>43835</v>
+      </c>
+      <c r="G26" s="76">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43845</v>
       </c>
-      <c r="H26" s="110">
-        <v>5</v>
-      </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="49">
+      <c r="H26" s="90">
+        <v>10</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="54">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-26</v>
-      </c>
-      <c r="K26" s="87" t="str">
+        <v>-13</v>
+      </c>
+      <c r="K26" s="73" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -6589,38 +6741,31 @@
     </row>
     <row r="27" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="67">
-        <v>0</v>
-      </c>
-      <c r="F27" s="117">
-        <f t="shared" si="14"/>
+      <c r="B27" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109">
+        <f>G26</f>
         <v>43845</v>
       </c>
-      <c r="G27" s="100">
+      <c r="G27" s="109">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43850</v>
-      </c>
-      <c r="H27" s="95">
-        <v>5</v>
-      </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="129">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>-31</v>
-      </c>
-      <c r="K27" s="90" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L27" s="130"/>
-      <c r="M27" s="10"/>
+        <v>43851</v>
+      </c>
+      <c r="H27" s="110">
+        <f>H28</f>
+        <v>6</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -6677,31 +6822,40 @@
       <c r="BO27" s="10"/>
     </row>
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140">
-        <f>G27</f>
-        <v>43850</v>
-      </c>
-      <c r="G28" s="140">
+      <c r="A28" s="43"/>
+      <c r="B28" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="92">
+        <v>0</v>
+      </c>
+      <c r="F28" s="91">
+        <f>F27</f>
+        <v>43845</v>
+      </c>
+      <c r="G28" s="91">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43856</v>
-      </c>
-      <c r="H28" s="141">
-        <f>H29</f>
+        <v>43851</v>
+      </c>
+      <c r="H28" s="93">
         <v>6</v>
       </c>
-      <c r="I28" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="156"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
+        <v>-19</v>
+      </c>
+      <c r="K28" s="123" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L28" s="125"/>
       <c r="M28" s="35"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -6760,39 +6914,28 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="114">
-        <v>0</v>
-      </c>
-      <c r="F29" s="112">
-        <f>F28</f>
-        <v>43850</v>
-      </c>
-      <c r="G29" s="112">
+      <c r="B29" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120">
+        <f>G28</f>
+        <v>43851</v>
+      </c>
+      <c r="G29" s="120">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43856</v>
-      </c>
-      <c r="H29" s="115">
+        <v>43857</v>
+      </c>
+      <c r="H29" s="97">
+        <f>H30</f>
         <v>6</v>
       </c>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-37</v>
-      </c>
-      <c r="K29" s="154" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L29" s="156"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="125"/>
       <c r="M29" s="35"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -6850,29 +6993,39 @@
       <c r="BO29" s="10"/>
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="148"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="151">
-        <f>G29</f>
-        <v>43856</v>
-      </c>
-      <c r="G30" s="151">
+      <c r="B30" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="62">
+        <v>0</v>
+      </c>
+      <c r="F30" s="57">
+        <f>F29</f>
+        <v>43851</v>
+      </c>
+      <c r="G30" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43862</v>
-      </c>
-      <c r="H30" s="119">
-        <f>H31</f>
+        <v>43857</v>
+      </c>
+      <c r="H30" s="98">
         <v>6</v>
       </c>
-      <c r="I30" s="118"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="156"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="73">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I30-Milestones[[#This Row],[End Date]])</f>
+        <v>-25</v>
+      </c>
+      <c r="K30" s="73" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I30-G30&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L30" s="125"/>
       <c r="M30" s="35"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -6930,40 +7083,28 @@
       <c r="BO30" s="10"/>
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="70">
-        <v>0</v>
-      </c>
-      <c r="F31" s="62">
-        <f>F30</f>
-        <v>43856</v>
-      </c>
-      <c r="G31" s="62">
+      <c r="B31" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120">
+        <f>G30</f>
+        <v>43857</v>
+      </c>
+      <c r="G31" s="120">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43862</v>
-      </c>
-      <c r="H31" s="125">
+        <v>43863</v>
+      </c>
+      <c r="H31" s="97">
+        <f>H32</f>
         <v>6</v>
       </c>
-      <c r="I31" s="147"/>
-      <c r="J31" s="87">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-43</v>
-      </c>
-      <c r="K31" s="87" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L31" s="156"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="125"/>
       <c r="M31" s="35"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -7021,29 +7162,39 @@
       <c r="BO31" s="10"/>
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151">
-        <f>G31</f>
-        <v>43862</v>
-      </c>
-      <c r="G32" s="151">
+      <c r="B32" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="61">
+        <v>0</v>
+      </c>
+      <c r="F32" s="60">
+        <f>F31</f>
+        <v>43857</v>
+      </c>
+      <c r="G32" s="60">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43868</v>
-      </c>
-      <c r="H32" s="119">
-        <f>H33</f>
+        <v>43863</v>
+      </c>
+      <c r="H32" s="56">
         <v>6</v>
       </c>
-      <c r="I32" s="118"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="156"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="75">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I32-Milestones[[#This Row],[End Date]])</f>
+        <v>-31</v>
+      </c>
+      <c r="K32" s="75" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I32-G32&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L32" s="125"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7101,39 +7252,28 @@
       <c r="BO32" s="10"/>
     </row>
     <row r="33" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="69">
-        <v>0</v>
-      </c>
-      <c r="F33" s="66">
-        <f>F32</f>
-        <v>43862</v>
-      </c>
-      <c r="G33" s="66">
+      <c r="B33" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="59">
+        <f>G32</f>
+        <v>43863</v>
+      </c>
+      <c r="G33" s="59">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43868</v>
       </c>
-      <c r="H33" s="59">
-        <v>6</v>
-      </c>
-      <c r="I33" s="142"/>
-      <c r="J33" s="91">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-49</v>
-      </c>
-      <c r="K33" s="91" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L33" s="156"/>
+      <c r="H33" s="114">
+        <f>H34</f>
+        <v>5</v>
+      </c>
+      <c r="I33" s="71"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="125"/>
       <c r="M33" s="35"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7191,28 +7331,39 @@
       <c r="BO33" s="10"/>
     </row>
     <row r="34" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="64">
-        <f>G33</f>
+      <c r="B34" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="61">
+        <v>0</v>
+      </c>
+      <c r="F34" s="60">
+        <f>F33</f>
+        <v>43863</v>
+      </c>
+      <c r="G34" s="60">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43868</v>
       </c>
-      <c r="G34" s="64">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43873</v>
-      </c>
-      <c r="H34" s="145">
-        <f>H35</f>
+      <c r="H34" s="56">
         <v>5</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="156"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="75">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I34-Milestones[[#This Row],[End Date]])</f>
+        <v>-36</v>
+      </c>
+      <c r="K34" s="75" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I34-G34&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L34" s="125"/>
       <c r="M34" s="35"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7269,40 +7420,31 @@
       <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
     </row>
-    <row r="35" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="69">
-        <v>0</v>
-      </c>
-      <c r="F35" s="66">
-        <f>F34</f>
+    <row r="35" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="69"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="81">
+        <f>G34</f>
         <v>43868</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="120">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43873</v>
-      </c>
-      <c r="H35" s="59">
-        <v>5</v>
-      </c>
-      <c r="I35" s="142"/>
-      <c r="J35" s="91">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-54</v>
-      </c>
-      <c r="K35" s="91" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I35-G35&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L35" s="156"/>
+        <v>43875</v>
+      </c>
+      <c r="H35" s="97">
+        <f>H36</f>
+        <v>7</v>
+      </c>
+      <c r="I35" s="96"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="125"/>
       <c r="M35" s="35"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7359,31 +7501,40 @@
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
     </row>
-    <row r="36" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="127" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="64">
-        <f>G35</f>
-        <v>43873</v>
-      </c>
-      <c r="G36" s="64">
+    <row r="36" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="94">
+        <v>0</v>
+      </c>
+      <c r="F36" s="60">
+        <f>F35</f>
+        <v>43868</v>
+      </c>
+      <c r="G36" s="60">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43880</v>
-      </c>
-      <c r="H36" s="60">
-        <f>H37</f>
+        <v>43875</v>
+      </c>
+      <c r="H36" s="56">
         <v>7</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="156"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="75">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I36-Milestones[[#This Row],[End Date]])</f>
+        <v>-43</v>
+      </c>
+      <c r="K36" s="75" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I36-G36&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L36" s="125"/>
       <c r="M36" s="35"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -7440,40 +7591,38 @@
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
     </row>
-    <row r="37" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="132">
+    <row r="37" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="148">
         <v>0</v>
       </c>
-      <c r="F37" s="62">
-        <f>F36</f>
-        <v>43873</v>
-      </c>
-      <c r="G37" s="62">
+      <c r="F37" s="57">
+        <f>G36</f>
+        <v>43875</v>
+      </c>
+      <c r="G37" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43880</v>
-      </c>
-      <c r="H37" s="123">
+        <v>43882</v>
+      </c>
+      <c r="H37" s="98">
         <v>7</v>
       </c>
-      <c r="I37" s="133"/>
-      <c r="J37" s="89">
+      <c r="I37" s="116"/>
+      <c r="J37" s="73">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-61</v>
-      </c>
-      <c r="K37" s="89" t="str">
+        <v>-50</v>
+      </c>
+      <c r="K37" s="73" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L37" s="156"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -7548,8 +7697,8 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E8 E10:E11 E34 E36 E13 E30 E17:E28">
-    <cfRule type="dataBar" priority="143">
+  <conditionalFormatting sqref="E7:E8 E10:E11 E33 E35 E13 E29 E17:E27">
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7562,45 +7711,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO8 L10:BO11 L34:BO36 L28:BO31 L13:BO13 L17:BO20">
-    <cfRule type="expression" dxfId="35" priority="136">
+  <conditionalFormatting sqref="L5:BO8 L10:BO11 L31:BO33 L13:BO13 L17:BO20 L27:BO28">
+    <cfRule type="expression" dxfId="41" priority="153">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="34" priority="142">
+    <cfRule type="expression" dxfId="40" priority="159">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="33" priority="138">
+    <cfRule type="expression" dxfId="39" priority="155">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="32" priority="137">
+    <cfRule type="expression" dxfId="38" priority="154">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:BO31 L33:BO37">
-    <cfRule type="expression" dxfId="31" priority="159" stopIfTrue="1">
+  <conditionalFormatting sqref="L8:BO17">
+    <cfRule type="expression" dxfId="37" priority="176" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="195" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="213" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="214" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="215" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7614,12 +7763,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="26" priority="111">
+    <cfRule type="expression" dxfId="32" priority="128">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7633,17 +7782,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="25" priority="103">
+    <cfRule type="expression" dxfId="31" priority="120">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:BO36">
-    <cfRule type="expression" dxfId="24" priority="47">
+  <conditionalFormatting sqref="L30:BO33">
+    <cfRule type="expression" dxfId="30" priority="64">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34 E36">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="E33 E35">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7656,28 +7805,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:BO37">
-    <cfRule type="expression" dxfId="23" priority="39">
+  <conditionalFormatting sqref="L34:BO34">
+    <cfRule type="expression" dxfId="29" priority="56">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:BO37">
-    <cfRule type="expression" dxfId="22" priority="37">
+  <conditionalFormatting sqref="L34:BO34">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:BO27">
-    <cfRule type="expression" dxfId="21" priority="26">
+  <conditionalFormatting sqref="L21:BO26">
+    <cfRule type="expression" dxfId="27" priority="43">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="26" priority="33">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7691,12 +7840,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="E28">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7709,8 +7858,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7723,8 +7872,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7737,8 +7886,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7751,8 +7900,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="E36:E37">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7765,8 +7914,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7779,29 +7928,100 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:BO32">
-    <cfRule type="expression" dxfId="18" priority="1">
+  <conditionalFormatting sqref="L29:BO29">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:BO32">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>AND($C32="Low Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+  <conditionalFormatting sqref="L18:BO21">
+    <cfRule type="expression" dxfId="23" priority="409" stopIfTrue="1">
+      <formula>AND($C19="Low Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
-      <formula>AND($C32="High Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    <cfRule type="expression" dxfId="22" priority="410" stopIfTrue="1">
+      <formula>AND($C19="High Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
-      <formula>AND($C32="On Track",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    <cfRule type="expression" dxfId="21" priority="411" stopIfTrue="1">
+      <formula>AND($C19="On Track",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
-      <formula>AND($C32="Med Risk",L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    <cfRule type="expression" dxfId="20" priority="412" stopIfTrue="1">
+      <formula>AND($C19="Med Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
-      <formula>AND(LEN($C32)=0,L$5&gt;=$F32,L$5&lt;=$F32+$H32-1)</formula>
+    <cfRule type="expression" dxfId="19" priority="413" stopIfTrue="1">
+      <formula>AND(LEN($C19)=0,L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <conditionalFormatting sqref="L22:BO24 L27:BO34">
+    <cfRule type="expression" dxfId="18" priority="421" stopIfTrue="1">
+      <formula>AND($C24="Low Risk",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="422" stopIfTrue="1">
+      <formula>AND($C24="High Risk",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="423" stopIfTrue="1">
+      <formula>AND($C24="On Track",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="424" stopIfTrue="1">
+      <formula>AND($C24="Med Risk",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="425" stopIfTrue="1">
+      <formula>AND(LEN($C24)=0,L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:BO26">
+    <cfRule type="expression" dxfId="13" priority="445" stopIfTrue="1">
+      <formula>AND(#REF!="Low Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="446" stopIfTrue="1">
+      <formula>AND(#REF!="High Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="447" stopIfTrue="1">
+      <formula>AND(#REF!="On Track",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="448" stopIfTrue="1">
+      <formula>AND(#REF!="Med Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="449" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:BO35">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:BO35">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:BO37">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:BO37">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:BO37">
+    <cfRule type="expression" dxfId="4" priority="451" stopIfTrue="1">
+      <formula>AND($C38="Low Risk",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="452" stopIfTrue="1">
+      <formula>AND($C38="High Risk",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="453" stopIfTrue="1">
+      <formula>AND($C38="On Track",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="454" stopIfTrue="1">
+      <formula>AND($C38="Med Risk",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="455" stopIfTrue="1">
+      <formula>AND(LEN($C38)=0,L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
@@ -7816,7 +8036,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F29" formula="1"/>
+    <ignoredError sqref="F28" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -7867,7 +8087,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E8 E10:E11 E34 E36 E13 E30 E17:E28</xm:sqref>
+          <xm:sqref>E7:E8 E10:E11 E33 E35 E13 E29 E17:E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3450C8A0-7296-4F4E-8C2D-67F62EE92A11}">
@@ -7912,7 +8132,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E34 E36</xm:sqref>
+          <xm:sqref>E33 E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{204492DB-C9DC-4A29-B7D2-317B3BB60E18}">
@@ -7942,7 +8162,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D6D8DC0-8DB6-471B-8654-216B06E96310}">
@@ -7957,7 +8177,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
+          <xm:sqref>E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72B44424-0899-4A95-A18C-814AFD22EEB5}">
@@ -7972,7 +8192,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E33</xm:sqref>
+          <xm:sqref>E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E8DB8E0-4C2B-4E51-A644-0734E8A3FFDF}">
@@ -7987,7 +8207,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
+          <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29A332D1-8F3D-4822-AAE4-11C27860126D}">
@@ -8002,7 +8222,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E37</xm:sqref>
+          <xm:sqref>E36:E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
@@ -8017,10 +8237,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E32</xm:sqref>
+          <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="118" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
+          <x14:cfRule type="iconSet" priority="135" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8039,7 +8259,7 @@
           <xm:sqref>L12:BO12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="110" id="{774FF1D2-5BAB-4947-8603-1F7B859FA789}">
+          <x14:cfRule type="iconSet" priority="127" id="{774FF1D2-5BAB-4947-8603-1F7B859FA789}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8058,7 +8278,7 @@
           <xm:sqref>L9:BO9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{7549C08E-F82A-42B2-813C-FE88D979424C}">
+          <x14:cfRule type="iconSet" priority="71" id="{7549C08E-F82A-42B2-813C-FE88D979424C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8074,10 +8294,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L33:BO33</xm:sqref>
+          <xm:sqref>L30:BO30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="384" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="401" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8093,10 +8313,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L34:BO36 L10:BO11 L8:BO8 L13:BO13 L28:BO31 L17:BO20</xm:sqref>
+          <xm:sqref>L31:BO33 L10:BO11 L8:BO8 L13:BO13 L27:BO28 L17:BO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
+          <x14:cfRule type="iconSet" priority="63" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8112,29 +8332,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L37:BO37</xm:sqref>
+          <xm:sqref>L34:BO34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>L21:BO27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
+          <x14:cfRule type="iconSet" priority="34" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8153,7 +8354,7 @@
           <xm:sqref>L15:BO15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{E92A98B7-48FA-4635-AB60-5E4DA28F0C5A}">
+          <x14:cfRule type="iconSet" priority="42" id="{E92A98B7-48FA-4635-AB60-5E4DA28F0C5A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8172,7 +8373,7 @@
           <xm:sqref>L16:BO16 L14:BO14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{C12C639A-6BA8-4B63-B798-1250B0A4E067}">
+          <x14:cfRule type="iconSet" priority="25" id="{C12C639A-6BA8-4B63-B798-1250B0A4E067}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8188,7 +8389,64 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L32:BO32</xm:sqref>
+          <xm:sqref>L29:BO29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="434" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L21:BO26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{B2096DA8-8ECA-47CE-B1DF-8F1E2E08633E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L35:BO35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{98A44775-E807-4593-914E-8823CF8761D4}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L36:BO37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E19A317-3F78-4CBA-9A0A-6C087C43D5F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2BF58-8923-4602-B468-2DE083D0CA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>About This Template</t>
   </si>
@@ -196,27 +196,6 @@
     <t>1.1 ขอ Requirement เรื่อง HR กับพี่หรั่ง</t>
   </si>
   <si>
-    <t>4.6 สร้าง User Interface ระบบย่อย ลางาน</t>
-  </si>
-  <si>
-    <t>4.1 สร้าง Login และเชื่อม Login</t>
-  </si>
-  <si>
-    <t>4.2 สร้าง Entity Backend ระบบย่อย master</t>
-  </si>
-  <si>
-    <t>4.3 สร้าง User Interface ระบบย่อย master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 สร้าง Controller ระบบย่อย master </t>
-  </si>
-  <si>
-    <t>4.5 สร้าง Entity Backend ระบบย่อย ลางาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7 สร้าง Controller ระบบย่อย ลางาน </t>
-  </si>
-  <si>
     <t>6.1 ให้พนักงานทดลองใช้ระบบ HR-Admin</t>
   </si>
   <si>
@@ -224,12 +203,6 @@
   </si>
   <si>
     <t>3.1 Design Flow Chart , Activity diagram</t>
-  </si>
-  <si>
-    <t>Employee master</t>
-  </si>
-  <si>
-    <t>Attendance</t>
   </si>
   <si>
     <t>5.1  unit test</t>
@@ -245,6 +218,48 @@
   </si>
   <si>
     <t>9.1 User</t>
+  </si>
+  <si>
+    <t>4.1 Employee master</t>
+  </si>
+  <si>
+    <t>4.1.1 Login</t>
+  </si>
+  <si>
+    <t>4.1.2 Employee master</t>
+  </si>
+  <si>
+    <t>4.1.3 New employee</t>
+  </si>
+  <si>
+    <t>4.1.4 Edit employee</t>
+  </si>
+  <si>
+    <t>4.1.5 Delect employee</t>
+  </si>
+  <si>
+    <t>4.2 Attendance</t>
+  </si>
+  <si>
+    <t>4.2.1 Attendance</t>
+  </si>
+  <si>
+    <t>4.2.3 Approve by supervisor</t>
+  </si>
+  <si>
+    <t>4.2.4 Approve by manager</t>
+  </si>
+  <si>
+    <t>4.2.2 Date attendance</t>
+  </si>
+  <si>
+    <t>4.1.6 Edit personal information</t>
+  </si>
+  <si>
+    <t>4.1.7 Backup employee master</t>
+  </si>
+  <si>
+    <t>เหลือ import export</t>
   </si>
 </sst>
 </file>
@@ -484,12 +499,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -731,17 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
@@ -822,17 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
@@ -898,17 +891,6 @@
         <color theme="6" tint="-0.249977111117893"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1017,17 +999,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
@@ -1066,7 +1037,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1185,9 +1156,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1202,145 +1170,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="27" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="29" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="19" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="25" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="27" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,122 +1287,194 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="19" fillId="0" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="33" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="20" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="20" fillId="10" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="17" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="10" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="10" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,106 +1509,10 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="11" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="11" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="11" borderId="32" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="11" borderId="32" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="0" borderId="31" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="44" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,7 +1530,116 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2858,20 +2881,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="66"/>
-      <tableStyleElement type="headerRow" dxfId="65"/>
-      <tableStyleElement type="firstRowStripe" dxfId="64"/>
+      <tableStyleElement type="wholeTable" dxfId="71"/>
+      <tableStyleElement type="headerRow" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="63"/>
-      <tableStyleElement type="headerRow" dxfId="62"/>
-      <tableStyleElement type="totalRow" dxfId="61"/>
-      <tableStyleElement type="firstColumn" dxfId="60"/>
-      <tableStyleElement type="lastColumn" dxfId="59"/>
-      <tableStyleElement type="firstRowStripe" dxfId="58"/>
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="56"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="55"/>
+      <tableStyleElement type="wholeTable" dxfId="68"/>
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="totalRow" dxfId="66"/>
+      <tableStyleElement type="firstColumn" dxfId="65"/>
+      <tableStyleElement type="lastColumn" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3024,20 +3047,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K37" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K41" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="47" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="46" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="52" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="51" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="48">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="42">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="47">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3316,10 +3339,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO39"/>
+  <dimension ref="A1:BO43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3371,36 +3394,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="Q2" s="144" t="s">
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="Q2" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="V2" s="145" t="s">
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="V2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="AA2" s="135" t="s">
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="AA2" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AF2" s="136" t="s">
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AF2" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3410,15 +3433,15 @@
         <v>40</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="140">
+      <c r="E3" s="151"/>
+      <c r="F3" s="153">
         <v>43789</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="142"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3430,10 +3453,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="138"/>
+      <c r="E4" s="151"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3523,15 +3546,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -3833,34 +3856,34 @@
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="131" t="s">
+      <c r="G7" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="131" t="s">
+      <c r="H7" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="117" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="9" t="str">
@@ -4090,27 +4113,27 @@
     </row>
     <row r="8" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48">
         <f>F9</f>
         <v>43789</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43790</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="52"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="35" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="6">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
@@ -4337,37 +4360,37 @@
       </c>
     </row>
     <row r="9" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="175" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="170" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="174">
+      <c r="D9" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="126">
         <v>1</v>
       </c>
-      <c r="F9" s="164">
+      <c r="F9" s="124">
         <v>43789</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="84">
         <v>43790</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="73">
         <f>Milestones[[#This Row],[End Date]]-Milestones[[#This Row],[Start Date]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="176">
+      <c r="I9" s="128">
         <v>43789</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I9-Milestones[[#This Row],[End Date]])</f>
         <v>-1</v>
       </c>
-      <c r="K9" s="54" t="str">
+      <c r="K9" s="52" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I9-G9&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4597,27 +4620,27 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="81">
+      <c r="C10" s="64"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="75">
         <f>F11</f>
         <v>43790</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="75">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="H10" s="177">
+      <c r="H10" s="129">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="52"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -4844,37 +4867,37 @@
       </c>
     </row>
     <row r="11" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="148">
+      <c r="D11" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="118">
         <v>1</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="84">
         <f>G9</f>
         <v>43790</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="72">
         <v>43791</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="79">
         <v>1</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="72">
         <v>43791</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I11-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="46" t="str">
+      <c r="K11" s="45" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I11-G11&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5104,36 +5127,36 @@
       </c>
     </row>
     <row r="12" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="61">
+      <c r="D12" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="58">
         <v>1</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="57">
         <v>43790</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="57">
         <v>43791</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="54">
         <v>1</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="84">
         <v>43791</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I12-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="54" t="str">
+      <c r="K12" s="52" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I12-G12&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5363,27 +5386,27 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48">
         <f>F14</f>
         <v>43791</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <f>H14+H15+H16</f>
         <v>9</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="35"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -5442,38 +5465,38 @@
       <c r="BO13" s="10"/>
     </row>
     <row r="14" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="64" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="62">
+      <c r="D14" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="59">
         <v>1</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="55">
         <f>G12</f>
         <v>43791</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="55">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43794</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="87">
         <v>3</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="72">
         <v>43808</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
         <v>14</v>
       </c>
-      <c r="K14" s="46" t="str">
+      <c r="K14" s="45" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5535,38 +5558,38 @@
       <c r="BO14" s="10"/>
     </row>
     <row r="15" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="61">
+      <c r="D15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="58">
         <v>1</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="57">
         <f>G14</f>
         <v>43794</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43797</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="54">
         <v>3</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="72">
         <v>43808</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
         <v>11</v>
       </c>
-      <c r="K15" s="54" t="str">
+      <c r="K15" s="52" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5628,36 +5651,36 @@
       <c r="BO15" s="10"/>
     </row>
     <row r="16" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="128" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="62">
+      <c r="C16" s="41"/>
+      <c r="D16" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="59">
         <v>1</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="55">
         <f>G15</f>
         <v>43797</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="55">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43800</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="87">
         <v>3</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="72">
         <v>43808</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
         <v>8</v>
       </c>
-      <c r="K16" s="46" t="str">
+      <c r="K16" s="45" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5719,267 +5742,267 @@
       <c r="BO16" s="10"/>
     </row>
     <row r="17" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="150">
+      <c r="C17" s="119"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="120">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G17" s="81">
-        <f>G26</f>
-        <v>43845</v>
-      </c>
-      <c r="H17" s="80">
-        <f>SUM(H19:H26)</f>
-        <v>45</v>
-      </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
+      <c r="G17" s="75">
+        <f>G29</f>
+        <v>43838</v>
+      </c>
+      <c r="H17" s="74">
+        <f>SUM(H19:H29)</f>
+        <v>38</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="35" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ref="L17:AQ17" ca="1" si="12">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="M17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$5&gt;=$F17,P$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",P$5&gt;=$F17,P$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$5&gt;=$F17,Q$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Q$5&gt;=$F17,Q$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$5&gt;=$F17,S$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",S$5&gt;=$F17,S$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$5&gt;=$F17,T$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",T$5&gt;=$F17,T$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$5&gt;=$F17,U$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",U$5&gt;=$F17,U$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$5&gt;=$F17,V$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",V$5&gt;=$F17,V$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$5&gt;=$F17,W$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",W$5&gt;=$F17,W$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AD17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AE17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AF17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AG17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AH17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AI17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AJ17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AK17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AL17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AM17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AN17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AO17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AP17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ref="AR17:BO17" ca="1" si="13">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
       </c>
       <c r="AS17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AT17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AU17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AV17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AW17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AX17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AY17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AZ17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BA17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BB17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BC17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BD17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BE17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BF17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BG17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BH17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BI17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BJ17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BK17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BL17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BM17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BM$5&gt;=$F17,BM$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BM$5&gt;=$F17,BM$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BN17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BN$5&gt;=$F17,BN$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BN$5&gt;=$F17,BN$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="BO17" s="10" t="str">
-        <f ca="1">IF(AND($C17="Goal",BO$5&gt;=$F17,BO$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BO$5&gt;=$F17,BO$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="159" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="125"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="136"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="108"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -6037,36 +6060,36 @@
       <c r="BO18" s="10"/>
     </row>
     <row r="19" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="148">
+      <c r="A19" s="44"/>
+      <c r="B19" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="83">
         <v>1</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="84">
         <f>G16</f>
         <v>43800</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
-      <c r="H19" s="90">
+      <c r="H19" s="73">
         <v>5</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="132">
         <v>43812</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="133">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
         <v>7</v>
       </c>
-      <c r="K19" s="73" t="str">
+      <c r="K19" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -6128,38 +6151,38 @@
       <c r="BO19" s="10"/>
     </row>
     <row r="20" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="64" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="62">
-        <v>1</v>
-      </c>
-      <c r="F20" s="95">
+      <c r="D20" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="84">
         <f>G19</f>
         <v>43805</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43810</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="73">
         <v>5</v>
       </c>
-      <c r="I20" s="116">
-        <v>43812</v>
-      </c>
-      <c r="J20" s="46">
+      <c r="I20" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="71" t="e">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
-        <v>2</v>
-      </c>
-      <c r="K20" s="73" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -6221,36 +6244,36 @@
       <c r="BO20" s="10"/>
     </row>
     <row r="21" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="92">
+      <c r="A21" s="44"/>
+      <c r="B21" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="83">
         <v>1</v>
       </c>
-      <c r="F21" s="95">
-        <f t="shared" ref="F21:F26" si="12">G20</f>
+      <c r="F21" s="84">
+        <f>G20</f>
         <v>43810</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43815</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="73">
         <v>5</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="84">
         <v>43808</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
         <v>-7</v>
       </c>
-      <c r="K21" s="73" t="str">
+      <c r="K21" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -6312,36 +6335,38 @@
       <c r="BO21" s="10"/>
     </row>
     <row r="22" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="171">
-        <v>0.9</v>
-      </c>
-      <c r="F22" s="163">
+      <c r="A22" s="44"/>
+      <c r="B22" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="83">
+        <v>1</v>
+      </c>
+      <c r="F22" s="84">
         <f>G21</f>
         <v>43815</v>
       </c>
-      <c r="G22" s="163">
+      <c r="G22" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43820</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="73">
         <v>5</v>
       </c>
-      <c r="I22" s="172"/>
-      <c r="J22" s="53">
+      <c r="I22" s="132">
+        <v>43812</v>
+      </c>
+      <c r="J22" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
-        <v>12</v>
-      </c>
-      <c r="K22" s="74" t="str">
+        <v>-8</v>
+      </c>
+      <c r="K22" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I22-G22&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L22" s="35"/>
       <c r="M22" s="10"/>
@@ -6401,19 +6426,39 @@
       <c r="BO22" s="10"/>
     </row>
     <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="173" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="54"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="83">
+        <v>1</v>
+      </c>
+      <c r="F23" s="84">
+        <f>G22</f>
+        <v>43820</v>
+      </c>
+      <c r="G23" s="84">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43821</v>
+      </c>
+      <c r="H23" s="73">
+        <v>1</v>
+      </c>
+      <c r="I23" s="132">
+        <v>43812</v>
+      </c>
+      <c r="J23" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
+        <v>-9</v>
+      </c>
+      <c r="K23" s="71" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Complete</v>
+      </c>
       <c r="L23" s="35"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
@@ -6472,37 +6517,37 @@
       <c r="BO23" s="10"/>
     </row>
     <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="62">
+      <c r="E24" s="159">
         <v>1</v>
       </c>
-      <c r="F24" s="76">
-        <f>G22</f>
-        <v>43820</v>
-      </c>
-      <c r="G24" s="76">
+      <c r="F24" s="160">
+        <f>G23</f>
+        <v>43821</v>
+      </c>
+      <c r="G24" s="160">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43825</v>
-      </c>
-      <c r="H24" s="90">
-        <v>5</v>
-      </c>
-      <c r="I24" s="57">
-        <v>43816</v>
-      </c>
-      <c r="J24" s="46">
+        <v>43822</v>
+      </c>
+      <c r="H24" s="82">
+        <v>1</v>
+      </c>
+      <c r="I24" s="160">
+        <v>43834</v>
+      </c>
+      <c r="J24" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
-        <v>-9</v>
-      </c>
-      <c r="K24" s="73" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I24-G24&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>12</v>
+      </c>
+      <c r="K24" s="106" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
       <c r="L24" s="35"/>
@@ -6563,35 +6608,35 @@
       <c r="BO24" s="10"/>
     </row>
     <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="62">
-        <v>0.9</v>
-      </c>
-      <c r="F25" s="95">
-        <f t="shared" si="12"/>
-        <v>43825</v>
-      </c>
-      <c r="G25" s="76">
+      <c r="A25" s="44"/>
+      <c r="B25" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="83">
+        <v>0</v>
+      </c>
+      <c r="F25" s="160">
+        <f>G24</f>
+        <v>43822</v>
+      </c>
+      <c r="G25" s="160">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43835</v>
-      </c>
-      <c r="H25" s="90">
-        <v>10</v>
-      </c>
-      <c r="I25" s="60"/>
-      <c r="J25" s="53">
+        <v>43823</v>
+      </c>
+      <c r="H25" s="73">
+        <v>1</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>-3</v>
-      </c>
-      <c r="K25" s="75" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I25-G25&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>11</v>
+      </c>
+      <c r="K25" s="71" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>On Process</v>
       </c>
       <c r="L25" s="35"/>
@@ -6652,36 +6697,19 @@
       <c r="BO25" s="10"/>
     </row>
     <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="68" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="61">
-        <v>0.85</v>
-      </c>
-      <c r="F26" s="95">
-        <f t="shared" si="12"/>
-        <v>43835</v>
-      </c>
-      <c r="G26" s="76">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43845</v>
-      </c>
-      <c r="H26" s="90">
-        <v>10</v>
-      </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="54">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
-        <v>-13</v>
-      </c>
-      <c r="K26" s="73" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I26-G26&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
       <c r="L26" s="35"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
@@ -6740,32 +6768,39 @@
       <c r="BO26" s="10"/>
     </row>
     <row r="27" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109">
-        <f>G26</f>
-        <v>43845</v>
-      </c>
-      <c r="G27" s="109">
+      <c r="A27" s="44"/>
+      <c r="B27" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="84">
+        <f>G25</f>
+        <v>43823</v>
+      </c>
+      <c r="G27" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43851</v>
-      </c>
-      <c r="H27" s="110">
-        <f>H28</f>
+        <v>43828</v>
+      </c>
+      <c r="H27" s="73">
+        <v>5</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
         <v>6</v>
       </c>
-      <c r="I27" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="35"/>
+      <c r="K27" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L27" s="35"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -6822,41 +6857,39 @@
       <c r="BO27" s="10"/>
     </row>
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="92">
-        <v>0</v>
-      </c>
-      <c r="F28" s="91">
-        <f>F27</f>
-        <v>43845</v>
-      </c>
-      <c r="G28" s="91">
+      <c r="A28" s="44"/>
+      <c r="B28" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="F28" s="84">
+        <f t="shared" ref="F28:F30" si="14">G27</f>
+        <v>43828</v>
+      </c>
+      <c r="G28" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43851</v>
-      </c>
-      <c r="H28" s="93">
-        <v>6</v>
-      </c>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123">
+        <v>43833</v>
+      </c>
+      <c r="H28" s="73">
+        <v>5</v>
+      </c>
+      <c r="I28" s="84"/>
+      <c r="J28" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
-        <v>-19</v>
-      </c>
-      <c r="K28" s="123" t="str">
+        <v>1</v>
+      </c>
+      <c r="K28" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L28" s="125"/>
-      <c r="M28" s="35"/>
+        <v>On Process</v>
+      </c>
+      <c r="L28" s="35"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -6913,30 +6946,38 @@
       <c r="BO28" s="10"/>
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120">
-        <f>G28</f>
-        <v>43851</v>
-      </c>
-      <c r="G29" s="120">
+      <c r="B29" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="84">
+        <f t="shared" si="14"/>
+        <v>43833</v>
+      </c>
+      <c r="G29" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43857</v>
-      </c>
-      <c r="H29" s="97">
-        <f>H30</f>
-        <v>6</v>
-      </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="35"/>
+        <v>43838</v>
+      </c>
+      <c r="H29" s="73">
+        <v>5</v>
+      </c>
+      <c r="I29" s="84"/>
+      <c r="J29" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
+        <v>-4</v>
+      </c>
+      <c r="K29" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -6993,39 +7034,37 @@
       <c r="BO29" s="10"/>
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="62">
-        <v>0</v>
-      </c>
-      <c r="F30" s="57">
-        <f>F29</f>
-        <v>43851</v>
-      </c>
-      <c r="G30" s="57">
+      <c r="B30" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="83">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="84">
+        <f t="shared" si="14"/>
+        <v>43838</v>
+      </c>
+      <c r="G30" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43857</v>
-      </c>
-      <c r="H30" s="98">
-        <v>6</v>
-      </c>
-      <c r="I30" s="116"/>
-      <c r="J30" s="73">
+        <v>43843</v>
+      </c>
+      <c r="H30" s="73">
+        <v>5</v>
+      </c>
+      <c r="I30" s="84"/>
+      <c r="J30" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I30-Milestones[[#This Row],[End Date]])</f>
-        <v>-25</v>
-      </c>
-      <c r="K30" s="73" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I30-G30&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>-9</v>
+      </c>
+      <c r="K30" s="71" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Pending</v>
       </c>
-      <c r="L30" s="125"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="35"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -7083,28 +7122,31 @@
       <c r="BO30" s="10"/>
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120">
+      <c r="A31" s="42"/>
+      <c r="B31" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="56">
         <f>G30</f>
-        <v>43857</v>
-      </c>
-      <c r="G31" s="120">
+        <v>43843</v>
+      </c>
+      <c r="G31" s="56">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43863</v>
-      </c>
-      <c r="H31" s="97">
+        <v>43849</v>
+      </c>
+      <c r="H31" s="134">
         <f>H32</f>
         <v>6</v>
       </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="125"/>
+      <c r="I31" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="108"/>
       <c r="M31" s="35"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -7162,39 +7204,40 @@
       <c r="BO31" s="10"/>
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="61">
+      <c r="D32" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="81">
         <v>0</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="80">
         <f>F31</f>
-        <v>43857</v>
-      </c>
-      <c r="G32" s="60">
+        <v>43843</v>
+      </c>
+      <c r="G32" s="80">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43863</v>
-      </c>
-      <c r="H32" s="56">
+        <v>43849</v>
+      </c>
+      <c r="H32" s="82">
         <v>6</v>
       </c>
-      <c r="I32" s="111"/>
-      <c r="J32" s="75">
+      <c r="I32" s="105"/>
+      <c r="J32" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I32-Milestones[[#This Row],[End Date]])</f>
-        <v>-31</v>
-      </c>
-      <c r="K32" s="75" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K32" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I32-G32&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L32" s="125"/>
+      <c r="L32" s="108"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7251,29 +7294,30 @@
       <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
     </row>
-    <row r="33" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="59">
+    <row r="33" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103">
         <f>G32</f>
-        <v>43863</v>
-      </c>
-      <c r="G33" s="59">
+        <v>43849</v>
+      </c>
+      <c r="G33" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43868</v>
-      </c>
-      <c r="H33" s="114">
+        <v>43855</v>
+      </c>
+      <c r="H33" s="86">
         <f>H34</f>
-        <v>5</v>
-      </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="125"/>
+        <v>6</v>
+      </c>
+      <c r="I33" s="85"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="108"/>
       <c r="M33" s="35"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7330,40 +7374,40 @@
       <c r="BN33" s="10"/>
       <c r="BO33" s="10"/>
     </row>
-    <row r="34" spans="2:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="63" t="s">
+    <row r="34" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="61">
+      <c r="D34" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="59">
         <v>0</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="55">
         <f>F33</f>
-        <v>43863</v>
-      </c>
-      <c r="G34" s="60">
+        <v>43849</v>
+      </c>
+      <c r="G34" s="55">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43868</v>
-      </c>
-      <c r="H34" s="56">
-        <v>5</v>
-      </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="75">
+        <v>43855</v>
+      </c>
+      <c r="H34" s="87">
+        <v>6</v>
+      </c>
+      <c r="I34" s="99"/>
+      <c r="J34" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I34-Milestones[[#This Row],[End Date]])</f>
-        <v>-36</v>
-      </c>
-      <c r="K34" s="75" t="str">
+        <v>-21</v>
+      </c>
+      <c r="K34" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I34-G34&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L34" s="125"/>
+      <c r="L34" s="108"/>
       <c r="M34" s="35"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7420,31 +7464,29 @@
       <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
     </row>
-    <row r="35" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="65" t="s">
+    <row r="35" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="103">
+        <f>G34</f>
+        <v>43855</v>
+      </c>
+      <c r="G35" s="103">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43861</v>
+      </c>
+      <c r="H35" s="86">
+        <f>H36</f>
         <v>6</v>
       </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="81">
-        <f>G34</f>
-        <v>43868</v>
-      </c>
-      <c r="G35" s="120">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43875</v>
-      </c>
-      <c r="H35" s="97">
-        <f>H36</f>
-        <v>7</v>
-      </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="125"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="108"/>
       <c r="M35" s="35"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7501,40 +7543,40 @@
       <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
     </row>
-    <row r="36" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="179" t="s">
+    <row r="36" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="94">
+      <c r="D36" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="58">
         <v>0</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="57">
         <f>F35</f>
-        <v>43868</v>
-      </c>
-      <c r="G36" s="60">
+        <v>43855</v>
+      </c>
+      <c r="G36" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43875</v>
-      </c>
-      <c r="H36" s="56">
-        <v>7</v>
-      </c>
-      <c r="I36" s="111"/>
-      <c r="J36" s="75">
+        <v>43861</v>
+      </c>
+      <c r="H36" s="54">
+        <v>6</v>
+      </c>
+      <c r="I36" s="94"/>
+      <c r="J36" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I36-Milestones[[#This Row],[End Date]])</f>
-        <v>-43</v>
-      </c>
-      <c r="K36" s="75" t="str">
+        <v>-27</v>
+      </c>
+      <c r="K36" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I36-G36&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L36" s="125"/>
+      <c r="L36" s="108"/>
       <c r="M36" s="35"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -7591,38 +7633,29 @@
       <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
     </row>
-    <row r="37" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="148">
-        <v>0</v>
-      </c>
-      <c r="F37" s="57">
+    <row r="37" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="56">
         <f>G36</f>
-        <v>43875</v>
-      </c>
-      <c r="G37" s="57">
+        <v>43861</v>
+      </c>
+      <c r="G37" s="56">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43882</v>
-      </c>
-      <c r="H37" s="98">
-        <v>7</v>
-      </c>
-      <c r="I37" s="116"/>
-      <c r="J37" s="73">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-50</v>
-      </c>
-      <c r="K37" s="73" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L37" s="35"/>
+        <v>43866</v>
+      </c>
+      <c r="H37" s="97">
+        <f>H38</f>
+        <v>5</v>
+      </c>
+      <c r="I37" s="68"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="108"/>
       <c r="M37" s="35"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -7679,11 +7712,360 @@
       <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
     </row>
-    <row r="38" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="30"/>
+    <row r="38" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
+      <c r="F38" s="57">
+        <f>F37</f>
+        <v>43861</v>
+      </c>
+      <c r="G38" s="57">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43866</v>
+      </c>
+      <c r="H38" s="54">
+        <v>5</v>
+      </c>
+      <c r="I38" s="94"/>
+      <c r="J38" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I38-Milestones[[#This Row],[End Date]])</f>
+        <v>-32</v>
+      </c>
+      <c r="K38" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I38-G38&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L38" s="108"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="10"/>
+      <c r="BF38" s="10"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="10"/>
+      <c r="BK38" s="10"/>
+      <c r="BL38" s="10"/>
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="10"/>
+      <c r="BO38" s="10"/>
     </row>
-    <row r="39" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="30"/>
+    <row r="39" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="75">
+        <f>G38</f>
+        <v>43866</v>
+      </c>
+      <c r="G39" s="103">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43873</v>
+      </c>
+      <c r="H39" s="86">
+        <f>H40</f>
+        <v>7</v>
+      </c>
+      <c r="I39" s="85"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="10"/>
+      <c r="BB39" s="10"/>
+      <c r="BC39" s="10"/>
+      <c r="BD39" s="10"/>
+      <c r="BE39" s="10"/>
+      <c r="BF39" s="10"/>
+      <c r="BG39" s="10"/>
+      <c r="BH39" s="10"/>
+      <c r="BI39" s="10"/>
+      <c r="BJ39" s="10"/>
+      <c r="BK39" s="10"/>
+      <c r="BL39" s="10"/>
+      <c r="BM39" s="10"/>
+      <c r="BN39" s="10"/>
+      <c r="BO39" s="10"/>
+    </row>
+    <row r="40" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="83">
+        <v>0</v>
+      </c>
+      <c r="F40" s="57">
+        <f>F39</f>
+        <v>43866</v>
+      </c>
+      <c r="G40" s="57">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43873</v>
+      </c>
+      <c r="H40" s="54">
+        <v>7</v>
+      </c>
+      <c r="I40" s="94"/>
+      <c r="J40" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I40-Milestones[[#This Row],[End Date]])</f>
+        <v>-39</v>
+      </c>
+      <c r="K40" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I40-G40&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L40" s="108"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="10"/>
+      <c r="AR40" s="10"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="10"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="10"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BI40" s="10"/>
+      <c r="BJ40" s="10"/>
+      <c r="BK40" s="10"/>
+      <c r="BL40" s="10"/>
+      <c r="BM40" s="10"/>
+      <c r="BN40" s="10"/>
+      <c r="BO40" s="10"/>
+    </row>
+    <row r="41" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="118">
+        <v>0</v>
+      </c>
+      <c r="F41" s="55">
+        <f>G40</f>
+        <v>43873</v>
+      </c>
+      <c r="G41" s="55">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43880</v>
+      </c>
+      <c r="H41" s="87">
+        <v>7</v>
+      </c>
+      <c r="I41" s="99"/>
+      <c r="J41" s="70">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
+        <v>-46</v>
+      </c>
+      <c r="K41" s="70" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BI41" s="10"/>
+      <c r="BJ41" s="10"/>
+      <c r="BK41" s="10"/>
+      <c r="BL41" s="10"/>
+      <c r="BM41" s="10"/>
+      <c r="BN41" s="10"/>
+      <c r="BO41" s="10"/>
+    </row>
+    <row r="42" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7697,7 +8079,7 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E8 E10:E11 E33 E35 E13 E29 E17:E27">
+  <conditionalFormatting sqref="E7:E8 E10:E11 E37 E39 E13 E33 E17:E31">
     <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7711,40 +8093,40 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO8 L10:BO11 L31:BO33 L13:BO13 L17:BO20 L27:BO28">
-    <cfRule type="expression" dxfId="41" priority="153">
+  <conditionalFormatting sqref="L5:BO8 L10:BO11 L35:BO37 L13:BO13 L17:BO20 L31:BO32">
+    <cfRule type="expression" dxfId="46" priority="153">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="40" priority="159">
+    <cfRule type="expression" dxfId="45" priority="159">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="39" priority="155">
+    <cfRule type="expression" dxfId="44" priority="155">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="38" priority="154">
+    <cfRule type="expression" dxfId="43" priority="154">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO17">
-    <cfRule type="expression" dxfId="37" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="176" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="195" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="213" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="214" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="215" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7763,7 +8145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="32" priority="128">
+    <cfRule type="expression" dxfId="37" priority="128">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7782,16 +8164,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="31" priority="120">
+    <cfRule type="expression" dxfId="36" priority="120">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:BO33">
-    <cfRule type="expression" dxfId="30" priority="64">
+  <conditionalFormatting sqref="L34:BO37">
+    <cfRule type="expression" dxfId="35" priority="64">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33 E35">
+  <conditionalFormatting sqref="E37 E39">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7805,23 +8187,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:BO34">
-    <cfRule type="expression" dxfId="29" priority="56">
+  <conditionalFormatting sqref="L38:BO38">
+    <cfRule type="expression" dxfId="34" priority="56">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:BO34">
-    <cfRule type="expression" dxfId="28" priority="54">
+  <conditionalFormatting sqref="L38:BO38">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:BO26">
-    <cfRule type="expression" dxfId="27" priority="43">
+  <conditionalFormatting sqref="L21:BO30">
+    <cfRule type="expression" dxfId="32" priority="43">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7840,11 +8222,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="E32">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7858,7 +8240,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E34">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7872,7 +8254,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E36">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7886,7 +8268,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E38">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7900,7 +8282,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E37">
+  <conditionalFormatting sqref="E40:E41">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7914,7 +8296,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E35">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7928,104 +8310,121 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:BO29">
-    <cfRule type="expression" dxfId="24" priority="18">
+  <conditionalFormatting sqref="L33:BO33">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:BO21">
-    <cfRule type="expression" dxfId="23" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="409" stopIfTrue="1">
       <formula>AND($C19="Low Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="410" stopIfTrue="1">
       <formula>AND($C19="High Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="411" stopIfTrue="1">
       <formula>AND($C19="On Track",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="412" stopIfTrue="1">
       <formula>AND($C19="Med Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="413" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:BO24 L27:BO34">
-    <cfRule type="expression" dxfId="18" priority="421" stopIfTrue="1">
-      <formula>AND($C24="Low Risk",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+  <conditionalFormatting sqref="L26:BO27 L31:BO38">
+    <cfRule type="expression" dxfId="23" priority="421" stopIfTrue="1">
+      <formula>AND($C28="Low Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="422" stopIfTrue="1">
-      <formula>AND($C24="High Risk",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    <cfRule type="expression" dxfId="22" priority="422" stopIfTrue="1">
+      <formula>AND($C28="High Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="423" stopIfTrue="1">
-      <formula>AND($C24="On Track",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    <cfRule type="expression" dxfId="21" priority="423" stopIfTrue="1">
+      <formula>AND($C28="On Track",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="424" stopIfTrue="1">
-      <formula>AND($C24="Med Risk",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    <cfRule type="expression" dxfId="20" priority="424" stopIfTrue="1">
+      <formula>AND($C28="Med Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="425" stopIfTrue="1">
-      <formula>AND(LEN($C24)=0,L$5&gt;=$F24,L$5&lt;=$F24+$H24-1)</formula>
+    <cfRule type="expression" dxfId="19" priority="425" stopIfTrue="1">
+      <formula>AND(LEN($C28)=0,L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:BO26">
-    <cfRule type="expression" dxfId="13" priority="445" stopIfTrue="1">
+  <conditionalFormatting sqref="L28:BO30">
+    <cfRule type="expression" dxfId="18" priority="445" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="446" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="447" stopIfTrue="1">
       <formula>AND(#REF!="On Track",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="448" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="449" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:BO35">
-    <cfRule type="expression" dxfId="8" priority="11">
+  <conditionalFormatting sqref="L39:BO39">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:BO35">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="L39:BO39">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:BO37">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="L40:BO41">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:BO37">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="L40:BO41">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:BO37">
-    <cfRule type="expression" dxfId="4" priority="451" stopIfTrue="1">
-      <formula>AND($C38="Low Risk",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+  <conditionalFormatting sqref="L39:BO41">
+    <cfRule type="expression" dxfId="9" priority="451" stopIfTrue="1">
+      <formula>AND($C42="Low Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="452" stopIfTrue="1">
-      <formula>AND($C38="High Risk",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    <cfRule type="expression" dxfId="8" priority="452" stopIfTrue="1">
+      <formula>AND($C42="High Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="453" stopIfTrue="1">
-      <formula>AND($C38="On Track",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    <cfRule type="expression" dxfId="7" priority="453" stopIfTrue="1">
+      <formula>AND($C42="On Track",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="454" stopIfTrue="1">
-      <formula>AND($C38="Med Risk",L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    <cfRule type="expression" dxfId="6" priority="454" stopIfTrue="1">
+      <formula>AND($C42="Med Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="455" stopIfTrue="1">
-      <formula>AND(LEN($C38)=0,L$5&gt;=$F38,L$5&lt;=$F38+$H38-1)</formula>
+    <cfRule type="expression" dxfId="5" priority="455" stopIfTrue="1">
+      <formula>AND(LEN($C42)=0,L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="L22:BO25">
+    <cfRule type="expression" dxfId="4" priority="486" stopIfTrue="1">
+      <formula>AND($C27="Low Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="487" stopIfTrue="1">
+      <formula>AND($C27="High Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="488" stopIfTrue="1">
+      <formula>AND($C27="On Track",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="489" stopIfTrue="1">
+      <formula>AND($C27="Med Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="490" stopIfTrue="1">
+      <formula>AND(LEN($C27)=0,L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8036,7 +8435,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F28" formula="1"/>
+    <ignoredError sqref="F32" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8087,7 +8486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E8 E10:E11 E33 E35 E13 E29 E17:E27</xm:sqref>
+          <xm:sqref>E7:E8 E10:E11 E37 E39 E13 E33 E17:E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3450C8A0-7296-4F4E-8C2D-67F62EE92A11}">
@@ -8132,7 +8531,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E33 E35</xm:sqref>
+          <xm:sqref>E37 E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{204492DB-C9DC-4A29-B7D2-317B3BB60E18}">
@@ -8162,7 +8561,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E28</xm:sqref>
+          <xm:sqref>E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D6D8DC0-8DB6-471B-8654-216B06E96310}">
@@ -8177,7 +8576,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E30</xm:sqref>
+          <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72B44424-0899-4A95-A18C-814AFD22EEB5}">
@@ -8192,7 +8591,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E32</xm:sqref>
+          <xm:sqref>E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E8DB8E0-4C2B-4E51-A644-0734E8A3FFDF}">
@@ -8207,7 +8606,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
+          <xm:sqref>E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29A332D1-8F3D-4822-AAE4-11C27860126D}">
@@ -8222,7 +8621,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E36:E37</xm:sqref>
+          <xm:sqref>E40:E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
@@ -8237,7 +8636,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
+          <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="135" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
@@ -8294,7 +8693,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L30:BO30</xm:sqref>
+          <xm:sqref>L34:BO34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="401" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -8313,7 +8712,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L31:BO33 L10:BO11 L8:BO8 L13:BO13 L27:BO28 L17:BO20</xm:sqref>
+          <xm:sqref>L35:BO37 L10:BO11 L8:BO8 L13:BO13 L31:BO32 L17:BO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="63" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
@@ -8332,7 +8731,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L34:BO34</xm:sqref>
+          <xm:sqref>L38:BO38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="34" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
@@ -8389,7 +8788,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L29:BO29</xm:sqref>
+          <xm:sqref>L33:BO33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="434" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
@@ -8408,7 +8807,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L21:BO26</xm:sqref>
+          <xm:sqref>L21:BO30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{B2096DA8-8ECA-47CE-B1DF-8F1E2E08633E}">
@@ -8427,7 +8826,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L35:BO35</xm:sqref>
+          <xm:sqref>L39:BO39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{98A44775-E807-4593-914E-8823CF8761D4}">
@@ -8446,7 +8845,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L36:BO37</xm:sqref>
+          <xm:sqref>L40:BO41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2BF58-8923-4602-B468-2DE083D0CA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE23313-8D52-45A2-82A3-9B2E78769206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>About This Template</t>
   </si>
@@ -226,9 +226,6 @@
     <t>4.1.1 Login</t>
   </si>
   <si>
-    <t>4.1.2 Employee master</t>
-  </si>
-  <si>
     <t>4.1.3 New employee</t>
   </si>
   <si>
@@ -241,25 +238,85 @@
     <t>4.2 Attendance</t>
   </si>
   <si>
-    <t>4.2.1 Attendance</t>
-  </si>
-  <si>
-    <t>4.2.3 Approve by supervisor</t>
-  </si>
-  <si>
-    <t>4.2.4 Approve by manager</t>
-  </si>
-  <si>
-    <t>4.2.2 Date attendance</t>
-  </si>
-  <si>
     <t>4.1.6 Edit personal information</t>
   </si>
   <si>
     <t>4.1.7 Backup employee master</t>
   </si>
   <si>
-    <t>เหลือ import export</t>
+    <r>
+      <t xml:space="preserve">4.1.2 Employee master                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       *เหลือ import export</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.1 Attendance                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*เหลือ การลาแบบไม่เต็มวัน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.2 Date attendance                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*เหลือ filter and  exportData</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.3 Approve by supervisor                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  *เหลือ filter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.4 Approve by manager  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                       *เหลือ filter</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -271,7 +328,7 @@
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +491,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1037,7 +1108,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1476,6 +1547,24 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,12 +1596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,6 +1614,272 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="72">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2471,272 +2820,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3047,20 +3130,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K41" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="52" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="51" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="1">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="47">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="0">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3341,8 +3424,8 @@
   </sheetPr>
   <dimension ref="A1:BO43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3439,7 @@
     <col min="7" max="7" width="9.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="67" width="3.5703125" style="1" customWidth="1"/>
     <col min="68" max="71" width="8.7109375" style="1"/>
@@ -3394,36 +3477,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="156" t="s">
+      <c r="L2" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="Q2" s="157" t="s">
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="Q2" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="V2" s="158" t="s">
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="V2" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="AA2" s="148" t="s">
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="AA2" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AF2" s="149" t="s">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AF2" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3433,15 +3516,15 @@
         <v>40</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="153">
+      <c r="E3" s="157"/>
+      <c r="F3" s="159">
         <v>43789</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3453,10 +3536,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="151"/>
+      <c r="E4" s="157"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3546,15 +3629,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -6082,7 +6165,7 @@
       <c r="H19" s="73">
         <v>5</v>
       </c>
-      <c r="I19" s="132">
+      <c r="I19" s="150">
         <v>43812</v>
       </c>
       <c r="J19" s="133">
@@ -6093,7 +6176,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="108"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -6150,10 +6233,10 @@
       <c r="BN19" s="10"/>
       <c r="BO19" s="10"/>
     </row>
-    <row r="20" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6165,7 +6248,7 @@
         <v>0.9</v>
       </c>
       <c r="F20" s="84">
-        <f>G19</f>
+        <f t="shared" ref="F20:F25" si="14">G19</f>
         <v>43805</v>
       </c>
       <c r="G20" s="84">
@@ -6175,18 +6258,16 @@
       <c r="H20" s="73">
         <v>5</v>
       </c>
-      <c r="I20" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="71" t="e">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
-        <v>#VALUE!</v>
+      <c r="I20" s="151"/>
+      <c r="J20" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],L20-Milestones[[#This Row],[End Date]])</f>
+        <v>28</v>
       </c>
       <c r="K20" s="71" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Complete</v>
-      </c>
-      <c r="L20" s="35"/>
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(L20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>On Process</v>
+      </c>
+      <c r="L20" s="152"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -6246,7 +6327,7 @@
     <row r="21" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65" t="s">
@@ -6256,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="84">
-        <f>G20</f>
+        <f t="shared" si="14"/>
         <v>43810</v>
       </c>
       <c r="G21" s="84">
@@ -6277,7 +6358,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="108"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -6337,7 +6418,7 @@
     <row r="22" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65" t="s">
@@ -6347,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="84">
-        <f>G21</f>
+        <f t="shared" si="14"/>
         <v>43815</v>
       </c>
       <c r="G22" s="84">
@@ -6428,7 +6509,7 @@
     <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65" t="s">
@@ -6438,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="84">
-        <f>G22</f>
+        <f t="shared" si="14"/>
         <v>43820</v>
       </c>
       <c r="G23" s="84">
@@ -6519,27 +6600,27 @@
     <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="111" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="159">
+      <c r="E24" s="148">
         <v>1</v>
       </c>
-      <c r="F24" s="160">
-        <f>G23</f>
+      <c r="F24" s="149">
+        <f t="shared" si="14"/>
         <v>43821</v>
       </c>
-      <c r="G24" s="160">
+      <c r="G24" s="149">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43822</v>
       </c>
       <c r="H24" s="82">
         <v>1</v>
       </c>
-      <c r="I24" s="160">
+      <c r="I24" s="149">
         <v>43834</v>
       </c>
       <c r="J24" s="106">
@@ -6610,34 +6691,36 @@
     <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="78" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="83">
-        <v>0</v>
-      </c>
-      <c r="F25" s="160">
-        <f>G24</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="84">
+        <f t="shared" si="14"/>
         <v>43822</v>
       </c>
-      <c r="G25" s="160">
+      <c r="G25" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43823</v>
       </c>
       <c r="H25" s="73">
         <v>1</v>
       </c>
-      <c r="I25" s="84"/>
+      <c r="I25" s="84">
+        <v>43835</v>
+      </c>
       <c r="J25" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" s="71" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="10"/>
@@ -6699,10 +6782,10 @@
     <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="135" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="137"/>
       <c r="F26" s="138"/>
       <c r="G26" s="139"/>
@@ -6767,10 +6850,10 @@
       <c r="BN26" s="10"/>
       <c r="BO26" s="10"/>
     </row>
-    <row r="27" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65" t="s">
@@ -6793,7 +6876,7 @@
       <c r="I27" s="84"/>
       <c r="J27" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K27" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6866,10 +6949,10 @@
         <v>54</v>
       </c>
       <c r="E28" s="83">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F28" s="84">
-        <f t="shared" ref="F28:F30" si="14">G27</f>
+        <f t="shared" ref="F28:F30" si="15">G27</f>
         <v>43828</v>
       </c>
       <c r="G28" s="84">
@@ -6882,7 +6965,7 @@
       <c r="I28" s="84"/>
       <c r="J28" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K28" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6947,7 +7030,7 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65" t="s">
@@ -6957,7 +7040,7 @@
         <v>0.9</v>
       </c>
       <c r="F29" s="84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43833</v>
       </c>
       <c r="G29" s="84">
@@ -6970,7 +7053,7 @@
       <c r="I29" s="84"/>
       <c r="J29" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K29" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7035,7 +7118,7 @@
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="65" t="s">
@@ -7045,7 +7128,7 @@
         <v>0.9</v>
       </c>
       <c r="F30" s="84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43838</v>
       </c>
       <c r="G30" s="84">
@@ -7058,11 +7141,11 @@
       <c r="I30" s="84"/>
       <c r="J30" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I30-Milestones[[#This Row],[End Date]])</f>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="K30" s="71" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
@@ -7231,7 +7314,7 @@
       <c r="I32" s="105"/>
       <c r="J32" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I32-Milestones[[#This Row],[End Date]])</f>
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="K32" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I32-G32&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7401,7 +7484,7 @@
       <c r="I34" s="99"/>
       <c r="J34" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I34-Milestones[[#This Row],[End Date]])</f>
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="K34" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I34-G34&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7570,7 +7653,7 @@
       <c r="I36" s="94"/>
       <c r="J36" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I36-Milestones[[#This Row],[End Date]])</f>
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="K36" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I36-G36&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7739,7 +7822,7 @@
       <c r="I38" s="94"/>
       <c r="J38" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I38-Milestones[[#This Row],[End Date]])</f>
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="K38" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I38-G38&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7910,7 +7993,7 @@
       <c r="I40" s="94"/>
       <c r="J40" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I40-Milestones[[#This Row],[End Date]])</f>
-        <v>-39</v>
+        <v>-35</v>
       </c>
       <c r="K40" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I40-G40&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7998,7 +8081,7 @@
       <c r="I41" s="99"/>
       <c r="J41" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>-46</v>
+        <v>-42</v>
       </c>
       <c r="K41" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8094,39 +8177,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:BO8 L10:BO11 L35:BO37 L13:BO13 L17:BO20 L31:BO32">
-    <cfRule type="expression" dxfId="46" priority="153">
+    <cfRule type="expression" dxfId="59" priority="153">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="45" priority="159">
+    <cfRule type="expression" dxfId="58" priority="159">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="44" priority="155">
+    <cfRule type="expression" dxfId="57" priority="155">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="43" priority="154">
+    <cfRule type="expression" dxfId="56" priority="154">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO17">
-    <cfRule type="expression" dxfId="42" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="176" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="195" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="213" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="214" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="215" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8145,7 +8228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="37" priority="128">
+    <cfRule type="expression" dxfId="50" priority="128">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8164,12 +8247,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="36" priority="120">
+    <cfRule type="expression" dxfId="49" priority="120">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:BO37">
-    <cfRule type="expression" dxfId="35" priority="64">
+    <cfRule type="expression" dxfId="48" priority="64">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8188,22 +8271,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:BO38">
-    <cfRule type="expression" dxfId="34" priority="56">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:BO38">
-    <cfRule type="expression" dxfId="33" priority="54">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO30">
-    <cfRule type="expression" dxfId="32" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="44" priority="33">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8222,7 +8305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8311,112 +8394,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:BO33">
-    <cfRule type="expression" dxfId="29" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:BO21">
-    <cfRule type="expression" dxfId="28" priority="409" stopIfTrue="1">
+  <conditionalFormatting sqref="L18:BO19 L21:BO21 M20:BO20">
+    <cfRule type="expression" dxfId="41" priority="409" stopIfTrue="1">
       <formula>AND($C19="Low Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="410" stopIfTrue="1">
       <formula>AND($C19="High Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="411" stopIfTrue="1">
       <formula>AND($C19="On Track",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="412" stopIfTrue="1">
       <formula>AND($C19="Med Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="413" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:BO27 L31:BO38">
-    <cfRule type="expression" dxfId="23" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="421" stopIfTrue="1">
       <formula>AND($C28="Low Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="422" stopIfTrue="1">
       <formula>AND($C28="High Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="423" stopIfTrue="1">
       <formula>AND($C28="On Track",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="424" stopIfTrue="1">
       <formula>AND($C28="Med Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="425" stopIfTrue="1">
       <formula>AND(LEN($C28)=0,L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:BO30">
-    <cfRule type="expression" dxfId="18" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="445" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="446" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="447" stopIfTrue="1">
       <formula>AND(#REF!="On Track",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="448" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="449" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BO39">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BO39">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:BO41">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:BO41">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BO41">
-    <cfRule type="expression" dxfId="9" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="451" stopIfTrue="1">
       <formula>AND($C42="Low Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="452" stopIfTrue="1">
       <formula>AND($C42="High Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="453" stopIfTrue="1">
       <formula>AND($C42="On Track",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="454" stopIfTrue="1">
       <formula>AND($C42="Med Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="455" stopIfTrue="1">
       <formula>AND(LEN($C42)=0,L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:BO25">
-    <cfRule type="expression" dxfId="4" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="486" stopIfTrue="1">
       <formula>AND($C27="Low Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="487" stopIfTrue="1">
       <formula>AND($C27="High Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="488" stopIfTrue="1">
       <formula>AND($C27="On Track",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="489" stopIfTrue="1">
       <formula>AND($C27="Med Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="490" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8712,7 +8795,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L35:BO37 L10:BO11 L8:BO8 L13:BO13 L31:BO32 L17:BO20</xm:sqref>
+          <xm:sqref>L35:BO37 L10:BO11 L8:BO8 L13:BO13 L31:BO32 L17:BO19 M20:BO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="63" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE23313-8D52-45A2-82A3-9B2E78769206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F7924-4157-4FE7-B198-A1367144DAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>About This Template</t>
   </si>
@@ -245,36 +245,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4.1.2 Employee master                            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       *เหลือ import export</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.2.1 Attendance                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*เหลือ การลาแบบไม่เต็มวัน</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">4.2.2 Date attendance                  </t>
     </r>
     <r>
@@ -317,6 +287,36 @@
       </rPr>
       <t xml:space="preserve">                                       *เหลือ filter</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1.2 Employee master                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                  *เหลือ import </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1 Attendance                               </t>
+  </si>
+  <si>
+    <t>4.3 หน้า master เอาไว้ add data</t>
+  </si>
+  <si>
+    <t>4.3.2 master ของ combobox ทั้งหมด</t>
+  </si>
+  <si>
+    <t>4.3.1 master ของ department role</t>
+  </si>
+  <si>
+    <t>4.3.3 master ของ role การเข้าใช้งานระบบ</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +574,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1080,6 +1086,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1108,7 +1134,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1596,6 +1622,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="11" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="11" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="11" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="12" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,272 +1664,6 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="72">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2820,6 +2604,272 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3130,20 +3180,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K45" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="52" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="51" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="48">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="47">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3422,10 +3472,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO43"/>
+  <dimension ref="A1:BO47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5836,12 +5886,12 @@
         <v>43800</v>
       </c>
       <c r="G17" s="75">
-        <f>G29</f>
-        <v>43838</v>
+        <f>G34</f>
+        <v>43848</v>
       </c>
       <c r="H17" s="74">
-        <f>SUM(H19:H29)</f>
-        <v>38</v>
+        <f>SUM(H19:H34)</f>
+        <v>48</v>
       </c>
       <c r="I17" s="67"/>
       <c r="J17" s="69"/>
@@ -6236,7 +6286,7 @@
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6261,7 +6311,7 @@
       <c r="I20" s="151"/>
       <c r="J20" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],L20-Milestones[[#This Row],[End Date]])</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K20" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(L20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6853,14 +6903,14 @@
     <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F27" s="84">
         <f>G25</f>
@@ -6873,14 +6923,16 @@
       <c r="H27" s="73">
         <v>5</v>
       </c>
-      <c r="I27" s="84"/>
+      <c r="I27" s="84">
+        <v>43840</v>
+      </c>
       <c r="J27" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K27" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I27-G27&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="10"/>
@@ -6942,7 +6994,7 @@
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65" t="s">
@@ -6965,7 +7017,7 @@
       <c r="I28" s="84"/>
       <c r="J28" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K28" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7030,7 +7082,7 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65" t="s">
@@ -7053,7 +7105,7 @@
       <c r="I29" s="84"/>
       <c r="J29" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7117,33 +7169,33 @@
       <c r="BO29" s="10"/>
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="148">
         <v>0.9</v>
       </c>
-      <c r="F30" s="84">
+      <c r="F30" s="149">
         <f t="shared" si="15"/>
         <v>43838</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="149">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43843</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="82">
         <v>5</v>
       </c>
-      <c r="I30" s="84"/>
-      <c r="J30" s="71">
+      <c r="I30" s="149"/>
+      <c r="J30" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I30-Milestones[[#This Row],[End Date]])</f>
-        <v>-5</v>
-      </c>
-      <c r="K30" s="71" t="str">
+        <v>0</v>
+      </c>
+      <c r="K30" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>On Process</v>
       </c>
@@ -7205,31 +7257,19 @@
       <c r="BO30" s="10"/>
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="56">
-        <f>G30</f>
-        <v>43843</v>
-      </c>
-      <c r="G31" s="56">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43849</v>
-      </c>
-      <c r="H31" s="134">
-        <f>H32</f>
-        <v>6</v>
-      </c>
-      <c r="I31" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="108"/>
+      <c r="B31" s="165" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -7287,40 +7327,39 @@
       <c r="BO31" s="10"/>
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="65" t="s">
+      <c r="B32" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="81">
-        <v>0</v>
-      </c>
-      <c r="F32" s="80">
-        <f>F31</f>
+      <c r="E32" s="83">
+        <v>1</v>
+      </c>
+      <c r="F32" s="84">
+        <f>G30</f>
         <v>43843</v>
       </c>
-      <c r="G32" s="80">
+      <c r="G32" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43849</v>
-      </c>
-      <c r="H32" s="82">
-        <v>6</v>
-      </c>
-      <c r="I32" s="105"/>
+        <v>43844</v>
+      </c>
+      <c r="H32" s="73">
+        <v>1</v>
+      </c>
+      <c r="I32" s="172">
+        <v>43843</v>
+      </c>
       <c r="J32" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I32-Milestones[[#This Row],[End Date]])</f>
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="106" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I32-G32&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L32" s="108"/>
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>On Process</v>
+      </c>
+      <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -7378,29 +7417,37 @@
       <c r="BO32" s="10"/>
     </row>
     <row r="33" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103">
-        <f>G32</f>
-        <v>43849</v>
-      </c>
-      <c r="G33" s="103">
+      <c r="B33" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="83">
+        <v>0</v>
+      </c>
+      <c r="F33" s="84">
+        <f t="shared" ref="F33:F34" si="16">G32</f>
+        <v>43844</v>
+      </c>
+      <c r="G33" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43855</v>
-      </c>
-      <c r="H33" s="86">
-        <f>H34</f>
-        <v>6</v>
-      </c>
-      <c r="I33" s="85"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="108"/>
+        <v>43846</v>
+      </c>
+      <c r="H33" s="73">
+        <v>2</v>
+      </c>
+      <c r="I33" s="172"/>
+      <c r="J33" s="106">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
+        <v>-3</v>
+      </c>
+      <c r="K33" s="106" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L33" s="35"/>
       <c r="M33" s="35"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -7458,39 +7505,37 @@
       <c r="BO33" s="10"/>
     </row>
     <row r="34" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="65" t="s">
+      <c r="B34" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="83">
         <v>0</v>
       </c>
-      <c r="F34" s="55">
-        <f>F33</f>
-        <v>43849</v>
-      </c>
-      <c r="G34" s="55">
+      <c r="F34" s="84">
+        <f t="shared" si="16"/>
+        <v>43846</v>
+      </c>
+      <c r="G34" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43855</v>
-      </c>
-      <c r="H34" s="87">
-        <v>6</v>
-      </c>
-      <c r="I34" s="99"/>
-      <c r="J34" s="70">
+        <v>43848</v>
+      </c>
+      <c r="H34" s="73">
+        <v>2</v>
+      </c>
+      <c r="I34" s="172"/>
+      <c r="J34" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I34-Milestones[[#This Row],[End Date]])</f>
-        <v>-17</v>
-      </c>
-      <c r="K34" s="70" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I34-G34&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>-5</v>
+      </c>
+      <c r="K34" s="106" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Pending</v>
       </c>
-      <c r="L34" s="108"/>
+      <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -7548,27 +7593,30 @@
       <c r="BO34" s="10"/>
     </row>
     <row r="35" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="103">
+      <c r="A35" s="42"/>
+      <c r="B35" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="92"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="56">
         <f>G34</f>
-        <v>43855</v>
-      </c>
-      <c r="G35" s="103">
+        <v>43848</v>
+      </c>
+      <c r="G35" s="56">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43861</v>
-      </c>
-      <c r="H35" s="86">
+        <v>43853</v>
+      </c>
+      <c r="H35" s="134">
         <f>H36</f>
-        <v>6</v>
-      </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
+        <v>5</v>
+      </c>
+      <c r="I35" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
       <c r="L35" s="108"/>
       <c r="M35" s="35"/>
       <c r="N35" s="10"/>
@@ -7627,35 +7675,36 @@
       <c r="BO35" s="10"/>
     </row>
     <row r="36" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="60" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="90" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="81">
         <v>0</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="80">
         <f>F35</f>
-        <v>43855</v>
-      </c>
-      <c r="G36" s="57">
+        <v>43848</v>
+      </c>
+      <c r="G36" s="80">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43861</v>
-      </c>
-      <c r="H36" s="54">
-        <v>6</v>
-      </c>
-      <c r="I36" s="94"/>
-      <c r="J36" s="71">
+        <v>43853</v>
+      </c>
+      <c r="H36" s="82">
+        <v>5</v>
+      </c>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I36-Milestones[[#This Row],[End Date]])</f>
-        <v>-23</v>
-      </c>
-      <c r="K36" s="71" t="str">
+        <v>-10</v>
+      </c>
+      <c r="K36" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I36-G36&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -7717,27 +7766,28 @@
       <c r="BO36" s="10"/>
     </row>
     <row r="37" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="56">
+      <c r="A37" s="42"/>
+      <c r="B37" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="103">
         <f>G36</f>
-        <v>43861</v>
-      </c>
-      <c r="G37" s="56">
+        <v>43853</v>
+      </c>
+      <c r="G37" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43866</v>
-      </c>
-      <c r="H37" s="97">
+        <v>43859</v>
+      </c>
+      <c r="H37" s="86">
         <f>H38</f>
-        <v>5</v>
-      </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
+        <v>6</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="108"/>
       <c r="M37" s="35"/>
       <c r="N37" s="10"/>
@@ -7796,35 +7846,35 @@
       <c r="BO37" s="10"/>
     </row>
     <row r="38" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="59">
         <v>0</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="55">
         <f>F37</f>
-        <v>43861</v>
-      </c>
-      <c r="G38" s="57">
+        <v>43853</v>
+      </c>
+      <c r="G38" s="55">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43866</v>
-      </c>
-      <c r="H38" s="54">
-        <v>5</v>
-      </c>
-      <c r="I38" s="94"/>
-      <c r="J38" s="71">
+        <v>43859</v>
+      </c>
+      <c r="H38" s="87">
+        <v>6</v>
+      </c>
+      <c r="I38" s="99"/>
+      <c r="J38" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I38-Milestones[[#This Row],[End Date]])</f>
-        <v>-28</v>
-      </c>
-      <c r="K38" s="71" t="str">
+        <v>-16</v>
+      </c>
+      <c r="K38" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I38-G38&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
@@ -7885,26 +7935,24 @@
       <c r="BN38" s="10"/>
       <c r="BO38" s="10"/>
     </row>
-    <row r="39" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="75">
+    <row r="39" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="103">
         <f>G38</f>
-        <v>43866</v>
+        <v>43859</v>
       </c>
       <c r="G39" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43873</v>
+        <v>43865</v>
       </c>
       <c r="H39" s="86">
         <f>H40</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="85"/>
       <c r="J39" s="69"/>
@@ -7966,34 +8014,34 @@
       <c r="BN39" s="10"/>
       <c r="BO39" s="10"/>
     </row>
-    <row r="40" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="131" t="s">
+    <row r="40" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="58">
         <v>0</v>
       </c>
       <c r="F40" s="57">
         <f>F39</f>
-        <v>43866</v>
+        <v>43859</v>
       </c>
       <c r="G40" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43873</v>
+        <v>43865</v>
       </c>
       <c r="H40" s="54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="94"/>
       <c r="J40" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I40-Milestones[[#This Row],[End Date]])</f>
-        <v>-35</v>
+        <v>-22</v>
       </c>
       <c r="K40" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I40-G40&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8056,38 +8104,29 @@
       <c r="BN40" s="10"/>
       <c r="BO40" s="10"/>
     </row>
-    <row r="41" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="118">
-        <v>0</v>
-      </c>
-      <c r="F41" s="55">
+    <row r="41" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="56">
         <f>G40</f>
-        <v>43873</v>
-      </c>
-      <c r="G41" s="55">
+        <v>43865</v>
+      </c>
+      <c r="G41" s="56">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43880</v>
-      </c>
-      <c r="H41" s="87">
-        <v>7</v>
-      </c>
-      <c r="I41" s="99"/>
-      <c r="J41" s="70">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>-42</v>
-      </c>
-      <c r="K41" s="70" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
-      <c r="L41" s="35"/>
+        <v>43866</v>
+      </c>
+      <c r="H41" s="97">
+        <f>H42</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="68"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="108"/>
       <c r="M41" s="35"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -8144,11 +8183,360 @@
       <c r="BN41" s="10"/>
       <c r="BO41" s="10"/>
     </row>
-    <row r="42" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="30"/>
+    <row r="42" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="58">
+        <v>0</v>
+      </c>
+      <c r="F42" s="57">
+        <f>F41</f>
+        <v>43865</v>
+      </c>
+      <c r="G42" s="57">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43866</v>
+      </c>
+      <c r="H42" s="54">
+        <v>1</v>
+      </c>
+      <c r="I42" s="94"/>
+      <c r="J42" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I42-Milestones[[#This Row],[End Date]])</f>
+        <v>-23</v>
+      </c>
+      <c r="K42" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I42-G42&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L42" s="108"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="10"/>
+      <c r="BA42" s="10"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="10"/>
+      <c r="BF42" s="10"/>
+      <c r="BG42" s="10"/>
+      <c r="BH42" s="10"/>
+      <c r="BI42" s="10"/>
+      <c r="BJ42" s="10"/>
+      <c r="BK42" s="10"/>
+      <c r="BL42" s="10"/>
+      <c r="BM42" s="10"/>
+      <c r="BN42" s="10"/>
+      <c r="BO42" s="10"/>
     </row>
-    <row r="43" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="30"/>
+    <row r="43" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="75">
+        <f>G42</f>
+        <v>43866</v>
+      </c>
+      <c r="G43" s="103">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43873</v>
+      </c>
+      <c r="H43" s="86">
+        <f>H44</f>
+        <v>7</v>
+      </c>
+      <c r="I43" s="85"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="10"/>
+      <c r="BF43" s="10"/>
+      <c r="BG43" s="10"/>
+      <c r="BH43" s="10"/>
+      <c r="BI43" s="10"/>
+      <c r="BJ43" s="10"/>
+      <c r="BK43" s="10"/>
+      <c r="BL43" s="10"/>
+      <c r="BM43" s="10"/>
+      <c r="BN43" s="10"/>
+      <c r="BO43" s="10"/>
+    </row>
+    <row r="44" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="83">
+        <v>0</v>
+      </c>
+      <c r="F44" s="57">
+        <f>F43</f>
+        <v>43866</v>
+      </c>
+      <c r="G44" s="57">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43873</v>
+      </c>
+      <c r="H44" s="54">
+        <v>7</v>
+      </c>
+      <c r="I44" s="94"/>
+      <c r="J44" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I44-Milestones[[#This Row],[End Date]])</f>
+        <v>-30</v>
+      </c>
+      <c r="K44" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I44-G44&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L44" s="108"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="10"/>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="10"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="10"/>
+      <c r="BA44" s="10"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="10"/>
+      <c r="BF44" s="10"/>
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="10"/>
+      <c r="BK44" s="10"/>
+      <c r="BL44" s="10"/>
+      <c r="BM44" s="10"/>
+      <c r="BN44" s="10"/>
+      <c r="BO44" s="10"/>
+    </row>
+    <row r="45" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="118">
+        <v>0</v>
+      </c>
+      <c r="F45" s="55">
+        <f>G44</f>
+        <v>43873</v>
+      </c>
+      <c r="G45" s="55">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43880</v>
+      </c>
+      <c r="H45" s="87">
+        <v>7</v>
+      </c>
+      <c r="I45" s="99"/>
+      <c r="J45" s="70">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
+        <v>-37</v>
+      </c>
+      <c r="K45" s="70" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="10"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="10"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="10"/>
+      <c r="BF45" s="10"/>
+      <c r="BG45" s="10"/>
+      <c r="BH45" s="10"/>
+      <c r="BI45" s="10"/>
+      <c r="BJ45" s="10"/>
+      <c r="BK45" s="10"/>
+      <c r="BL45" s="10"/>
+      <c r="BM45" s="10"/>
+      <c r="BN45" s="10"/>
+      <c r="BO45" s="10"/>
+    </row>
+    <row r="46" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8162,7 +8550,7 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E8 E10:E11 E37 E39 E13 E33 E17:E31">
+  <conditionalFormatting sqref="E7:E8 E10:E11 E41 E43 E13 E37 E17:E35">
     <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8176,40 +8564,40 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO8 L10:BO11 L35:BO37 L13:BO13 L17:BO20 L31:BO32">
-    <cfRule type="expression" dxfId="59" priority="153">
+  <conditionalFormatting sqref="L5:BO8 L10:BO11 L39:BO41 L13:BO13 L17:BO20 L35:BO36">
+    <cfRule type="expression" dxfId="46" priority="153">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="58" priority="159">
+    <cfRule type="expression" dxfId="45" priority="159">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="57" priority="155">
+    <cfRule type="expression" dxfId="44" priority="155">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="56" priority="154">
+    <cfRule type="expression" dxfId="43" priority="154">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO17">
-    <cfRule type="expression" dxfId="55" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="176" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="195" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="213" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="214" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="215" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8228,7 +8616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="50" priority="128">
+    <cfRule type="expression" dxfId="37" priority="128">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8247,16 +8635,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="49" priority="120">
+    <cfRule type="expression" dxfId="36" priority="120">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:BO37">
-    <cfRule type="expression" dxfId="48" priority="64">
+  <conditionalFormatting sqref="L38:BO41">
+    <cfRule type="expression" dxfId="35" priority="64">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37 E39">
+  <conditionalFormatting sqref="E41 E43">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8270,23 +8658,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:BO38">
-    <cfRule type="expression" dxfId="47" priority="56">
+  <conditionalFormatting sqref="L42:BO42">
+    <cfRule type="expression" dxfId="34" priority="56">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:BO38">
-    <cfRule type="expression" dxfId="46" priority="54">
+  <conditionalFormatting sqref="L42:BO42">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:BO30">
-    <cfRule type="expression" dxfId="45" priority="43">
+  <conditionalFormatting sqref="L21:BO34">
+    <cfRule type="expression" dxfId="32" priority="43">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="44" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8305,11 +8693,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E36">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8323,7 +8711,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E38">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8337,7 +8725,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E40">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8351,7 +8739,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E42">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8365,7 +8753,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E41">
+  <conditionalFormatting sqref="E44:E45">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8379,7 +8767,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E39">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8393,113 +8781,113 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:BO33">
-    <cfRule type="expression" dxfId="42" priority="18">
+  <conditionalFormatting sqref="L37:BO37">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:BO19 L21:BO21 M20:BO20">
-    <cfRule type="expression" dxfId="41" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="409" stopIfTrue="1">
       <formula>AND($C19="Low Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="410" stopIfTrue="1">
       <formula>AND($C19="High Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="411" stopIfTrue="1">
       <formula>AND($C19="On Track",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="412" stopIfTrue="1">
       <formula>AND($C19="Med Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="413" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:BO27 L31:BO38">
-    <cfRule type="expression" dxfId="36" priority="421" stopIfTrue="1">
+  <conditionalFormatting sqref="L26:BO27 L35:BO42">
+    <cfRule type="expression" dxfId="23" priority="421" stopIfTrue="1">
       <formula>AND($C28="Low Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="422" stopIfTrue="1">
       <formula>AND($C28="High Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="423" stopIfTrue="1">
       <formula>AND($C28="On Track",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="424" stopIfTrue="1">
       <formula>AND($C28="Med Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="425" stopIfTrue="1">
       <formula>AND(LEN($C28)=0,L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:BO30">
-    <cfRule type="expression" dxfId="31" priority="445" stopIfTrue="1">
+  <conditionalFormatting sqref="L28:BO34">
+    <cfRule type="expression" dxfId="18" priority="445" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="446" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="447" stopIfTrue="1">
       <formula>AND(#REF!="On Track",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="448" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="449" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:BO39">
-    <cfRule type="expression" dxfId="26" priority="11">
+  <conditionalFormatting sqref="L43:BO43">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:BO39">
-    <cfRule type="expression" dxfId="25" priority="10">
+  <conditionalFormatting sqref="L43:BO43">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:BO41">
-    <cfRule type="expression" dxfId="24" priority="3">
+  <conditionalFormatting sqref="L44:BO45">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:BO41">
-    <cfRule type="expression" dxfId="23" priority="2">
+  <conditionalFormatting sqref="L44:BO45">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:BO41">
-    <cfRule type="expression" dxfId="22" priority="451" stopIfTrue="1">
-      <formula>AND($C42="Low Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
+  <conditionalFormatting sqref="L43:BO45">
+    <cfRule type="expression" dxfId="9" priority="451" stopIfTrue="1">
+      <formula>AND($C46="Low Risk",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="452" stopIfTrue="1">
-      <formula>AND($C42="High Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
+    <cfRule type="expression" dxfId="8" priority="452" stopIfTrue="1">
+      <formula>AND($C46="High Risk",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="453" stopIfTrue="1">
-      <formula>AND($C42="On Track",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
+    <cfRule type="expression" dxfId="7" priority="453" stopIfTrue="1">
+      <formula>AND($C46="On Track",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="454" stopIfTrue="1">
-      <formula>AND($C42="Med Risk",L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
+    <cfRule type="expression" dxfId="6" priority="454" stopIfTrue="1">
+      <formula>AND($C46="Med Risk",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="455" stopIfTrue="1">
-      <formula>AND(LEN($C42)=0,L$5&gt;=$F42,L$5&lt;=$F42+$H42-1)</formula>
+    <cfRule type="expression" dxfId="5" priority="455" stopIfTrue="1">
+      <formula>AND(LEN($C46)=0,L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:BO25">
-    <cfRule type="expression" dxfId="17" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="486" stopIfTrue="1">
       <formula>AND($C27="Low Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="487" stopIfTrue="1">
       <formula>AND($C27="High Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="488" stopIfTrue="1">
       <formula>AND($C27="On Track",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="489" stopIfTrue="1">
       <formula>AND($C27="Med Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="490" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8507,7 +8895,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C41" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8518,7 +8906,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F32" formula="1"/>
+    <ignoredError sqref="F36" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8569,7 +8957,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E8 E10:E11 E37 E39 E13 E33 E17:E31</xm:sqref>
+          <xm:sqref>E7:E8 E10:E11 E41 E43 E13 E37 E17:E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3450C8A0-7296-4F4E-8C2D-67F62EE92A11}">
@@ -8614,7 +9002,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E37 E39</xm:sqref>
+          <xm:sqref>E41 E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{204492DB-C9DC-4A29-B7D2-317B3BB60E18}">
@@ -8644,7 +9032,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E32</xm:sqref>
+          <xm:sqref>E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D6D8DC0-8DB6-471B-8654-216B06E96310}">
@@ -8659,7 +9047,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E34</xm:sqref>
+          <xm:sqref>E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72B44424-0899-4A95-A18C-814AFD22EEB5}">
@@ -8674,7 +9062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E36</xm:sqref>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E8DB8E0-4C2B-4E51-A644-0734E8A3FFDF}">
@@ -8689,7 +9077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E38</xm:sqref>
+          <xm:sqref>E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29A332D1-8F3D-4822-AAE4-11C27860126D}">
@@ -8704,7 +9092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E40:E41</xm:sqref>
+          <xm:sqref>E44:E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
@@ -8719,7 +9107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E35</xm:sqref>
+          <xm:sqref>E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="135" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
@@ -8776,7 +9164,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L34:BO34</xm:sqref>
+          <xm:sqref>L38:BO38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="401" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -8795,7 +9183,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L35:BO37 L10:BO11 L8:BO8 L13:BO13 L31:BO32 L17:BO19 M20:BO20</xm:sqref>
+          <xm:sqref>L39:BO41 L10:BO11 L8:BO8 L13:BO13 L35:BO36 L17:BO19 M20:BO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="63" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
@@ -8814,7 +9202,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L38:BO38</xm:sqref>
+          <xm:sqref>L42:BO42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="34" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
@@ -8871,7 +9259,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L33:BO33</xm:sqref>
+          <xm:sqref>L37:BO37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="434" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
@@ -8890,7 +9278,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L21:BO30</xm:sqref>
+          <xm:sqref>L21:BO34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{B2096DA8-8ECA-47CE-B1DF-8F1E2E08633E}">
@@ -8909,7 +9297,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L39:BO39</xm:sqref>
+          <xm:sqref>L43:BO43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{98A44775-E807-4593-914E-8823CF8761D4}">
@@ -8928,7 +9316,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L40:BO41</xm:sqref>
+          <xm:sqref>L44:BO45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F7924-4157-4FE7-B198-A1367144DAC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B908215-C489-48BC-8A19-0C9168E55F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>About This Template</t>
   </si>
@@ -245,51 +245,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4.2.2 Date attendance                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*เหลือ filter and  exportData</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.2.3 Approve by supervisor                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  *เหลือ filter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4.2.4 Approve by manager  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                       *เหลือ filter</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">4.1.2 Employee master                            </t>
     </r>
     <r>
@@ -317,6 +272,66 @@
   </si>
   <si>
     <t>4.3.3 master ของ role การเข้าใช้งานระบบ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.4 Approve by manager  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.3 Approve by supervisor                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.2.5 ส่งแจ้งเตือนไปยัง Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2.2 Date attendance                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*เหลือ exportData</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -581,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1086,26 +1101,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1134,7 +1129,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1591,6 +1586,9 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="19" fillId="12" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,28 +1622,7 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="11" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="11" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="19" fillId="11" borderId="43" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="12" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3180,7 +3157,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K45" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="55"/>
@@ -3472,10 +3449,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO47"/>
+  <dimension ref="A1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3527,36 +3504,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="162" t="s">
+      <c r="L2" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="Q2" s="163" t="s">
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="Q2" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="V2" s="164" t="s">
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="V2" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="AA2" s="154" t="s">
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="AA2" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AF2" s="155" t="s">
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="155"/>
+      <c r="AF2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="156"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3566,15 +3543,15 @@
         <v>40</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="159">
+      <c r="E3" s="158"/>
+      <c r="F3" s="160">
         <v>43789</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3586,10 +3563,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="157"/>
+      <c r="E4" s="158"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3679,15 +3656,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -5886,12 +5863,12 @@
         <v>43800</v>
       </c>
       <c r="G17" s="75">
-        <f>G34</f>
-        <v>43848</v>
+        <f>G35</f>
+        <v>43851</v>
       </c>
       <c r="H17" s="74">
-        <f>SUM(H19:H34)</f>
-        <v>48</v>
+        <f>SUM(H19:H35)</f>
+        <v>51</v>
       </c>
       <c r="I17" s="67"/>
       <c r="J17" s="69"/>
@@ -6286,7 +6263,7 @@
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6311,7 +6288,7 @@
       <c r="I20" s="151"/>
       <c r="J20" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],L20-Milestones[[#This Row],[End Date]])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K20" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(L20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6903,7 +6880,7 @@
     <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="78" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65" t="s">
@@ -6994,14 +6971,14 @@
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="78" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="83">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F28" s="84">
         <f t="shared" ref="F28:F30" si="15">G27</f>
@@ -7017,7 +6994,7 @@
       <c r="I28" s="84"/>
       <c r="J28" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K28" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7082,14 +7059,14 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F29" s="84">
         <f t="shared" si="15"/>
@@ -7102,14 +7079,16 @@
       <c r="H29" s="73">
         <v>5</v>
       </c>
-      <c r="I29" s="84"/>
+      <c r="I29" s="84">
+        <v>43845</v>
+      </c>
       <c r="J29" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K29" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I29-G29&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L29" s="35"/>
       <c r="M29" s="10"/>
@@ -7170,14 +7149,14 @@
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="111" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="148">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F30" s="149">
         <f t="shared" si="15"/>
@@ -7190,14 +7169,16 @@
       <c r="H30" s="82">
         <v>5</v>
       </c>
-      <c r="I30" s="149"/>
+      <c r="I30" s="149">
+        <v>43845</v>
+      </c>
       <c r="J30" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I30-Milestones[[#This Row],[End Date]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L30" s="35"/>
       <c r="M30" s="35"/>
@@ -7257,18 +7238,36 @@
       <c r="BO30" s="10"/>
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="165" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
+      <c r="B31" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="148">
+        <v>0</v>
+      </c>
+      <c r="F31" s="149">
+        <f t="shared" ref="F31" si="16">G30</f>
+        <v>43843</v>
+      </c>
+      <c r="G31" s="149">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43846</v>
+      </c>
+      <c r="H31" s="82">
+        <v>3</v>
+      </c>
+      <c r="I31" s="149"/>
+      <c r="J31" s="106">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
+        <v>-1</v>
+      </c>
+      <c r="K31" s="106" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>On Process</v>
+      </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
       <c r="N31" s="10"/>
@@ -7327,38 +7326,18 @@
       <c r="BO31" s="10"/>
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="83">
-        <v>1</v>
-      </c>
-      <c r="F32" s="84">
-        <f>G30</f>
-        <v>43843</v>
-      </c>
-      <c r="G32" s="84">
-        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43844</v>
-      </c>
-      <c r="H32" s="73">
-        <v>1</v>
-      </c>
-      <c r="I32" s="172">
-        <v>43843</v>
-      </c>
-      <c r="J32" s="106">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I32-Milestones[[#This Row],[End Date]])</f>
-        <v>-1</v>
-      </c>
-      <c r="K32" s="106" t="str">
-        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>On Process</v>
-      </c>
+      <c r="B32" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
@@ -7418,30 +7397,32 @@
     </row>
     <row r="33" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E33" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="84">
-        <f t="shared" ref="F33:F34" si="16">G32</f>
-        <v>43844</v>
+        <f>G31</f>
+        <v>43846</v>
       </c>
       <c r="G33" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="H33" s="73">
-        <v>2</v>
-      </c>
-      <c r="I33" s="172"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="154">
+        <v>43843</v>
+      </c>
       <c r="J33" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K33" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
@@ -7506,27 +7487,29 @@
     </row>
     <row r="34" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="84">
-        <f t="shared" si="16"/>
-        <v>43846</v>
+        <f t="shared" ref="F34:F35" si="17">G33</f>
+        <v>43847</v>
       </c>
       <c r="G34" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="H34" s="73">
         <v>2</v>
       </c>
-      <c r="I34" s="172"/>
+      <c r="I34" s="154">
+        <v>43844</v>
+      </c>
       <c r="J34" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I34-Milestones[[#This Row],[End Date]])</f>
         <v>-5</v>
@@ -7593,31 +7576,37 @@
       <c r="BO34" s="10"/>
     </row>
     <row r="35" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="56">
-        <f>G34</f>
-        <v>43848</v>
-      </c>
-      <c r="G35" s="56">
+      <c r="B35" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="83">
+        <v>0</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="17"/>
+        <v>43849</v>
+      </c>
+      <c r="G35" s="84">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43853</v>
-      </c>
-      <c r="H35" s="134">
-        <f>H36</f>
-        <v>5</v>
-      </c>
-      <c r="I35" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="108"/>
+        <v>43851</v>
+      </c>
+      <c r="H35" s="73">
+        <v>2</v>
+      </c>
+      <c r="I35" s="154"/>
+      <c r="J35" s="106">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
+        <v>-6</v>
+      </c>
+      <c r="K35" s="106" t="str">
+        <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
+        <v>Pending</v>
+      </c>
+      <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -7676,38 +7665,29 @@
     </row>
     <row r="36" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="81">
-        <v>0</v>
-      </c>
-      <c r="F36" s="80">
-        <f>F35</f>
-        <v>43848</v>
-      </c>
-      <c r="G36" s="80">
+      <c r="B36" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="92"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="56">
+        <f>G35</f>
+        <v>43851</v>
+      </c>
+      <c r="G36" s="56">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43853</v>
-      </c>
-      <c r="H36" s="82">
+        <v>43856</v>
+      </c>
+      <c r="H36" s="134">
+        <f>H37</f>
         <v>5</v>
       </c>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I36-Milestones[[#This Row],[End Date]])</f>
-        <v>-10</v>
-      </c>
-      <c r="K36" s="106" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I36-G36&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="I36" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
       <c r="L36" s="108"/>
       <c r="M36" s="35"/>
       <c r="N36" s="10"/>
@@ -7767,27 +7747,38 @@
     </row>
     <row r="37" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
-      <c r="B37" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="103">
-        <f>G36</f>
-        <v>43853</v>
-      </c>
-      <c r="G37" s="103">
+      <c r="B37" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0</v>
+      </c>
+      <c r="F37" s="80">
+        <f>F36</f>
+        <v>43851</v>
+      </c>
+      <c r="G37" s="80">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43859</v>
-      </c>
-      <c r="H37" s="86">
-        <f>H38</f>
-        <v>6</v>
-      </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
+        <v>43856</v>
+      </c>
+      <c r="H37" s="82">
+        <v>5</v>
+      </c>
+      <c r="I37" s="105"/>
+      <c r="J37" s="106">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
+        <v>-11</v>
+      </c>
+      <c r="K37" s="106" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
       <c r="L37" s="108"/>
       <c r="M37" s="35"/>
       <c r="N37" s="10"/>
@@ -7846,38 +7837,28 @@
       <c r="BO37" s="10"/>
     </row>
     <row r="38" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="59">
-        <v>0</v>
-      </c>
-      <c r="F38" s="55">
-        <f>F37</f>
-        <v>43853</v>
-      </c>
-      <c r="G38" s="55">
+      <c r="A38" s="42"/>
+      <c r="B38" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="103">
+        <f>G37</f>
+        <v>43856</v>
+      </c>
+      <c r="G38" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43859</v>
-      </c>
-      <c r="H38" s="87">
+        <v>43862</v>
+      </c>
+      <c r="H38" s="86">
+        <f>H39</f>
         <v>6</v>
       </c>
-      <c r="I38" s="99"/>
-      <c r="J38" s="70">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I38-Milestones[[#This Row],[End Date]])</f>
-        <v>-16</v>
-      </c>
-      <c r="K38" s="70" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I38-G38&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="I38" s="85"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
       <c r="L38" s="108"/>
       <c r="M38" s="35"/>
       <c r="N38" s="10"/>
@@ -7936,27 +7917,38 @@
       <c r="BO38" s="10"/>
     </row>
     <row r="39" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="103">
-        <f>G38</f>
-        <v>43859</v>
-      </c>
-      <c r="G39" s="103">
+      <c r="B39" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="59">
+        <v>0</v>
+      </c>
+      <c r="F39" s="55">
+        <f>F38</f>
+        <v>43856</v>
+      </c>
+      <c r="G39" s="55">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43865</v>
-      </c>
-      <c r="H39" s="86">
-        <f>H40</f>
+        <v>43862</v>
+      </c>
+      <c r="H39" s="87">
         <v>6</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="70">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
+        <v>-17</v>
+      </c>
+      <c r="K39" s="70" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
       <c r="L39" s="108"/>
       <c r="M39" s="35"/>
       <c r="N39" s="10"/>
@@ -8015,38 +8007,27 @@
       <c r="BO39" s="10"/>
     </row>
     <row r="40" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="58">
-        <v>0</v>
-      </c>
-      <c r="F40" s="57">
-        <f>F39</f>
-        <v>43859</v>
-      </c>
-      <c r="G40" s="57">
+      <c r="B40" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="103">
+        <f>G39</f>
+        <v>43862</v>
+      </c>
+      <c r="G40" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43865</v>
-      </c>
-      <c r="H40" s="54">
+        <v>43868</v>
+      </c>
+      <c r="H40" s="86">
+        <f>H41</f>
         <v>6</v>
       </c>
-      <c r="I40" s="94"/>
-      <c r="J40" s="71">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I40-Milestones[[#This Row],[End Date]])</f>
-        <v>-22</v>
-      </c>
-      <c r="K40" s="71" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I40-G40&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="I40" s="85"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
       <c r="L40" s="108"/>
       <c r="M40" s="35"/>
       <c r="N40" s="10"/>
@@ -8105,27 +8086,38 @@
       <c r="BO40" s="10"/>
     </row>
     <row r="41" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="56">
-        <f>G40</f>
-        <v>43865</v>
-      </c>
-      <c r="G41" s="56">
+      <c r="B41" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="58">
+        <v>0</v>
+      </c>
+      <c r="F41" s="57">
+        <f>F40</f>
+        <v>43862</v>
+      </c>
+      <c r="G41" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43866</v>
-      </c>
-      <c r="H41" s="97">
-        <f>H42</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
+        <v>43868</v>
+      </c>
+      <c r="H41" s="54">
+        <v>6</v>
+      </c>
+      <c r="I41" s="94"/>
+      <c r="J41" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
+        <v>-23</v>
+      </c>
+      <c r="K41" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
       <c r="L41" s="108"/>
       <c r="M41" s="35"/>
       <c r="N41" s="10"/>
@@ -8184,38 +8176,27 @@
       <c r="BO41" s="10"/>
     </row>
     <row r="42" spans="1:67" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="58">
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
-        <f>F41</f>
-        <v>43865</v>
-      </c>
-      <c r="G42" s="57">
+      <c r="B42" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="56">
+        <f>G41</f>
+        <v>43868</v>
+      </c>
+      <c r="G42" s="56">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43866</v>
-      </c>
-      <c r="H42" s="54">
+        <v>43869</v>
+      </c>
+      <c r="H42" s="97">
+        <f>H43</f>
         <v>1</v>
       </c>
-      <c r="I42" s="94"/>
-      <c r="J42" s="71">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I42-Milestones[[#This Row],[End Date]])</f>
-        <v>-23</v>
-      </c>
-      <c r="K42" s="71" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I42-G42&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="I42" s="68"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
       <c r="L42" s="108"/>
       <c r="M42" s="35"/>
       <c r="N42" s="10"/>
@@ -8273,30 +8254,39 @@
       <c r="BN42" s="10"/>
       <c r="BO42" s="10"/>
     </row>
-    <row r="43" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="75">
-        <f>G42</f>
-        <v>43866</v>
-      </c>
-      <c r="G43" s="103">
+    <row r="43" spans="1:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="58">
+        <v>0</v>
+      </c>
+      <c r="F43" s="57">
+        <f>F42</f>
+        <v>43868</v>
+      </c>
+      <c r="G43" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43873</v>
-      </c>
-      <c r="H43" s="86">
-        <f>H44</f>
-        <v>7</v>
-      </c>
-      <c r="I43" s="85"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
+        <v>43869</v>
+      </c>
+      <c r="H43" s="54">
+        <v>1</v>
+      </c>
+      <c r="I43" s="94"/>
+      <c r="J43" s="71">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
+        <v>-24</v>
+      </c>
+      <c r="K43" s="71" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
       <c r="L43" s="108"/>
       <c r="M43" s="35"/>
       <c r="N43" s="10"/>
@@ -8355,38 +8345,29 @@
       <c r="BO43" s="10"/>
     </row>
     <row r="44" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="83">
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
-        <f>F43</f>
-        <v>43866</v>
-      </c>
-      <c r="G44" s="57">
+      <c r="B44" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="75">
+        <f>G43</f>
+        <v>43869</v>
+      </c>
+      <c r="G44" s="103">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43873</v>
-      </c>
-      <c r="H44" s="54">
+        <v>43876</v>
+      </c>
+      <c r="H44" s="86">
+        <f>H45</f>
         <v>7</v>
       </c>
-      <c r="I44" s="94"/>
-      <c r="J44" s="71">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I44-Milestones[[#This Row],[End Date]])</f>
-        <v>-30</v>
-      </c>
-      <c r="K44" s="71" t="str">
-        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I44-G44&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
-      </c>
+      <c r="I44" s="85"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
       <c r="L44" s="108"/>
       <c r="M44" s="35"/>
       <c r="N44" s="10"/>
@@ -8444,38 +8425,40 @@
       <c r="BN44" s="10"/>
       <c r="BO44" s="10"/>
     </row>
-    <row r="45" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65" t="s">
+    <row r="45" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="118">
+      <c r="E45" s="83">
         <v>0</v>
       </c>
-      <c r="F45" s="55">
-        <f>G44</f>
-        <v>43873</v>
-      </c>
-      <c r="G45" s="55">
+      <c r="F45" s="57">
+        <f>F44</f>
+        <v>43869</v>
+      </c>
+      <c r="G45" s="57">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
-        <v>43880</v>
-      </c>
-      <c r="H45" s="87">
+        <v>43876</v>
+      </c>
+      <c r="H45" s="54">
         <v>7</v>
       </c>
-      <c r="I45" s="99"/>
-      <c r="J45" s="70">
+      <c r="I45" s="94"/>
+      <c r="J45" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
-        <v>-37</v>
-      </c>
-      <c r="K45" s="70" t="str">
+        <v>-31</v>
+      </c>
+      <c r="K45" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Pending</v>
       </c>
-      <c r="L45" s="35"/>
+      <c r="L45" s="108"/>
       <c r="M45" s="35"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -8532,11 +8515,99 @@
       <c r="BN45" s="10"/>
       <c r="BO45" s="10"/>
     </row>
-    <row r="46" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="30"/>
+    <row r="46" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="118">
+        <v>0</v>
+      </c>
+      <c r="F46" s="55">
+        <f>G45</f>
+        <v>43876</v>
+      </c>
+      <c r="G46" s="55">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43883</v>
+      </c>
+      <c r="H46" s="87">
+        <v>7</v>
+      </c>
+      <c r="I46" s="99"/>
+      <c r="J46" s="70">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
+        <v>-38</v>
+      </c>
+      <c r="K46" s="70" t="str">
+        <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>
+        <v>Pending</v>
+      </c>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="10"/>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="10"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="10"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="10"/>
+      <c r="BF46" s="10"/>
+      <c r="BG46" s="10"/>
+      <c r="BH46" s="10"/>
+      <c r="BI46" s="10"/>
+      <c r="BJ46" s="10"/>
+      <c r="BK46" s="10"/>
+      <c r="BL46" s="10"/>
+      <c r="BM46" s="10"/>
+      <c r="BN46" s="10"/>
+      <c r="BO46" s="10"/>
     </row>
     <row r="47" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8550,7 +8621,7 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E8 E10:E11 E41 E43 E13 E37 E17:E35">
+  <conditionalFormatting sqref="E7:E8 E10:E11 E42 E44 E13 E38 E17:E36">
     <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8564,7 +8635,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:BO8 L10:BO11 L39:BO41 L13:BO13 L17:BO20 L35:BO36">
+  <conditionalFormatting sqref="L5:BO8 L10:BO11 L40:BO42 L13:BO13 L17:BO20 L36:BO37">
     <cfRule type="expression" dxfId="46" priority="153">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
@@ -8639,12 +8710,12 @@
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:BO41">
+  <conditionalFormatting sqref="L39:BO42">
     <cfRule type="expression" dxfId="35" priority="64">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41 E43">
+  <conditionalFormatting sqref="E42 E44">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8658,17 +8729,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42:BO42">
+  <conditionalFormatting sqref="L43:BO43">
     <cfRule type="expression" dxfId="34" priority="56">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L42:BO42">
+  <conditionalFormatting sqref="L43:BO43">
     <cfRule type="expression" dxfId="33" priority="54">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:BO34">
+  <conditionalFormatting sqref="L21:BO35">
     <cfRule type="expression" dxfId="32" priority="43">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
@@ -8697,7 +8768,7 @@
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E37">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8711,7 +8782,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E39">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8725,7 +8796,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8739,7 +8810,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8753,7 +8824,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E45">
+  <conditionalFormatting sqref="E45:E46">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8767,7 +8838,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8781,7 +8852,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:BO37">
+  <conditionalFormatting sqref="L38:BO38">
     <cfRule type="expression" dxfId="29" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
@@ -8803,7 +8874,7 @@
       <formula>AND(LEN($C19)=0,L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:BO27 L35:BO42">
+  <conditionalFormatting sqref="L26:BO27 L36:BO43">
     <cfRule type="expression" dxfId="23" priority="421" stopIfTrue="1">
       <formula>AND($C28="Low Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
@@ -8820,7 +8891,7 @@
       <formula>AND(LEN($C28)=0,L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:BO34">
+  <conditionalFormatting sqref="L28:BO35">
     <cfRule type="expression" dxfId="18" priority="445" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
@@ -8837,41 +8908,41 @@
       <formula>AND(LEN(#REF!)=0,L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:BO43">
+  <conditionalFormatting sqref="L44:BO44">
     <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:BO43">
+  <conditionalFormatting sqref="L44:BO44">
     <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:BO45">
+  <conditionalFormatting sqref="L45:BO46">
     <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:BO45">
+  <conditionalFormatting sqref="L45:BO46">
     <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:BO45">
+  <conditionalFormatting sqref="L44:BO46">
     <cfRule type="expression" dxfId="9" priority="451" stopIfTrue="1">
-      <formula>AND($C46="Low Risk",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
+      <formula>AND($C47="Low Risk",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="452" stopIfTrue="1">
-      <formula>AND($C46="High Risk",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
+      <formula>AND($C47="High Risk",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="453" stopIfTrue="1">
-      <formula>AND($C46="On Track",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
+      <formula>AND($C47="On Track",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="454" stopIfTrue="1">
-      <formula>AND($C46="Med Risk",L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
+      <formula>AND($C47="Med Risk",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="455" stopIfTrue="1">
-      <formula>AND(LEN($C46)=0,L$5&gt;=$F46,L$5&lt;=$F46+$H46-1)</formula>
+      <formula>AND(LEN($C47)=0,L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:BO25">
@@ -8895,7 +8966,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8906,7 +8977,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F36" formula="1"/>
+    <ignoredError sqref="F37" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8957,7 +9028,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E8 E10:E11 E41 E43 E13 E37 E17:E35</xm:sqref>
+          <xm:sqref>E7:E8 E10:E11 E42 E44 E13 E38 E17:E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3450C8A0-7296-4F4E-8C2D-67F62EE92A11}">
@@ -9002,7 +9073,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E41 E43</xm:sqref>
+          <xm:sqref>E42 E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{204492DB-C9DC-4A29-B7D2-317B3BB60E18}">
@@ -9032,7 +9103,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E36</xm:sqref>
+          <xm:sqref>E37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D6D8DC0-8DB6-471B-8654-216B06E96310}">
@@ -9047,7 +9118,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E38</xm:sqref>
+          <xm:sqref>E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{72B44424-0899-4A95-A18C-814AFD22EEB5}">
@@ -9062,7 +9133,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E40</xm:sqref>
+          <xm:sqref>E41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E8DB8E0-4C2B-4E51-A644-0734E8A3FFDF}">
@@ -9077,7 +9148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E42</xm:sqref>
+          <xm:sqref>E43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29A332D1-8F3D-4822-AAE4-11C27860126D}">
@@ -9092,7 +9163,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44:E45</xm:sqref>
+          <xm:sqref>E45:E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08AC8ABD-7BBE-46E4-88DE-E740474021EA}">
@@ -9107,7 +9178,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E39</xm:sqref>
+          <xm:sqref>E40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="135" id="{C6DA3BC1-C08C-46A6-9965-548C4725E846}">
@@ -9164,7 +9235,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L38:BO38</xm:sqref>
+          <xm:sqref>L39:BO39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="401" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -9183,7 +9254,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L39:BO41 L10:BO11 L8:BO8 L13:BO13 L35:BO36 L17:BO19 M20:BO20</xm:sqref>
+          <xm:sqref>L40:BO42 L10:BO11 L8:BO8 L13:BO13 L36:BO37 L17:BO19 M20:BO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="63" id="{51D83373-D7AE-4D2C-96F5-5741546F32FD}">
@@ -9202,7 +9273,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L42:BO42</xm:sqref>
+          <xm:sqref>L43:BO43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="34" id="{22963F08-ED33-4A2E-B7DC-CED3CC34C068}">
@@ -9259,7 +9330,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L37:BO37</xm:sqref>
+          <xm:sqref>L38:BO38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="434" id="{21FC89A8-1110-4FE8-AE4F-B89BB56E6A72}">
@@ -9278,7 +9349,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L21:BO34</xm:sqref>
+          <xm:sqref>L21:BO35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{B2096DA8-8ECA-47CE-B1DF-8F1E2E08633E}">
@@ -9297,7 +9368,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L43:BO43</xm:sqref>
+          <xm:sqref>L44:BO44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{98A44775-E807-4593-914E-8823CF8761D4}">
@@ -9316,7 +9387,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L44:BO45</xm:sqref>
+          <xm:sqref>L45:BO46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B908215-C489-48BC-8A19-0C9168E55F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705DD7E-4391-42E7-A3E6-D6B753C04A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,21 +244,6 @@
     <t>4.1.7 Backup employee master</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4.1.2 Employee master                            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                  *เหลือ import </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">4.2.1 Attendance                               </t>
   </si>
   <si>
@@ -331,6 +316,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>*เหลือ exportData</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.1.2 Employee master                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       *เหลือ import data</t>
     </r>
   </si>
 </sst>
@@ -1589,6 +1589,9 @@
     <xf numFmtId="166" fontId="19" fillId="12" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,9 +1623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1641,6 +1641,272 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="72">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="10"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2581,272 +2847,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <sz val="10"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3157,20 +3157,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:K46" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="52" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="51" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Priority" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="%Progress" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End Date" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Durations" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complete Date" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Delay" dataDxfId="1">
       <calculatedColumnFormula>IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I8-Milestones[[#This Row],[End Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="47">
+    <tableColumn id="11" xr3:uid="{95D18194-25A8-4EDA-B381-D3500AC79722}" name="Status" dataDxfId="0">
       <calculatedColumnFormula>IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3451,8 +3451,8 @@
   </sheetPr>
   <dimension ref="A1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3504,36 +3504,36 @@
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="38"/>
-      <c r="L2" s="163" t="s">
+      <c r="L2" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="Q2" s="164" t="s">
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="Q2" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="V2" s="165" t="s">
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="V2" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="AA2" s="155" t="s">
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="AA2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AF2" s="156" t="s">
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AF2" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3543,15 +3543,15 @@
         <v>40</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="160">
+      <c r="E3" s="159"/>
+      <c r="F3" s="161">
         <v>43789</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="34"/>
       <c r="J3" s="33"/>
       <c r="K3" s="36"/>
@@ -3563,10 +3563,10 @@
       <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="158"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="11">
         <v>0</v>
       </c>
@@ -3656,15 +3656,15 @@
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -6263,7 +6263,7 @@
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6288,7 +6288,7 @@
       <c r="I20" s="151"/>
       <c r="J20" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],L20-Milestones[[#This Row],[End Date]])</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K20" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(L20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6880,7 +6880,7 @@
     <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65" t="s">
@@ -6971,7 +6971,7 @@
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65" t="s">
@@ -6994,7 +6994,7 @@
       <c r="I28" s="84"/>
       <c r="J28" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K28" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65" t="s">
@@ -7149,7 +7149,7 @@
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="76" t="s">
@@ -7239,7 +7239,7 @@
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="76" t="s">
@@ -7262,7 +7262,7 @@
       <c r="I31" s="149"/>
       <c r="J31" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="136"/>
       <c r="D32" s="136"/>
@@ -7336,8 +7336,8 @@
       <c r="G32" s="139"/>
       <c r="H32" s="140"/>
       <c r="I32" s="138"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="33" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="76" t="s">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="K33" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="34" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="76" t="s">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="K34" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
@@ -7577,14 +7577,14 @@
     </row>
     <row r="35" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="84">
         <f t="shared" si="17"/>
@@ -7597,10 +7597,12 @@
       <c r="H35" s="73">
         <v>2</v>
       </c>
-      <c r="I35" s="154"/>
+      <c r="I35" s="154">
+        <v>43847</v>
+      </c>
       <c r="J35" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="K35" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
@@ -7773,7 +7775,7 @@
       <c r="I37" s="105"/>
       <c r="J37" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="K37" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7943,7 +7945,7 @@
       <c r="I39" s="99"/>
       <c r="J39" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="K39" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8112,7 +8114,7 @@
       <c r="I41" s="94"/>
       <c r="J41" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="K41" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8281,7 +8283,7 @@
       <c r="I43" s="94"/>
       <c r="J43" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="K43" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8452,7 +8454,7 @@
       <c r="I45" s="94"/>
       <c r="J45" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="K45" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8540,7 +8542,7 @@
       <c r="I46" s="99"/>
       <c r="J46" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="K46" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8636,39 +8638,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:BO8 L10:BO11 L40:BO42 L13:BO13 L17:BO20 L36:BO37">
-    <cfRule type="expression" dxfId="46" priority="153">
+    <cfRule type="expression" dxfId="59" priority="153">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:AP4">
-    <cfRule type="expression" dxfId="45" priority="159">
+    <cfRule type="expression" dxfId="58" priority="159">
       <formula>L$5&lt;=EOMONTH($L$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BO4">
-    <cfRule type="expression" dxfId="44" priority="155">
+    <cfRule type="expression" dxfId="57" priority="155">
       <formula>AND(M$5&lt;=EOMONTH($L$5,2),M$5&gt;EOMONTH($L$5,0),M$5&gt;EOMONTH($L$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO4">
-    <cfRule type="expression" dxfId="43" priority="154">
+    <cfRule type="expression" dxfId="56" priority="154">
       <formula>AND(L$5&lt;=EOMONTH($L$5,1),L$5&gt;EOMONTH($L$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:BO17">
-    <cfRule type="expression" dxfId="42" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="176" stopIfTrue="1">
       <formula>AND($C8="Low Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="195" stopIfTrue="1">
       <formula>AND($C8="High Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="213" stopIfTrue="1">
       <formula>AND($C8="On Track",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="214" stopIfTrue="1">
       <formula>AND($C8="Med Risk",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="215" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,L$5&gt;=$F8,L$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8687,7 +8689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:BO12">
-    <cfRule type="expression" dxfId="37" priority="128">
+    <cfRule type="expression" dxfId="50" priority="128">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8706,12 +8708,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BO9">
-    <cfRule type="expression" dxfId="36" priority="120">
+    <cfRule type="expression" dxfId="49" priority="120">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:BO42">
-    <cfRule type="expression" dxfId="35" priority="64">
+    <cfRule type="expression" dxfId="48" priority="64">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8730,22 +8732,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:BO43">
-    <cfRule type="expression" dxfId="34" priority="56">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:BO43">
-    <cfRule type="expression" dxfId="33" priority="54">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO35">
-    <cfRule type="expression" dxfId="32" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BO15">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="44" priority="33">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8764,7 +8766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:BO16 L14:BO14">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8853,112 +8855,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:BO38">
-    <cfRule type="expression" dxfId="29" priority="18">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:BO19 L21:BO21 M20:BO20">
-    <cfRule type="expression" dxfId="28" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="409" stopIfTrue="1">
       <formula>AND($C19="Low Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="410" stopIfTrue="1">
       <formula>AND($C19="High Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="411" stopIfTrue="1">
       <formula>AND($C19="On Track",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="412" stopIfTrue="1">
       <formula>AND($C19="Med Risk",L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="413" stopIfTrue="1">
       <formula>AND(LEN($C19)=0,L$5&gt;=$F19,L$5&lt;=$F19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:BO27 L36:BO43">
-    <cfRule type="expression" dxfId="23" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="421" stopIfTrue="1">
       <formula>AND($C28="Low Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="422" stopIfTrue="1">
       <formula>AND($C28="High Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="423" stopIfTrue="1">
       <formula>AND($C28="On Track",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="424" stopIfTrue="1">
       <formula>AND($C28="Med Risk",L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="425" stopIfTrue="1">
       <formula>AND(LEN($C28)=0,L$5&gt;=$F28,L$5&lt;=$F28+$H28-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:BO35">
-    <cfRule type="expression" dxfId="18" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="445" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="446" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="447" stopIfTrue="1">
       <formula>AND(#REF!="On Track",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="448" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="449" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$5&gt;=#REF!,L$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:BO44">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:BO44">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:BO46">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:BO46">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:BO46">
-    <cfRule type="expression" dxfId="9" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="451" stopIfTrue="1">
       <formula>AND($C47="Low Risk",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="452" stopIfTrue="1">
       <formula>AND($C47="High Risk",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="453" stopIfTrue="1">
       <formula>AND($C47="On Track",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="454" stopIfTrue="1">
       <formula>AND($C47="Med Risk",L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="455" stopIfTrue="1">
       <formula>AND(LEN($C47)=0,L$5&gt;=$F47,L$5&lt;=$F47+$H47-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:BO25">
-    <cfRule type="expression" dxfId="4" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="486" stopIfTrue="1">
       <formula>AND($C27="Low Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="487" stopIfTrue="1">
       <formula>AND($C27="High Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="488" stopIfTrue="1">
       <formula>AND($C27="On Track",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="489" stopIfTrue="1">
       <formula>AND($C27="Med Risk",L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="490" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,L$5&gt;=$F27,L$5&lt;=$F27+$H27-1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705DD7E-4391-42E7-A3E6-D6B753C04A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971A1F3-F17E-487B-959C-7D327DACBB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,21 +305,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4.2.2 Date attendance                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*เหลือ exportData</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">4.1.2 Employee master                            </t>
     </r>
     <r>
@@ -332,6 +317,9 @@
       </rPr>
       <t xml:space="preserve">       *เหลือ import data</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.2 Date attendance                                    </t>
   </si>
 </sst>
 </file>
@@ -3451,8 +3439,8 @@
   </sheetPr>
   <dimension ref="A1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6263,7 +6251,7 @@
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6288,7 +6276,7 @@
       <c r="I20" s="151"/>
       <c r="J20" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],L20-Milestones[[#This Row],[End Date]])</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K20" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(L20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -6971,14 +6959,14 @@
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F28" s="84">
         <f t="shared" ref="F28:F30" si="15">G27</f>
@@ -6991,14 +6979,16 @@
       <c r="H28" s="73">
         <v>5</v>
       </c>
-      <c r="I28" s="84"/>
+      <c r="I28" s="84">
+        <v>43851</v>
+      </c>
       <c r="J28" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K28" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I28-G28&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L28" s="35"/>
       <c r="M28" s="10"/>
@@ -7262,7 +7252,7 @@
       <c r="I31" s="149"/>
       <c r="J31" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K31" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
@@ -7606,7 +7596,7 @@
       </c>
       <c r="K35" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -7775,11 +7765,11 @@
       <c r="I37" s="105"/>
       <c r="J37" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="K37" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L37" s="108"/>
       <c r="M37" s="35"/>
@@ -7945,7 +7935,7 @@
       <c r="I39" s="99"/>
       <c r="J39" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="K39" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8114,7 +8104,7 @@
       <c r="I41" s="94"/>
       <c r="J41" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="K41" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8283,7 +8273,7 @@
       <c r="I43" s="94"/>
       <c r="J43" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="K43" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8454,7 +8444,7 @@
       <c r="I45" s="94"/>
       <c r="J45" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="K45" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8542,7 +8532,7 @@
       <c r="I46" s="99"/>
       <c r="J46" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="K46" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971A1F3-F17E-487B-959C-7D327DACBB1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851A12F-527C-45A7-8236-47201E579F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,6 +304,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">4.2.2 Date attendance                                    </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">4.1.2 Employee master                            </t>
     </r>
@@ -315,11 +318,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">       *เหลือ import data</t>
+      <t xml:space="preserve">    </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.2 Date attendance                                    </t>
   </si>
 </sst>
 </file>
@@ -494,6 +494,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1565,19 +1566,19 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="12" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="12" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3439,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6251,7 +6252,7 @@
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6260,7 +6261,7 @@
         <v>54</v>
       </c>
       <c r="E20" s="83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F20" s="84">
         <f t="shared" ref="F20:F25" si="14">G19</f>
@@ -6273,16 +6274,18 @@
       <c r="H20" s="73">
         <v>5</v>
       </c>
-      <c r="I20" s="151"/>
+      <c r="I20" s="155">
+        <v>43853</v>
+      </c>
       <c r="J20" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],L20-Milestones[[#This Row],[End Date]])</f>
-        <v>41</v>
+        <v>-43810</v>
       </c>
       <c r="K20" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(L20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
-      </c>
-      <c r="L20" s="152"/>
+        <v>Complete</v>
+      </c>
+      <c r="L20" s="151"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -6800,7 +6803,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="136"/>
-      <c r="D26" s="153"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="137"/>
       <c r="F26" s="138"/>
       <c r="G26" s="139"/>
@@ -6959,7 +6962,7 @@
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65" t="s">
@@ -7252,7 +7255,7 @@
       <c r="I31" s="149"/>
       <c r="J31" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
@@ -7326,8 +7329,8 @@
       <c r="G32" s="139"/>
       <c r="H32" s="140"/>
       <c r="I32" s="138"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
       <c r="N32" s="10"/>
@@ -7407,7 +7410,7 @@
       <c r="H33" s="73">
         <v>1</v>
       </c>
-      <c r="I33" s="154">
+      <c r="I33" s="153">
         <v>43843</v>
       </c>
       <c r="J33" s="106">
@@ -7497,7 +7500,7 @@
       <c r="H34" s="73">
         <v>2</v>
       </c>
-      <c r="I34" s="154">
+      <c r="I34" s="153">
         <v>43844</v>
       </c>
       <c r="J34" s="106">
@@ -7587,7 +7590,7 @@
       <c r="H35" s="73">
         <v>2</v>
       </c>
-      <c r="I35" s="154">
+      <c r="I35" s="153">
         <v>43847</v>
       </c>
       <c r="J35" s="106">
@@ -7765,7 +7768,7 @@
       <c r="I37" s="105"/>
       <c r="J37" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K37" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7935,7 +7938,7 @@
       <c r="I39" s="99"/>
       <c r="J39" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="K39" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8104,7 +8107,7 @@
       <c r="I41" s="94"/>
       <c r="J41" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="K41" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8273,7 +8276,7 @@
       <c r="I43" s="94"/>
       <c r="J43" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="K43" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8444,7 +8447,7 @@
       <c r="I45" s="94"/>
       <c r="J45" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="K45" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8532,7 +8535,7 @@
       <c r="I46" s="99"/>
       <c r="J46" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="K46" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>

--- a/20191118-Plan-Project-HR-Admin.xlsx
+++ b/20191118-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851A12F-527C-45A7-8236-47201E579F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE811424-92EF-458D-BC79-E73BB91A4BD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3440,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7239,7 +7239,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="149">
         <f t="shared" ref="F31" si="16">G30</f>
@@ -7252,14 +7252,16 @@
       <c r="H31" s="82">
         <v>3</v>
       </c>
-      <c r="I31" s="149"/>
+      <c r="I31" s="149">
+        <v>43859</v>
+      </c>
       <c r="J31" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K31" s="106" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
@@ -7768,7 +7770,7 @@
       <c r="I37" s="105"/>
       <c r="J37" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="K37" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -7938,11 +7940,11 @@
       <c r="I39" s="99"/>
       <c r="J39" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="K39" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>On Process</v>
       </c>
       <c r="L39" s="108"/>
       <c r="M39" s="35"/>
@@ -8107,7 +8109,7 @@
       <c r="I41" s="94"/>
       <c r="J41" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="K41" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8276,7 +8278,7 @@
       <c r="I43" s="94"/>
       <c r="J43" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="K43" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8447,7 +8449,7 @@
       <c r="I45" s="94"/>
       <c r="J45" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I45-Milestones[[#This Row],[End Date]])</f>
-        <v>-23</v>
+        <v>-16</v>
       </c>
       <c r="K45" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I45-G45&gt;0,"Delay","Complete"))),"Complete")</f>
@@ -8535,7 +8537,7 @@
       <c r="I46" s="99"/>
       <c r="J46" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="K46" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>
